--- a/files/local_basic.xlsx
+++ b/files/local_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C199DA-7E28-473C-A866-2BC10E9E9F2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DE99C3E-0403-4715-A30A-516131D8E267}"/>
   </bookViews>
@@ -1615,52 +1615,12 @@
     <t>서귀포시</t>
   </si>
   <si>
-    <t>보험료(2019)</t>
-  </si>
-  <si>
-    <t>연말정산(2020) 주소지
-단위:백만원</t>
-  </si>
-  <si>
-    <t>연말정산(2020) 원천징수
-단위:백만원</t>
-  </si>
-  <si>
     <t>원천징수지/주소지</t>
   </si>
   <si>
-    <t>사업체현황(2019)</t>
-  </si>
-  <si>
-    <t>종사자규모별 사업체수(2019)</t>
-  </si>
-  <si>
-    <t>지역가입자
-(3.43%)</t>
-  </si>
-  <si>
-    <t>직장가입자
-(3.43%)</t>
-  </si>
-  <si>
-    <t>직장월급여
-(3.43%)</t>
-  </si>
-  <si>
-    <t>인구수
-(21.10)</t>
-  </si>
-  <si>
     <t>면적</t>
   </si>
   <si>
-    <t>인구밀도(인구수/km2)</t>
-  </si>
-  <si>
-    <t>세대수
-(21.10)</t>
-  </si>
-  <si>
     <t>12인가구비율(2020)</t>
   </si>
   <si>
@@ -3390,6 +3350,50 @@
   </si>
   <si>
     <t>전국</t>
+  </si>
+  <si>
+    <t>연말정산 주소지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연말정산 원천징수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구밀도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세대수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업체현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종사자규모별 사업체수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역가입자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장가입자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장월급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3443,38 +3447,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{4189815D-0F05-4C17-8F86-1DF8C71AA077}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBED7EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3786,15 +3771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5545A06-5006-4106-AA61-5F8DE569D734}">
   <dimension ref="A1:AN280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="12" max="12" width="11.19921875" customWidth="1"/>
+    <col min="7" max="14" width="13.09765625" customWidth="1"/>
     <col min="16" max="16" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" ht="27" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3802,25 +3789,25 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S1" t="s">
         <v>525</v>
-      </c>
-      <c r="K1" t="s">
-        <v>526</v>
-      </c>
-      <c r="O1" t="s">
-        <v>527</v>
-      </c>
-      <c r="S1" t="s">
-        <v>528</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
       </c>
       <c r="AB1" t="s">
-        <v>529</v>
+        <v>1109</v>
       </c>
       <c r="AD1" t="s">
-        <v>530</v>
+        <v>1110</v>
       </c>
       <c r="AM1" t="s">
         <v>3</v>
@@ -3846,13 +3833,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>531</v>
+        <v>1112</v>
       </c>
       <c r="H2" t="s">
-        <v>532</v>
+        <v>1113</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>1114</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -3882,28 +3869,28 @@
         <v>8</v>
       </c>
       <c r="T2" t="s">
-        <v>534</v>
+        <v>1106</v>
       </c>
       <c r="U2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="V2" t="s">
-        <v>536</v>
+        <v>1107</v>
       </c>
       <c r="W2" t="s">
         <v>8</v>
       </c>
       <c r="X2" t="s">
-        <v>537</v>
+        <v>1108</v>
       </c>
       <c r="Y2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Z2" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AA2" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB2" t="s">
         <v>12</v>
@@ -3953,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F3">
         <v>0.54833847158352522</v>
@@ -3995,7 +3982,7 @@
         <v>1.5352779795108533</v>
       </c>
       <c r="T3" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="U3">
         <v>605.20000000000005</v>
@@ -4007,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="Y3">
         <v>0.60884616640174372</v>
@@ -4066,7 +4053,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F4">
         <v>0.3913583427733574</v>
@@ -4108,7 +4095,7 @@
         <v>0.82436855177809165</v>
       </c>
       <c r="T4" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="U4">
         <v>10187.799999999999</v>
@@ -4120,7 +4107,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="Y4">
         <v>0.54058768275965685</v>
@@ -4179,7 +4166,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F5">
         <v>0.37096457090623491</v>
@@ -4221,7 +4208,7 @@
         <v>0.75913275291069671</v>
       </c>
       <c r="T5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="U5">
         <v>1063.26</v>
@@ -4233,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="Y5">
         <v>0.55895048814504877</v>
@@ -4292,7 +4279,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F6">
         <v>0.43662014634519863</v>
@@ -4334,7 +4321,7 @@
         <v>0.88674450923756065</v>
       </c>
       <c r="T6" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="U6">
         <v>769.82</v>
@@ -4346,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Y6">
         <v>0.61682503734777094</v>
@@ -4405,7 +4392,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F7">
         <v>0.40487116648073951</v>
@@ -4447,7 +4434,7 @@
         <v>0.8181945809349993</v>
       </c>
       <c r="T7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="U7">
         <v>883.57</v>
@@ -4459,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="Y7">
         <v>0.58913630941270989</v>
@@ -4518,7 +4505,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F8">
         <v>0.43805625690663275</v>
@@ -4560,7 +4547,7 @@
         <v>0.81353971112217927</v>
       </c>
       <c r="T8" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="U8">
         <v>501.24</v>
@@ -4572,7 +4559,7 @@
         <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="Y8">
         <v>0.59469440953778019</v>
@@ -4631,7 +4618,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F9">
         <v>0.43556993813899886</v>
@@ -4673,7 +4660,7 @@
         <v>0.99556470395457553</v>
       </c>
       <c r="T9" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="U9">
         <v>539.35</v>
@@ -4685,7 +4672,7 @@
         <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="Y9">
         <v>0.62362485900051967</v>
@@ -4744,7 +4731,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F10">
         <v>0.47497162750341626</v>
@@ -4786,7 +4773,7 @@
         <v>0.91881164498104306</v>
       </c>
       <c r="T10" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="U10">
         <v>1060.79</v>
@@ -4798,7 +4785,7 @@
         <v>8</v>
       </c>
       <c r="X10" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="Y10">
         <v>0.55493405571430821</v>
@@ -4857,7 +4844,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F11">
         <v>0.34053264399526439</v>
@@ -4899,7 +4886,7 @@
         <v>0.73745544664736018</v>
       </c>
       <c r="T11" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="U11">
         <v>464.87</v>
@@ -4911,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="X11" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="Y11">
         <v>0.55196037554095434</v>
@@ -4970,7 +4957,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F12">
         <v>0.43587149000758918</v>
@@ -5012,7 +4999,7 @@
         <v>0.83646382110516493</v>
       </c>
       <c r="T12" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="U12">
         <v>16875.03</v>
@@ -5024,7 +5011,7 @@
         <v>17</v>
       </c>
       <c r="X12" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="Y12">
         <v>0.66278389020920092</v>
@@ -5083,7 +5070,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F13">
         <v>0.46429313916295334</v>
@@ -5125,7 +5112,7 @@
         <v>0.91091556588960831</v>
       </c>
       <c r="T13" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="U13">
         <v>7407.7300000000014</v>
@@ -5137,7 +5124,7 @@
         <v>14</v>
       </c>
       <c r="X13" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="Y13">
         <v>0.64079231487564114</v>
@@ -5196,7 +5183,7 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F14">
         <v>0.45962934000699396</v>
@@ -5238,7 +5225,7 @@
         <v>0.95021692275327174</v>
       </c>
       <c r="T14" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="U14">
         <v>8214.0600000000013</v>
@@ -5250,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="X14" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="Y14">
         <v>0.63872220142520586</v>
@@ -5309,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F15">
         <v>0.40231538130597788</v>
@@ -5351,7 +5338,7 @@
         <v>0.87938822158875285</v>
       </c>
       <c r="T15" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="U15">
         <v>8069.0500000000011</v>
@@ -5363,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Y15">
         <v>0.64666379909340566</v>
@@ -5422,7 +5409,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F16">
         <v>0.42203839091097883</v>
@@ -5464,7 +5451,7 @@
         <v>1.0029470216329404</v>
       </c>
       <c r="T16" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="U16">
         <v>12318.690000000002</v>
@@ -5476,7 +5463,7 @@
         <v>15</v>
       </c>
       <c r="X16" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="Y16">
         <v>0.66727116102311435</v>
@@ -5535,7 +5522,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F17">
         <v>0.43762550301093067</v>
@@ -5577,7 +5564,7 @@
         <v>0.99436141214255491</v>
       </c>
       <c r="T17" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="U17">
         <v>19031.059999999998</v>
@@ -5589,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="Y17">
         <v>0.66428642742346611</v>
@@ -5648,7 +5635,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F18">
         <v>1.5704289213211775</v>
@@ -5690,7 +5677,7 @@
         <v>0.90283561234951359</v>
       </c>
       <c r="T18" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="U18">
         <v>10535.36</v>
@@ -5702,7 +5689,7 @@
         <v>11</v>
       </c>
       <c r="X18" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="Y18">
         <v>0.60543937547911164</v>
@@ -5761,7 +5748,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F19">
         <v>0.42317043790064279</v>
@@ -5803,7 +5790,7 @@
         <v>0.89463181090098143</v>
       </c>
       <c r="T19" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="U19">
         <v>1849.15</v>
@@ -5815,7 +5802,7 @@
         <v>10</v>
       </c>
       <c r="X19" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="Y19">
         <v>0.59362218133714473</v>
@@ -5868,16 +5855,16 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E20" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F20">
         <v>1.308988195805034</v>
@@ -5901,7 +5888,7 @@
         <v>14926829</v>
       </c>
       <c r="M20">
-        <v>71197783.957300872</v>
+        <v>71197783.957300901</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -5922,7 +5909,7 @@
         <v>4.5809742765426682</v>
       </c>
       <c r="T20" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="U20">
         <v>39.5</v>
@@ -5934,7 +5921,7 @@
         <v>29</v>
       </c>
       <c r="X20" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="Y20">
         <v>0.57715974007939363</v>
@@ -5996,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F21">
         <v>0.30570218565095136</v>
@@ -6041,7 +6028,7 @@
         <v>0.62512171372930869</v>
       </c>
       <c r="T21" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="U21">
         <v>24.59</v>
@@ -6053,7 +6040,7 @@
         <v>8</v>
       </c>
       <c r="X21" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="Y21">
         <v>0.55352586537810189</v>
@@ -6115,7 +6102,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F22">
         <v>0.24611859676699591</v>
@@ -6160,7 +6147,7 @@
         <v>0.39724827422042369</v>
       </c>
       <c r="T22" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="U22">
         <v>23.6</v>
@@ -6172,7 +6159,7 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="Y22">
         <v>0.63261815800624011</v>
@@ -6234,7 +6221,7 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F23">
         <v>0.44752767784208425</v>
@@ -6279,7 +6266,7 @@
         <v>1.0236420293692337</v>
       </c>
       <c r="T23" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="U23">
         <v>41.44</v>
@@ -6291,7 +6278,7 @@
         <v>28</v>
       </c>
       <c r="X23" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Y23">
         <v>0.62002810358177285</v>
@@ -6353,7 +6340,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F24">
         <v>0.23664172259760299</v>
@@ -6398,7 +6385,7 @@
         <v>0.3597292661955187</v>
       </c>
       <c r="T24" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="U24">
         <v>29.57</v>
@@ -6410,7 +6397,7 @@
         <v>15</v>
       </c>
       <c r="X24" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="Y24">
         <v>0.74468085106382975</v>
@@ -6472,7 +6459,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F25">
         <v>0.37059803881295955</v>
@@ -6517,7 +6504,7 @@
         <v>0.62359145499866098</v>
       </c>
       <c r="T25" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="U25">
         <v>17.059999999999999</v>
@@ -6529,7 +6516,7 @@
         <v>5</v>
       </c>
       <c r="X25" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="Y25">
         <v>0.64883292787165492</v>
@@ -6591,7 +6578,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F26">
         <v>0.56796114061359571</v>
@@ -6636,7 +6623,7 @@
         <v>1.1286523163585365</v>
       </c>
       <c r="T26" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="U26">
         <v>20.12</v>
@@ -6648,7 +6635,7 @@
         <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="Y26">
         <v>0.58804995033001595</v>
@@ -6710,7 +6697,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F27">
         <v>1.0517725578573287</v>
@@ -6755,7 +6742,7 @@
         <v>2.1811813936563769</v>
       </c>
       <c r="T27" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="U27">
         <v>13.02</v>
@@ -6767,7 +6754,7 @@
         <v>9</v>
       </c>
       <c r="X27" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="Y27">
         <v>0.66386611493541647</v>
@@ -6829,7 +6816,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F28">
         <v>0.22784103223992391</v>
@@ -6874,7 +6861,7 @@
         <v>0.43231824646532252</v>
       </c>
       <c r="T28" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="U28">
         <v>35.44</v>
@@ -6886,7 +6873,7 @@
         <v>24</v>
       </c>
       <c r="X28" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="Y28">
         <v>0.54583980857939274</v>
@@ -6948,7 +6935,7 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F29">
         <v>0.2291524635641331</v>
@@ -6993,7 +6980,7 @@
         <v>0.40596610283655099</v>
       </c>
       <c r="T29" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="U29">
         <v>20.67</v>
@@ -7005,7 +6992,7 @@
         <v>20</v>
       </c>
       <c r="X29" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="Y29">
         <v>0.56571033746329358</v>
@@ -7067,7 +7054,7 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F30">
         <v>0.41002790796888056</v>
@@ -7112,7 +7099,7 @@
         <v>0.84778144451813442</v>
       </c>
       <c r="T30" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="U30">
         <v>14.21</v>
@@ -7124,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="Y30">
         <v>0.65001030770151558</v>
@@ -7186,7 +7173,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F31">
         <v>0.27484815376728822</v>
@@ -7231,7 +7218,7 @@
         <v>0.51897214805379321</v>
       </c>
       <c r="T31" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="U31">
         <v>16.350000000000001</v>
@@ -7243,7 +7230,7 @@
         <v>3</v>
       </c>
       <c r="X31" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Y31">
         <v>0.62938855310372777</v>
@@ -7305,7 +7292,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F32">
         <v>0.66886487509974435</v>
@@ -7350,7 +7337,7 @@
         <v>1.6489633572238342</v>
       </c>
       <c r="T32" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="U32">
         <v>23.84</v>
@@ -7362,7 +7349,7 @@
         <v>19</v>
       </c>
       <c r="X32" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="Y32">
         <v>0.64563327338017562</v>
@@ -7424,7 +7411,7 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F33">
         <v>0.37215210567617052</v>
@@ -7469,7 +7456,7 @@
         <v>0.75660165474873253</v>
       </c>
       <c r="T33" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="U33">
         <v>17.61</v>
@@ -7481,7 +7468,7 @@
         <v>11</v>
       </c>
       <c r="X33" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="Y33">
         <v>0.62709597932568062</v>
@@ -7543,7 +7530,7 @@
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F34">
         <v>1.0575836639900935</v>
@@ -7588,7 +7575,7 @@
         <v>2.8928839971344162</v>
       </c>
       <c r="T34" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="U34">
         <v>46.98</v>
@@ -7600,7 +7587,7 @@
         <v>43</v>
       </c>
       <c r="X34" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="Y34">
         <v>0.53040871620453101</v>
@@ -7662,7 +7649,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F35">
         <v>0.62067944869660907</v>
@@ -7707,7 +7694,7 @@
         <v>1.9559374760945509</v>
       </c>
       <c r="T35" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="U35">
         <v>16.86</v>
@@ -7719,7 +7706,7 @@
         <v>13</v>
       </c>
       <c r="X35" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="Y35">
         <v>0.61343361759939763</v>
@@ -7781,7 +7768,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F36">
         <v>0.25690784829696284</v>
@@ -7826,7 +7813,7 @@
         <v>0.52783214090923669</v>
       </c>
       <c r="T36" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="U36">
         <v>24.58</v>
@@ -7838,7 +7825,7 @@
         <v>10</v>
       </c>
       <c r="X36" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="Y36">
         <v>0.59669932093955247</v>
@@ -7900,7 +7887,7 @@
         <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F37">
         <v>0.51756798369028534</v>
@@ -7945,7 +7932,7 @@
         <v>1.3335969055200565</v>
       </c>
       <c r="T37" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="U37">
         <v>33.880000000000003</v>
@@ -7957,7 +7944,7 @@
         <v>7</v>
       </c>
       <c r="X37" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="Y37">
         <v>0.54814557056059054</v>
@@ -8019,7 +8006,7 @@
         <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F38">
         <v>0.27100487256873085</v>
@@ -8064,7 +8051,7 @@
         <v>0.45510679103330925</v>
       </c>
       <c r="T38" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="U38">
         <v>17.41</v>
@@ -8076,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="Y38">
         <v>0.49708510997085109</v>
@@ -8138,7 +8125,7 @@
         <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F39">
         <v>0.98928280056367279</v>
@@ -8183,7 +8170,7 @@
         <v>3.2288239698621801</v>
       </c>
       <c r="T39" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="U39">
         <v>24.53</v>
@@ -8195,7 +8182,7 @@
         <v>21</v>
       </c>
       <c r="X39" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="Y39">
         <v>0.64613186691380675</v>
@@ -8257,7 +8244,7 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F40">
         <v>0.60452454707594105</v>
@@ -8302,7 +8289,7 @@
         <v>4.8368063407962607</v>
       </c>
       <c r="T40" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="U40">
         <v>21.87</v>
@@ -8314,7 +8301,7 @@
         <v>35</v>
       </c>
       <c r="X40" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="Y40">
         <v>0.65635121298869548</v>
@@ -8376,7 +8363,7 @@
         <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F41">
         <v>0.19779706740407588</v>
@@ -8421,7 +8408,7 @@
         <v>0.33228405532359079</v>
       </c>
       <c r="T41" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="U41">
         <v>29.7</v>
@@ -8433,7 +8420,7 @@
         <v>18</v>
       </c>
       <c r="X41" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="Y41">
         <v>0.58959455702377894</v>
@@ -8495,7 +8482,7 @@
         <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F42">
         <v>1.7919034579554993</v>
@@ -8540,7 +8527,7 @@
         <v>7.3868739205526772</v>
       </c>
       <c r="T42" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="U42">
         <v>23.91</v>
@@ -8552,7 +8539,7 @@
         <v>64</v>
       </c>
       <c r="X42" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="Y42">
         <v>0.66647743400510928</v>
@@ -8614,7 +8601,7 @@
         <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F43">
         <v>3.1973025142326583</v>
@@ -8659,7 +8646,7 @@
         <v>11.02493654822335</v>
       </c>
       <c r="T43" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="U43">
         <v>9.9600000000000009</v>
@@ -8671,7 +8658,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="Y43">
         <v>0.68603996878006279</v>
@@ -8733,7 +8720,7 @@
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F44">
         <v>0.26620352482368154</v>
@@ -8778,7 +8765,7 @@
         <v>0.40095560422058529</v>
       </c>
       <c r="T44" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="U44">
         <v>18.5</v>
@@ -8790,7 +8777,7 @@
         <v>4</v>
       </c>
       <c r="X44" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="Y44">
         <v>0.61990996893807027</v>
@@ -8852,7 +8839,7 @@
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F45">
         <v>0.45592133802477469</v>
@@ -8897,7 +8884,7 @@
         <v>0.84387980795166428</v>
       </c>
       <c r="T45" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="U45">
         <v>843.71</v>
@@ -8909,7 +8896,7 @@
         <v>215</v>
       </c>
       <c r="X45" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="Y45">
         <v>0.68548261344144701</v>
@@ -8971,7 +8958,7 @@
         <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F46">
         <v>0.30988576612604607</v>
@@ -9013,7 +9000,7 @@
         <v>0.57243176226729431</v>
       </c>
       <c r="T46" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="U46">
         <v>268.10000000000002</v>
@@ -9025,7 +9012,7 @@
         <v>82</v>
       </c>
       <c r="X46" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="Y46">
         <v>0.52247633278510974</v>
@@ -9090,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F47">
         <v>0.24352689689523493</v>
@@ -9135,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="U47">
         <v>165.51</v>
@@ -9147,7 +9134,7 @@
         <v>94</v>
       </c>
       <c r="X47" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="Y47">
         <v>0.54689166266072131</v>
@@ -9212,7 +9199,7 @@
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F48">
         <v>0.48725134025227101</v>
@@ -9257,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="U48">
         <v>59.1</v>
@@ -9269,7 +9256,7 @@
         <v>74</v>
       </c>
       <c r="X48" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="Y48">
         <v>0.5407738307111839</v>
@@ -9334,7 +9321,7 @@
         <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F49">
         <v>0.23892406652759315</v>
@@ -9379,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="U49">
         <v>42.8</v>
@@ -9391,7 +9378,7 @@
         <v>57</v>
       </c>
       <c r="X49" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="Y49">
         <v>0.46110684599126123</v>
@@ -9453,7 +9440,7 @@
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F50">
         <v>0.498269203261336</v>
@@ -9498,7 +9485,7 @@
         <v>1.9224057842226441</v>
       </c>
       <c r="T50" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="U50">
         <v>35.869999999999997</v>
@@ -9510,7 +9497,7 @@
         <v>101</v>
       </c>
       <c r="X50" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="Y50">
         <v>0.43625634022629733</v>
@@ -9572,7 +9559,7 @@
         <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F51">
         <v>0.31891135577909241</v>
@@ -9617,7 +9604,7 @@
         <v>0.60876425208227802</v>
       </c>
       <c r="T51" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="U51">
         <v>38.520000000000003</v>
@@ -9629,7 +9616,7 @@
         <v>52</v>
       </c>
       <c r="X51" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="Y51">
         <v>0.50618137417738795</v>
@@ -9691,7 +9678,7 @@
         <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F52">
         <v>0.36645398658718331</v>
@@ -9736,7 +9723,7 @@
         <v>0.75219507170996724</v>
       </c>
       <c r="T52" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="U52">
         <v>431.02</v>
@@ -9748,7 +9735,7 @@
         <v>122</v>
       </c>
       <c r="X52" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="Y52">
         <v>0.53885304007997814</v>
@@ -9810,7 +9797,7 @@
         <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F53">
         <v>0.34392841970012539</v>
@@ -9855,7 +9842,7 @@
         <v>0.56284693597142077</v>
       </c>
       <c r="T53" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="U53">
         <v>33.31</v>
@@ -9867,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="X53" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="Y53">
         <v>0.5134533739232523</v>
@@ -9929,7 +9916,7 @@
         <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F54">
         <v>0.41063090838177663</v>
@@ -9974,7 +9961,7 @@
         <v>0.63820222772706015</v>
       </c>
       <c r="T54" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="U54">
         <v>36.409999999999997</v>
@@ -9986,7 +9973,7 @@
         <v>54</v>
       </c>
       <c r="X54" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="Y54">
         <v>0.52180528366251233</v>
@@ -10048,7 +10035,7 @@
         <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F55">
         <v>0.36272869289238235</v>
@@ -10093,7 +10080,7 @@
         <v>0.80832872539097955</v>
       </c>
       <c r="T55" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="U55">
         <v>276.60000000000002</v>
@@ -10105,7 +10092,7 @@
         <v>105</v>
       </c>
       <c r="X55" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="Y55">
         <v>0.50822791439244941</v>
@@ -10167,7 +10154,7 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F56">
         <v>0.23958581648897548</v>
@@ -10212,7 +10199,7 @@
         <v>0.56248714857656623</v>
       </c>
       <c r="T56" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="U56">
         <v>458.05</v>
@@ -10224,7 +10211,7 @@
         <v>108</v>
       </c>
       <c r="X56" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="Y56">
         <v>0.48774394510172864</v>
@@ -10286,7 +10273,7 @@
         <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F57">
         <v>0.31404799589339949</v>
@@ -10331,7 +10318,7 @@
         <v>0.61665993976838773</v>
       </c>
       <c r="T57" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="U57">
         <v>95.67</v>
@@ -10343,7 +10330,7 @@
         <v>119</v>
       </c>
       <c r="X57" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="Y57">
         <v>0.62613348797975543</v>
@@ -10405,7 +10392,7 @@
         <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F58">
         <v>0.36828922080027521</v>
@@ -10450,7 +10437,7 @@
         <v>0.65358596430917315</v>
       </c>
       <c r="T58" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="U58">
         <v>53.44</v>
@@ -10462,7 +10449,7 @@
         <v>23</v>
       </c>
       <c r="X58" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="Y58">
         <v>0.54001000962951695</v>
@@ -10524,7 +10511,7 @@
         <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F59">
         <v>0.50211259514731255</v>
@@ -10566,7 +10553,7 @@
         <v>1.169482362131806</v>
       </c>
       <c r="T59" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="U59">
         <v>141.66</v>
@@ -10578,7 +10565,7 @@
         <v>60</v>
       </c>
       <c r="X59" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="Y59">
         <v>0.56744186046511624</v>
@@ -10643,7 +10630,7 @@
         <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F60">
         <v>0.6304526561474213</v>
@@ -10688,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="U60">
         <v>69.349999999999994</v>
@@ -10700,7 +10687,7 @@
         <v>59</v>
       </c>
       <c r="X60" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="Y60">
         <v>0.49689015300789885</v>
@@ -10765,7 +10752,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F61">
         <v>0.28984659716925165</v>
@@ -10810,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="U61">
         <v>45.99</v>
@@ -10822,7 +10809,7 @@
         <v>73</v>
       </c>
       <c r="X61" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="Y61">
         <v>0.64362681937485089</v>
@@ -10887,7 +10874,7 @@
         <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F62">
         <v>0.44620148909534163</v>
@@ -10932,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="U62">
         <v>26.38</v>
@@ -10944,7 +10931,7 @@
         <v>48</v>
       </c>
       <c r="X62" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="Y62">
         <v>0.61615452346719279</v>
@@ -11006,7 +10993,7 @@
         <v>127</v>
       </c>
       <c r="E63" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F63">
         <v>0.37003280248650949</v>
@@ -11048,7 +11035,7 @@
         <v>0.91417797706094928</v>
       </c>
       <c r="T63" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="U63">
         <v>121.05</v>
@@ -11060,7 +11047,7 @@
         <v>37</v>
       </c>
       <c r="X63" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="Y63">
         <v>0.5495173668548281</v>
@@ -11125,7 +11112,7 @@
         <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F64">
         <v>0.30003622233930455</v>
@@ -11170,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="U64">
         <v>47.31</v>
@@ -11182,7 +11169,7 @@
         <v>51</v>
       </c>
       <c r="X64" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="Y64">
         <v>0.53970160091041741</v>
@@ -11247,7 +11234,7 @@
         <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F65">
         <v>0.41870880281883394</v>
@@ -11292,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="U65">
         <v>27.68</v>
@@ -11304,7 +11291,7 @@
         <v>30</v>
       </c>
       <c r="X65" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="Y65">
         <v>0.51727383845905284</v>
@@ -11369,7 +11356,7 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F66">
         <v>0.28366574890269997</v>
@@ -11414,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="U66">
         <v>33.17</v>
@@ -11426,7 +11413,7 @@
         <v>47</v>
       </c>
       <c r="X66" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="Y66">
         <v>0.53172824608783931</v>
@@ -11491,7 +11478,7 @@
         <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F67">
         <v>0.54211391018619937</v>
@@ -11536,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="U67">
         <v>12.86</v>
@@ -11548,7 +11535,7 @@
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="Y67">
         <v>0.65273506295507711</v>
@@ -11610,7 +11597,7 @@
         <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F68">
         <v>0.41060153783640169</v>
@@ -11655,7 +11642,7 @@
         <v>0.85532633866297136</v>
       </c>
       <c r="T68" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="U68">
         <v>135.80000000000001</v>
@@ -11667,7 +11654,7 @@
         <v>83</v>
       </c>
       <c r="X68" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="Y68">
         <v>0.54040024269704878</v>
@@ -11729,7 +11716,7 @@
         <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F69">
         <v>0.48950417127211188</v>
@@ -11771,7 +11758,7 @@
         <v>0.93667733902525796</v>
       </c>
       <c r="T69" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="U69">
         <v>154.22999999999999</v>
@@ -11783,7 +11770,7 @@
         <v>81</v>
       </c>
       <c r="X69" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="Y69">
         <v>0.56599052947451634</v>
@@ -11848,7 +11835,7 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F70">
         <v>0.79109700036379271</v>
@@ -11893,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="U70">
         <v>91.51</v>
@@ -11905,7 +11892,7 @@
         <v>90</v>
       </c>
       <c r="X70" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="Y70">
         <v>0.56173037798479497</v>
@@ -11970,7 +11957,7 @@
         <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F71">
         <v>0.23419673799634397</v>
@@ -12015,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="U71">
         <v>57.99</v>
@@ -12027,7 +12014,7 @@
         <v>65</v>
       </c>
       <c r="X71" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="Y71">
         <v>0.56970637469376617</v>
@@ -12089,7 +12076,7 @@
         <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F72">
         <v>0.53185545927940459</v>
@@ -12134,7 +12121,7 @@
         <v>1.1116023865331344</v>
       </c>
       <c r="T72" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="U72">
         <v>553.39</v>
@@ -12146,7 +12133,7 @@
         <v>152</v>
       </c>
       <c r="X72" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="Y72">
         <v>0.62501292524040952</v>
@@ -12208,7 +12195,7 @@
         <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F73">
         <v>0.47782033337109736</v>
@@ -12250,7 +12237,7 @@
         <v>0.90779500945749003</v>
       </c>
       <c r="T73" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="U73">
         <v>58.5</v>
@@ -12262,7 +12249,7 @@
         <v>39</v>
       </c>
       <c r="X73" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="Y73">
         <v>0.50443617559882226</v>
@@ -12327,7 +12314,7 @@
         <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F74">
         <v>0.55791335962733923</v>
@@ -12372,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="U74">
         <v>21.93</v>
@@ -12384,7 +12371,7 @@
         <v>27</v>
       </c>
       <c r="X74" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="Y74">
         <v>0.46632418548060023</v>
@@ -12449,7 +12436,7 @@
         <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F75">
         <v>0.37467339456444942</v>
@@ -12494,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="U75">
         <v>36.53</v>
@@ -12506,7 +12493,7 @@
         <v>61</v>
       </c>
       <c r="X75" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="Y75">
         <v>0.550158942975153</v>
@@ -12568,7 +12555,7 @@
         <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F76">
         <v>0.39265891915920492</v>
@@ -12613,7 +12600,7 @@
         <v>0.85041763341067289</v>
       </c>
       <c r="T76" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="U76">
         <v>310.33999999999997</v>
@@ -12625,7 +12612,7 @@
         <v>126</v>
       </c>
       <c r="X76" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="Y76">
         <v>0.55240623196768612</v>
@@ -12687,7 +12674,7 @@
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F77">
         <v>0.27033204607716937</v>
@@ -12732,7 +12719,7 @@
         <v>0.62593470166476906</v>
       </c>
       <c r="T77" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="U77">
         <v>877.69</v>
@@ -12744,7 +12731,7 @@
         <v>183</v>
       </c>
       <c r="X77" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="Y77">
         <v>0.66260726905603229</v>
@@ -12806,7 +12793,7 @@
         <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F78">
         <v>0.42316942811330838</v>
@@ -12851,7 +12838,7 @@
         <v>0.88493601656666487</v>
       </c>
       <c r="T78" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="U78">
         <v>608.37</v>
@@ -12863,7 +12850,7 @@
         <v>170</v>
       </c>
       <c r="X78" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="Y78">
         <v>0.62413528055342049</v>
@@ -12925,7 +12912,7 @@
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F79">
         <v>0.36194125756478257</v>
@@ -12970,7 +12957,7 @@
         <v>0.80098860949924777</v>
       </c>
       <c r="T79" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="U79">
         <v>676.32</v>
@@ -12982,7 +12969,7 @@
         <v>222</v>
       </c>
       <c r="X79" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="Y79">
         <v>0.6787498612190519</v>
@@ -13044,7 +13031,7 @@
         <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F80">
         <v>0.31252197237015145</v>
@@ -13089,7 +13076,7 @@
         <v>0.53353187510164257</v>
       </c>
       <c r="T80" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="U80">
         <v>42.74</v>
@@ -13101,7 +13088,7 @@
         <v>72</v>
       </c>
       <c r="X80" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="Y80">
         <v>0.56477602846293617</v>
@@ -13163,7 +13150,7 @@
         <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F81">
         <v>0.32512881978568164</v>
@@ -13205,7 +13192,7 @@
         <v>0.78502453771326974</v>
       </c>
       <c r="T81" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="U81">
         <v>591.34</v>
@@ -13217,7 +13204,7 @@
         <v>103</v>
       </c>
       <c r="X81" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="Y81">
         <v>0.49108492772575846</v>
@@ -13282,7 +13269,7 @@
         <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F82">
         <v>0.3454892784880238</v>
@@ -13327,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="U82">
         <v>81.7</v>
@@ -13339,7 +13326,7 @@
         <v>71</v>
       </c>
       <c r="X82" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="Y82">
         <v>0.48179467468027115</v>
@@ -13404,7 +13391,7 @@
         <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F83">
         <v>0.20148733874312696</v>
@@ -13449,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="U83">
         <v>42.1</v>
@@ -13461,7 +13448,7 @@
         <v>42</v>
       </c>
       <c r="X83" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="Y83">
         <v>0.43987831687153606</v>
@@ -13526,7 +13513,7 @@
         <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F84">
         <v>0.46870189840944076</v>
@@ -13571,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="U84">
         <v>467.6</v>
@@ -13583,7 +13570,7 @@
         <v>139</v>
       </c>
       <c r="X84" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="Y84">
         <v>0.57158517868888403</v>
@@ -13645,7 +13632,7 @@
         <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F85">
         <v>0.33643038655133656</v>
@@ -13690,7 +13677,7 @@
         <v>0.55927708330229298</v>
       </c>
       <c r="T85" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="U85">
         <v>53.99</v>
@@ -13702,7 +13689,7 @@
         <v>93</v>
       </c>
       <c r="X85" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="Y85">
         <v>0.49597940919184441</v>
@@ -13764,7 +13751,7 @@
         <v>174</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F86">
         <v>0.26328707148480046</v>
@@ -13809,7 +13796,7 @@
         <v>0.50243034036916867</v>
       </c>
       <c r="T86" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="U86">
         <v>81.540000000000006</v>
@@ -13821,7 +13808,7 @@
         <v>69</v>
       </c>
       <c r="X86" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="Y86">
         <v>0.55964889620199143</v>
@@ -13883,7 +13870,7 @@
         <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F87">
         <v>0.56253514589451326</v>
@@ -13928,7 +13915,7 @@
         <v>1.1509569722262196</v>
       </c>
       <c r="T87" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="U87">
         <v>461.38</v>
@@ -13940,7 +13927,7 @@
         <v>146</v>
       </c>
       <c r="X87" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="Y87">
         <v>0.57056884253431639</v>
@@ -14002,7 +13989,7 @@
         <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F88">
         <v>0.40204473030136711</v>
@@ -14047,7 +14034,7 @@
         <v>0.79914292472810688</v>
       </c>
       <c r="T88" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="U88">
         <v>672.83</v>
@@ -14059,7 +14046,7 @@
         <v>129</v>
       </c>
       <c r="X88" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="Y88">
         <v>0.53474058645947908</v>
@@ -14121,7 +14108,7 @@
         <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F89">
         <v>0.41911781794648556</v>
@@ -14166,7 +14153,7 @@
         <v>0.9059976224620726</v>
       </c>
       <c r="T89" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="U89">
         <v>458.08</v>
@@ -14178,7 +14165,7 @@
         <v>114</v>
       </c>
       <c r="X89" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="Y89">
         <v>0.58957712784670591</v>
@@ -14240,7 +14227,7 @@
         <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F90">
         <v>0.6534134492457172</v>
@@ -14285,7 +14272,7 @@
         <v>1.3511155678114817</v>
       </c>
       <c r="T90" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="U90">
         <v>826.57</v>
@@ -14297,7 +14284,7 @@
         <v>171</v>
       </c>
       <c r="X90" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="Y90">
         <v>0.63858882822343555</v>
@@ -14359,7 +14346,7 @@
         <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F91">
         <v>0.26769800486556183</v>
@@ -14404,7 +14391,7 @@
         <v>0.60759030090364785</v>
       </c>
       <c r="T91" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="U91">
         <v>93.03</v>
@@ -14416,7 +14403,7 @@
         <v>89</v>
       </c>
       <c r="X91" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="Y91">
         <v>0.55931781401717917</v>
@@ -14478,7 +14465,7 @@
         <v>186</v>
       </c>
       <c r="E92" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F92">
         <v>0.55839387893603165</v>
@@ -14523,7 +14510,7 @@
         <v>1.0826574209169399</v>
       </c>
       <c r="T92" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="U92">
         <v>693.92</v>
@@ -14535,7 +14522,7 @@
         <v>113</v>
       </c>
       <c r="X92" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="Y92">
         <v>0.51872955314396141</v>
@@ -14597,7 +14584,7 @@
         <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F93">
         <v>0.27636227307464922</v>
@@ -14642,7 +14629,7 @@
         <v>0.84407000054179981</v>
       </c>
       <c r="T93" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="U93">
         <v>411.43</v>
@@ -14654,7 +14641,7 @@
         <v>174</v>
       </c>
       <c r="X93" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="Y93">
         <v>0.69263664785999213</v>
@@ -14716,7 +14703,7 @@
         <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F94">
         <v>0.28219920502489382</v>
@@ -14761,7 +14748,7 @@
         <v>0.50474023511566168</v>
       </c>
       <c r="T94" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="U94">
         <v>45.57</v>
@@ -14773,7 +14760,7 @@
         <v>62</v>
       </c>
       <c r="X94" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="Y94">
         <v>0.53813186426358772</v>
@@ -14835,7 +14822,7 @@
         <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F95">
         <v>0.30192311001526589</v>
@@ -14880,7 +14867,7 @@
         <v>0.55489305763284802</v>
       </c>
       <c r="T95" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="U95">
         <v>24.84</v>
@@ -14892,7 +14879,7 @@
         <v>16</v>
       </c>
       <c r="X95" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="Y95">
         <v>0.6210303834039832</v>
@@ -14954,7 +14941,7 @@
         <v>195</v>
       </c>
       <c r="E96" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F96">
         <v>0.44476749790807885</v>
@@ -14999,7 +14986,7 @@
         <v>1.0196980854197348</v>
       </c>
       <c r="T96" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="U96">
         <v>57.05</v>
@@ -15011,7 +14998,7 @@
         <v>40</v>
       </c>
       <c r="X96" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="Y96">
         <v>0.56293239353778068</v>
@@ -15073,7 +15060,7 @@
         <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F97">
         <v>0.55441534762895917</v>
@@ -15118,7 +15105,7 @@
         <v>1.6336620349619004</v>
       </c>
       <c r="T97" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="U97">
         <v>7.19</v>
@@ -15130,7 +15117,7 @@
         <v>45</v>
       </c>
       <c r="X97" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="Y97">
         <v>0.60287707061900608</v>
@@ -15192,7 +15179,7 @@
         <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F98">
         <v>0.32689738819730707</v>
@@ -15237,7 +15224,7 @@
         <v>0.58643572092237517</v>
       </c>
       <c r="T98" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="U98">
         <v>32</v>
@@ -15249,7 +15236,7 @@
         <v>22</v>
       </c>
       <c r="X98" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="Y98">
         <v>0.55572970102545327</v>
@@ -15311,7 +15298,7 @@
         <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F99">
         <v>0.32544021957569458</v>
@@ -15356,7 +15343,7 @@
         <v>0.80196324465362367</v>
       </c>
       <c r="T99" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="U99">
         <v>116.9</v>
@@ -15368,7 +15355,7 @@
         <v>76</v>
       </c>
       <c r="X99" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="Y99">
         <v>0.5063329582681948</v>
@@ -15430,7 +15417,7 @@
         <v>203</v>
       </c>
       <c r="E100" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F100">
         <v>0.27440847750598829</v>
@@ -15475,7 +15462,7 @@
         <v>0.60979563296570571</v>
       </c>
       <c r="T100" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="U100">
         <v>55.95</v>
@@ -15487,7 +15474,7 @@
         <v>58</v>
       </c>
       <c r="X100" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="Y100">
         <v>0.48918982121218563</v>
@@ -15549,7 +15536,7 @@
         <v>205</v>
       </c>
       <c r="E101" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F101">
         <v>0.33532640658694374</v>
@@ -15594,7 +15581,7 @@
         <v>0.42506325346033635</v>
       </c>
       <c r="T101" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="U101">
         <v>172.48</v>
@@ -15606,7 +15593,7 @@
         <v>191</v>
       </c>
       <c r="X101" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="Y101">
         <v>0.75657142857142856</v>
@@ -15668,7 +15655,7 @@
         <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F102">
         <v>0.65133433367457128</v>
@@ -15713,7 +15700,7 @@
         <v>1.3363576349509962</v>
       </c>
       <c r="T102" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="U102">
         <v>140.19</v>
@@ -15725,7 +15712,7 @@
         <v>118</v>
       </c>
       <c r="X102" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="Y102">
         <v>0.65196490402393514</v>
@@ -15787,7 +15774,7 @@
         <v>87</v>
       </c>
       <c r="E103" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F103">
         <v>1.71253318910414</v>
@@ -15820,7 +15807,7 @@
         <v>3.6767212628770474</v>
       </c>
       <c r="T103" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="U103">
         <v>2.82</v>
@@ -15832,7 +15819,7 @@
         <v>25</v>
       </c>
       <c r="X103" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="Y103">
         <v>0.7738931148819973</v>
@@ -15894,7 +15881,7 @@
         <v>201</v>
       </c>
       <c r="E104" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F104">
         <v>0.41771744176132325</v>
@@ -15927,7 +15914,7 @@
         <v>1.0167518539309244</v>
       </c>
       <c r="T104" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="U104">
         <v>13.96</v>
@@ -15939,7 +15926,7 @@
         <v>53</v>
       </c>
       <c r="X104" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="Y104">
         <v>0.68559700387211442</v>
@@ -16001,7 +15988,7 @@
         <v>197</v>
       </c>
       <c r="E105" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F105">
         <v>0.85493415426714559</v>
@@ -16034,7 +16021,7 @@
         <v>1.551640175853906</v>
       </c>
       <c r="T105" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="U105">
         <v>9.74</v>
@@ -16046,7 +16033,7 @@
         <v>41</v>
       </c>
       <c r="X105" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="Y105">
         <v>0.69981898632341111</v>
@@ -16108,7 +16095,7 @@
         <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F106">
         <v>0.40101340101340099</v>
@@ -16141,7 +16128,7 @@
         <v>0.96495637195380224</v>
       </c>
       <c r="T106" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="U106">
         <v>14.19</v>
@@ -16153,7 +16140,7 @@
         <v>49</v>
       </c>
       <c r="X106" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="Y106">
         <v>0.6862829943747295</v>
@@ -16215,7 +16202,7 @@
         <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F107">
         <v>0.47624623336756688</v>
@@ -16248,7 +16235,7 @@
         <v>0.84238724551092636</v>
       </c>
       <c r="T107" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="U107">
         <v>29.68</v>
@@ -16260,7 +16247,7 @@
         <v>33</v>
       </c>
       <c r="X107" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="Y107">
         <v>0.66102288278539834</v>
@@ -16322,7 +16309,7 @@
         <v>215</v>
       </c>
       <c r="E108" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F108">
         <v>0.32831794748831078</v>
@@ -16355,7 +16342,7 @@
         <v>0.58720812399330113</v>
       </c>
       <c r="T108" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="U108">
         <v>16.63</v>
@@ -16367,7 +16354,7 @@
         <v>17</v>
       </c>
       <c r="X108" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="Y108">
         <v>0.56910001603576921</v>
@@ -16429,7 +16416,7 @@
         <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F109">
         <v>0.30938017596377393</v>
@@ -16462,7 +16449,7 @@
         <v>0.73775967321515212</v>
       </c>
       <c r="T109" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="U109">
         <v>26.81</v>
@@ -16474,7 +16461,7 @@
         <v>36</v>
       </c>
       <c r="X109" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="Y109">
         <v>0.60663622801862482</v>
@@ -16536,7 +16523,7 @@
         <v>219</v>
       </c>
       <c r="E110" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F110">
         <v>0.20937673998999176</v>
@@ -16569,7 +16556,7 @@
         <v>0.40040265160815125</v>
       </c>
       <c r="T110" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="U110">
         <v>39.36</v>
@@ -16581,7 +16568,7 @@
         <v>56</v>
       </c>
       <c r="X110" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="Y110">
         <v>0.57261693231141875</v>
@@ -16643,7 +16630,7 @@
         <v>221</v>
       </c>
       <c r="E111" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F111">
         <v>0.34367170126485475</v>
@@ -16676,7 +16663,7 @@
         <v>0.70725498515061513</v>
       </c>
       <c r="T111" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="U111">
         <v>51.47</v>
@@ -16688,7 +16675,7 @@
         <v>50</v>
       </c>
       <c r="X111" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="Y111">
         <v>0.57825651113086574</v>
@@ -16750,7 +16737,7 @@
         <v>223</v>
       </c>
       <c r="E112" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F112">
         <v>0.3599745601017596</v>
@@ -16783,7 +16770,7 @@
         <v>0.70759548611111112</v>
       </c>
       <c r="T112" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="U112">
         <v>41.75</v>
@@ -16795,7 +16782,7 @@
         <v>55</v>
       </c>
       <c r="X112" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="Y112">
         <v>0.60518565841345029</v>
@@ -16857,7 +16844,7 @@
         <v>225</v>
       </c>
       <c r="E113" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F113">
         <v>0.40650583902106935</v>
@@ -16890,7 +16877,7 @@
         <v>0.80665834480806109</v>
       </c>
       <c r="T113" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="U113">
         <v>65.27</v>
@@ -16902,7 +16889,7 @@
         <v>88</v>
       </c>
       <c r="X113" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="Y113">
         <v>0.64883794031551445</v>
@@ -16964,7 +16951,7 @@
         <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F114">
         <v>0.81976074808345734</v>
@@ -16997,7 +16984,7 @@
         <v>2.1027897465858469</v>
       </c>
       <c r="T114" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="U114">
         <v>181.48</v>
@@ -17009,7 +16996,7 @@
         <v>124</v>
       </c>
       <c r="X114" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="Y114">
         <v>0.5318631267517907</v>
@@ -17071,7 +17058,7 @@
         <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F115">
         <v>0.44355007368426175</v>
@@ -17104,7 +17091,7 @@
         <v>1.0620396249535322</v>
       </c>
       <c r="T115" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="U115">
         <v>12.1</v>
@@ -17116,7 +17103,7 @@
         <v>14</v>
       </c>
       <c r="X115" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="Y115">
         <v>0.60287751315651295</v>
@@ -17178,7 +17165,7 @@
         <v>230</v>
       </c>
       <c r="E116" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F116">
         <v>0.32774813051377411</v>
@@ -17211,7 +17198,7 @@
         <v>0.53626413180412624</v>
       </c>
       <c r="T116" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="U116">
         <v>10.210000000000001</v>
@@ -17223,7 +17210,7 @@
         <v>12</v>
       </c>
       <c r="X116" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="Y116">
         <v>0.66543676662320728</v>
@@ -17285,7 +17272,7 @@
         <v>232</v>
       </c>
       <c r="E117" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F117">
         <v>0.59705553271045908</v>
@@ -17318,7 +17305,7 @@
         <v>1.1697354012274939</v>
       </c>
       <c r="T117" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="U117">
         <v>36.090000000000003</v>
@@ -17330,7 +17317,7 @@
         <v>66</v>
       </c>
       <c r="X117" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="Y117">
         <v>0.62645845739870754</v>
@@ -17392,7 +17379,7 @@
         <v>234</v>
       </c>
       <c r="E118" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F118">
         <v>0.35747036109430741</v>
@@ -17425,7 +17412,7 @@
         <v>0.93940753265126553</v>
       </c>
       <c r="T118" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="U118">
         <v>218.32</v>
@@ -17437,7 +17424,7 @@
         <v>123</v>
       </c>
       <c r="X118" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="Y118">
         <v>0.5605100324402259</v>
@@ -17490,7 +17477,7 @@
     </row>
     <row r="119" spans="1:40">
       <c r="A119" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B119" t="s">
         <v>29</v>
@@ -17499,7 +17486,7 @@
         <v>87</v>
       </c>
       <c r="E119" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F119">
         <v>1.2696901529150264</v>
@@ -17532,7 +17519,7 @@
         <v>2.2012722035525685</v>
       </c>
       <c r="T119" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="U119">
         <v>7.06</v>
@@ -17544,7 +17531,7 @@
         <v>34</v>
       </c>
       <c r="X119" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="Y119">
         <v>0.69179715558109467</v>
@@ -17597,7 +17584,7 @@
     </row>
     <row r="120" spans="1:40">
       <c r="A120" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
@@ -17606,7 +17593,7 @@
         <v>197</v>
       </c>
       <c r="E120" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F120">
         <v>0.33707406591793293</v>
@@ -17639,7 +17626,7 @@
         <v>0.74880279392180904</v>
       </c>
       <c r="T120" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="U120">
         <v>182.18</v>
@@ -17651,7 +17638,7 @@
         <v>102</v>
       </c>
       <c r="X120" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="Y120">
         <v>0.61913561091206593</v>
@@ -17704,7 +17691,7 @@
     </row>
     <row r="121" spans="1:40">
       <c r="A121" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B121" t="s">
         <v>29</v>
@@ -17713,7 +17700,7 @@
         <v>201</v>
       </c>
       <c r="E121" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F121">
         <v>0.47418938635733321</v>
@@ -17746,7 +17733,7 @@
         <v>0.98086541376174596</v>
       </c>
       <c r="T121" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="U121">
         <v>17.329999999999998</v>
@@ -17758,7 +17745,7 @@
         <v>38</v>
       </c>
       <c r="X121" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="Y121">
         <v>0.65318433944694121</v>
@@ -17811,7 +17798,7 @@
     </row>
     <row r="122" spans="1:40">
       <c r="A122" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -17820,7 +17807,7 @@
         <v>217</v>
       </c>
       <c r="E122" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F122">
         <v>0.40393702426467015</v>
@@ -17853,7 +17840,7 @@
         <v>0.87424776924673164</v>
       </c>
       <c r="T122" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="U122">
         <v>17.440000000000001</v>
@@ -17865,7 +17852,7 @@
         <v>46</v>
       </c>
       <c r="X122" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="Y122">
         <v>0.71666666666666667</v>
@@ -17918,7 +17905,7 @@
     </row>
     <row r="123" spans="1:40">
       <c r="A123" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B123" t="s">
         <v>29</v>
@@ -17927,7 +17914,7 @@
         <v>219</v>
       </c>
       <c r="E123" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F123">
         <v>0.37959308039651868</v>
@@ -17960,7 +17947,7 @@
         <v>0.70156264533531765</v>
       </c>
       <c r="T123" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="U123">
         <v>94.08</v>
@@ -17972,7 +17959,7 @@
         <v>77</v>
       </c>
       <c r="X123" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="Y123">
         <v>0.57375378652886666</v>
@@ -18025,7 +18012,7 @@
     </row>
     <row r="124" spans="1:40">
       <c r="A124" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -18034,7 +18021,7 @@
         <v>235</v>
       </c>
       <c r="E124" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F124">
         <v>0.346197649182371</v>
@@ -18067,7 +18054,7 @@
         <v>0.67837678544142155</v>
       </c>
       <c r="T124" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="U124">
         <v>76.459999999999994</v>
@@ -18079,7 +18066,7 @@
         <v>70</v>
       </c>
       <c r="X124" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="Y124">
         <v>0.53044514756083105</v>
@@ -18132,7 +18119,7 @@
     </row>
     <row r="125" spans="1:40">
       <c r="A125" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
@@ -18141,7 +18128,7 @@
         <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F125">
         <v>0.38017320130083676</v>
@@ -18174,7 +18161,7 @@
         <v>0.8096363700101662</v>
       </c>
       <c r="T125" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="U125">
         <v>62.34</v>
@@ -18186,7 +18173,7 @@
         <v>44</v>
       </c>
       <c r="X125" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="Y125">
         <v>0.56988356046611088</v>
@@ -18239,7 +18226,7 @@
     </row>
     <row r="126" spans="1:40">
       <c r="A126" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
@@ -18248,7 +18235,7 @@
         <v>237</v>
       </c>
       <c r="E126" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F126">
         <v>0.38789852783939788</v>
@@ -18281,7 +18268,7 @@
         <v>0.82601387929345527</v>
       </c>
       <c r="T126" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="U126">
         <v>426.68</v>
@@ -18293,7 +18280,7 @@
         <v>134</v>
       </c>
       <c r="X126" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="Y126">
         <v>0.54029385126295659</v>
@@ -18355,7 +18342,7 @@
         <v>197</v>
       </c>
       <c r="E127" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F127">
         <v>0.676672176947691</v>
@@ -18388,7 +18375,7 @@
         <v>1.2448747484762765</v>
       </c>
       <c r="T127" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="U127">
         <v>49.32</v>
@@ -18400,7 +18387,7 @@
         <v>97</v>
       </c>
       <c r="X127" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="Y127">
         <v>0.69144087110660923</v>
@@ -18462,7 +18449,7 @@
         <v>201</v>
       </c>
       <c r="E128" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F128">
         <v>0.50778012032704278</v>
@@ -18495,7 +18482,7 @@
         <v>1.0168743027147638</v>
       </c>
       <c r="T128" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="U128">
         <v>47.78</v>
@@ -18507,7 +18494,7 @@
         <v>63</v>
       </c>
       <c r="X128" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="Y128">
         <v>0.60651830858909539</v>
@@ -18569,7 +18556,7 @@
         <v>217</v>
       </c>
       <c r="E129" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F129">
         <v>0.28252489037076306</v>
@@ -18602,7 +18589,7 @@
         <v>0.49171362740471364</v>
       </c>
       <c r="T129" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="U129">
         <v>60.98</v>
@@ -18614,7 +18601,7 @@
         <v>87</v>
       </c>
       <c r="X129" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="Y129">
         <v>0.59126501182575952</v>
@@ -18676,7 +18663,7 @@
         <v>219</v>
       </c>
       <c r="E130" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F130">
         <v>0.38285977497404627</v>
@@ -18709,7 +18696,7 @@
         <v>0.73781984109087528</v>
       </c>
       <c r="T130" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="U130">
         <v>120.3</v>
@@ -18721,7 +18708,7 @@
         <v>86</v>
       </c>
       <c r="X130" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="Y130">
         <v>0.6080080809418934</v>
@@ -18783,7 +18770,7 @@
         <v>243</v>
       </c>
       <c r="E131" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F131">
         <v>0.38873495658449897</v>
@@ -18816,7 +18803,7 @@
         <v>0.80045759318694587</v>
       </c>
       <c r="T131" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="U131">
         <v>222.86</v>
@@ -18828,7 +18815,7 @@
         <v>104</v>
       </c>
       <c r="X131" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="Y131">
         <v>0.54344879518072287</v>
@@ -18890,7 +18877,7 @@
         <v>197</v>
       </c>
       <c r="E132" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F132">
         <v>0.32337141424632021</v>
@@ -18923,7 +18910,7 @@
         <v>1.0900305876620739</v>
       </c>
       <c r="T132" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="U132">
         <v>136.66</v>
@@ -18935,7 +18922,7 @@
         <v>106</v>
       </c>
       <c r="X132" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="Y132">
         <v>0.67264386176802904</v>
@@ -18997,7 +18984,7 @@
         <v>87</v>
       </c>
       <c r="E133" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F133">
         <v>0.41113296413229128</v>
@@ -19030,7 +19017,7 @@
         <v>0.86144870566868603</v>
       </c>
       <c r="T133" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="U133">
         <v>62.14</v>
@@ -19042,7 +19029,7 @@
         <v>84</v>
       </c>
       <c r="X133" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="Y133">
         <v>0.62340946082897419</v>
@@ -19104,7 +19091,7 @@
         <v>201</v>
       </c>
       <c r="E134" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F134">
         <v>0.39276989996751371</v>
@@ -19137,7 +19124,7 @@
         <v>0.89477493204870395</v>
       </c>
       <c r="T134" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="U134">
         <v>95.5</v>
@@ -19149,7 +19136,7 @@
         <v>75</v>
       </c>
       <c r="X134" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="Y134">
         <v>0.61037108452699507</v>
@@ -19211,7 +19198,7 @@
         <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F135">
         <v>0.45494513023717897</v>
@@ -19244,7 +19231,7 @@
         <v>1.0116329228414389</v>
       </c>
       <c r="T135" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="U135">
         <v>176.37</v>
@@ -19256,7 +19243,7 @@
         <v>100</v>
       </c>
       <c r="X135" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="Y135">
         <v>0.61406878650227126</v>
@@ -19318,7 +19305,7 @@
         <v>250</v>
       </c>
       <c r="E136" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F136">
         <v>0.53035577286416047</v>
@@ -19351,7 +19338,7 @@
         <v>1.3033402987867635</v>
       </c>
       <c r="T136" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="U136">
         <v>68.680000000000007</v>
@@ -19363,7 +19350,7 @@
         <v>96</v>
       </c>
       <c r="X136" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="Y136">
         <v>0.61212682249479289</v>
@@ -19425,7 +19412,7 @@
         <v>87</v>
       </c>
       <c r="E137" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F137">
         <v>0.26497455274160847</v>
@@ -19458,7 +19445,7 @@
         <v>0.63714333908575438</v>
       </c>
       <c r="T137" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="U137">
         <v>37</v>
@@ -19470,7 +19457,7 @@
         <v>68</v>
       </c>
       <c r="X137" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="Y137">
         <v>0.56973221718619926</v>
@@ -19532,7 +19519,7 @@
         <v>217</v>
       </c>
       <c r="E138" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F138">
         <v>0.56748520841674455</v>
@@ -19565,7 +19552,7 @@
         <v>0.90550236244093896</v>
       </c>
       <c r="T138" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="U138">
         <v>73.05</v>
@@ -19577,7 +19564,7 @@
         <v>78</v>
       </c>
       <c r="X138" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="Y138">
         <v>0.5810039166392017</v>
@@ -19639,7 +19626,7 @@
         <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F139">
         <v>0.51426204361136818</v>
@@ -19672,7 +19659,7 @@
         <v>0.97098964857915215</v>
       </c>
       <c r="T139" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="U139">
         <v>36.04</v>
@@ -19684,7 +19671,7 @@
         <v>79</v>
       </c>
       <c r="X139" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="Y139">
         <v>0.55518082546127279</v>
@@ -19746,7 +19733,7 @@
         <v>219</v>
       </c>
       <c r="E140" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F140">
         <v>0.45731343283582088</v>
@@ -19779,7 +19766,7 @@
         <v>1.0063153334929267</v>
       </c>
       <c r="T140" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="U140">
         <v>157.33000000000001</v>
@@ -19791,7 +19778,7 @@
         <v>110</v>
       </c>
       <c r="X140" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="Y140">
         <v>0.47315465895749437</v>
@@ -19853,7 +19840,7 @@
         <v>256</v>
       </c>
       <c r="E141" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F141">
         <v>0.48310588659190201</v>
@@ -19886,7 +19873,7 @@
         <v>1.0706454206563847</v>
       </c>
       <c r="T141" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="U141">
         <v>757.37</v>
@@ -19898,7 +19885,7 @@
         <v>155</v>
       </c>
       <c r="X141" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="Y141">
         <v>0.57545257727209909</v>
@@ -19960,7 +19947,7 @@
         <v>258</v>
       </c>
       <c r="E142" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F142">
         <v>0.37882615758113902</v>
@@ -19993,7 +19980,7 @@
         <v>0.93310699857953117</v>
       </c>
       <c r="T142" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="U142">
         <v>1116.4100000000001</v>
@@ -20005,7 +19992,7 @@
         <v>157</v>
       </c>
       <c r="X142" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="Y142">
         <v>0.62237566720325344</v>
@@ -20067,7 +20054,7 @@
         <v>260</v>
       </c>
       <c r="E143" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F143">
         <v>0.40404065895548547</v>
@@ -20100,7 +20087,7 @@
         <v>0.80203209736410641</v>
       </c>
       <c r="T143" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="U143">
         <v>868.28</v>
@@ -20112,7 +20099,7 @@
         <v>150</v>
       </c>
       <c r="X143" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="Y143">
         <v>0.62774057853329956</v>
@@ -20174,7 +20161,7 @@
         <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F144">
         <v>0.40884802139288312</v>
@@ -20207,7 +20194,7 @@
         <v>0.78228776978417269</v>
       </c>
       <c r="T144" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="U144">
         <v>1040.3399999999999</v>
@@ -20219,7 +20206,7 @@
         <v>166</v>
       </c>
       <c r="X144" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="Y144">
         <v>0.686347315162396</v>
@@ -20281,7 +20268,7 @@
         <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F145">
         <v>0.36901736669810797</v>
@@ -20314,7 +20301,7 @@
         <v>0.69782683684028979</v>
       </c>
       <c r="T145" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="U145">
         <v>180.21</v>
@@ -20326,7 +20313,7 @@
         <v>144</v>
       </c>
       <c r="X145" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="Y145">
         <v>0.64213001309215267</v>
@@ -20388,7 +20375,7 @@
         <v>266</v>
       </c>
       <c r="E146" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F146">
         <v>0.46873706004140786</v>
@@ -20421,7 +20408,7 @@
         <v>0.74671563780194938</v>
       </c>
       <c r="T146" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="U146">
         <v>303.47000000000003</v>
@@ -20433,7 +20420,7 @@
         <v>184</v>
       </c>
       <c r="X146" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="Y146">
         <v>0.69638437533627462</v>
@@ -20495,7 +20482,7 @@
         <v>268</v>
       </c>
       <c r="E147" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F147">
         <v>0.38441976773756037</v>
@@ -20528,7 +20515,7 @@
         <v>0.65154501171308521</v>
       </c>
       <c r="T147" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="U147">
         <v>105.72</v>
@@ -20540,7 +20527,7 @@
         <v>125</v>
       </c>
       <c r="X147" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="Y147">
         <v>0.66549464150094229</v>
@@ -20602,7 +20589,7 @@
         <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F148">
         <v>0.4583365970579481</v>
@@ -20635,7 +20622,7 @@
         <v>0.90570872194322027</v>
       </c>
       <c r="T148" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="U148">
         <v>1187</v>
@@ -20647,7 +20634,7 @@
         <v>232</v>
       </c>
       <c r="X148" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="Y148">
         <v>0.72334546872968408</v>
@@ -20709,7 +20696,7 @@
         <v>272</v>
       </c>
       <c r="E149" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F149">
         <v>0.38445816727251492</v>
@@ -20742,7 +20729,7 @@
         <v>0.98028370973523837</v>
       </c>
       <c r="T149" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="U149">
         <v>1820.14</v>
@@ -20754,7 +20741,7 @@
         <v>247</v>
       </c>
       <c r="X149" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="Y149">
         <v>0.69062211113774097</v>
@@ -20816,7 +20803,7 @@
         <v>274</v>
       </c>
       <c r="E150" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F150">
         <v>0.37504829777186277</v>
@@ -20849,7 +20836,7 @@
         <v>1.1234786813895381</v>
       </c>
       <c r="T150" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="U150">
         <v>997.75</v>
@@ -20861,7 +20848,7 @@
         <v>238</v>
       </c>
       <c r="X150" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="Y150">
         <v>0.70784675271460762</v>
@@ -20923,7 +20910,7 @@
         <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F151">
         <v>0.4291915498145274</v>
@@ -20956,7 +20943,7 @@
         <v>0.89568515884305355</v>
       </c>
       <c r="T151" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="U151">
         <v>1127.6099999999999</v>
@@ -20968,7 +20955,7 @@
         <v>251</v>
       </c>
       <c r="X151" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="Y151">
         <v>0.74011365633604775</v>
@@ -21030,7 +21017,7 @@
         <v>278</v>
       </c>
       <c r="E152" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F152">
         <v>0.45349461054479834</v>
@@ -21063,7 +21050,7 @@
         <v>1.0999461690292482</v>
       </c>
       <c r="T152" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="U152">
         <v>1463.83</v>
@@ -21075,7 +21062,7 @@
         <v>256</v>
       </c>
       <c r="X152" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="Y152">
         <v>0.72466539196940727</v>
@@ -21137,7 +21124,7 @@
         <v>280</v>
       </c>
       <c r="E153" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F153">
         <v>0.5354608934630809</v>
@@ -21170,7 +21157,7 @@
         <v>1.3044795300165228</v>
       </c>
       <c r="T153" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="U153">
         <v>1219.74</v>
@@ -21182,7 +21169,7 @@
         <v>254</v>
       </c>
       <c r="X153" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="Y153">
         <v>0.7331490015360983</v>
@@ -21244,7 +21231,7 @@
         <v>282</v>
       </c>
       <c r="E154" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F154">
         <v>0.30099565407344386</v>
@@ -21277,7 +21264,7 @@
         <v>0.62437960595578279</v>
       </c>
       <c r="T154" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="U154">
         <v>889.46</v>
@@ -21289,7 +21276,7 @@
         <v>235</v>
       </c>
       <c r="X154" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="Y154">
         <v>0.61904761904761907</v>
@@ -21351,7 +21338,7 @@
         <v>284</v>
       </c>
       <c r="E155" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F155">
         <v>0.34523858621685155</v>
@@ -21384,7 +21371,7 @@
         <v>0.55692379182156138</v>
       </c>
       <c r="T155" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="U155">
         <v>908.93</v>
@@ -21396,7 +21383,7 @@
         <v>257</v>
       </c>
       <c r="X155" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="Y155">
         <v>0.67350237397716939</v>
@@ -21458,7 +21445,7 @@
         <v>286</v>
       </c>
       <c r="E156" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F156">
         <v>0.3366932725199544</v>
@@ -21491,7 +21478,7 @@
         <v>0.6017775229357798</v>
       </c>
       <c r="T156" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="U156">
         <v>706.57</v>
@@ -21503,7 +21490,7 @@
         <v>253</v>
       </c>
       <c r="X156" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="Y156">
         <v>0.63654500645464152</v>
@@ -21565,7 +21552,7 @@
         <v>288</v>
       </c>
       <c r="E157" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F157">
         <v>0.37684636958554069</v>
@@ -21598,7 +21585,7 @@
         <v>0.6196487897484575</v>
       </c>
       <c r="T157" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="U157">
         <v>1645.2</v>
@@ -21610,7 +21597,7 @@
         <v>260</v>
       </c>
       <c r="X157" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="Y157">
         <v>0.65509847522236342</v>
@@ -21672,7 +21659,7 @@
         <v>290</v>
       </c>
       <c r="E158" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F158">
         <v>0.44262234396979344</v>
@@ -21705,7 +21692,7 @@
         <v>1.0488731656184487</v>
       </c>
       <c r="T158" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="U158">
         <v>664.28</v>
@@ -21717,7 +21704,7 @@
         <v>246</v>
       </c>
       <c r="X158" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="Y158">
         <v>0.73215047342830331</v>
@@ -21779,7 +21766,7 @@
         <v>292</v>
       </c>
       <c r="E159" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F159">
         <v>0.47438093199172199</v>
@@ -21812,7 +21799,7 @@
         <v>0.82979844552759852</v>
       </c>
       <c r="T159" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="U159">
         <v>630.09</v>
@@ -21824,7 +21811,7 @@
         <v>240</v>
       </c>
       <c r="X159" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="Y159">
         <v>0.72492697176241483</v>
@@ -21886,7 +21873,7 @@
         <v>294</v>
       </c>
       <c r="E160" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F160">
         <v>0.39191379680001132</v>
@@ -21919,7 +21906,7 @@
         <v>0.79186885245901639</v>
       </c>
       <c r="T160" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="U160">
         <v>940.33</v>
@@ -21931,7 +21918,7 @@
         <v>121</v>
       </c>
       <c r="X160" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="Y160">
         <v>0.59759479570979079</v>
@@ -21996,7 +21983,7 @@
         <v>296</v>
       </c>
       <c r="E161" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F161">
         <v>0.27333670499349749</v>
@@ -22029,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="U161">
         <v>404.4</v>
@@ -22041,7 +22028,7 @@
         <v>147</v>
       </c>
       <c r="X161" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="Y161">
         <v>0.55250166407810075</v>
@@ -22106,7 +22093,7 @@
         <v>298</v>
       </c>
       <c r="E162" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F162">
         <v>0.35950205490456227</v>
@@ -22139,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="U162">
         <v>122.63</v>
@@ -22151,7 +22138,7 @@
         <v>109</v>
       </c>
       <c r="X162" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="Y162">
         <v>0.62170115703260731</v>
@@ -22216,7 +22203,7 @@
         <v>300</v>
       </c>
       <c r="E163" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F163">
         <v>0.49296705512469613</v>
@@ -22249,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="U163">
         <v>198.34</v>
@@ -22261,7 +22248,7 @@
         <v>112</v>
       </c>
       <c r="X163" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="Y163">
         <v>0.60665212060011542</v>
@@ -22326,7 +22313,7 @@
         <v>302</v>
       </c>
       <c r="E164" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F164">
         <v>0.40306778771444157</v>
@@ -22359,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="T164" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="U164">
         <v>214.96</v>
@@ -22371,7 +22358,7 @@
         <v>120</v>
       </c>
       <c r="X164" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="Y164">
         <v>0.60016606560830821</v>
@@ -22433,7 +22420,7 @@
         <v>304</v>
       </c>
       <c r="E165" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F165">
         <v>0.42150081861965927</v>
@@ -22466,7 +22453,7 @@
         <v>0.81826563188022894</v>
       </c>
       <c r="T165" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="U165">
         <v>984</v>
@@ -22478,7 +22465,7 @@
         <v>162</v>
       </c>
       <c r="X165" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="Y165">
         <v>0.66664876130723449</v>
@@ -22540,7 +22527,7 @@
         <v>306</v>
       </c>
       <c r="E166" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F166">
         <v>0.40290518718442481</v>
@@ -22573,7 +22560,7 @@
         <v>0.74660579970670327</v>
       </c>
       <c r="T166" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="U166">
         <v>883.54</v>
@@ -22585,7 +22572,7 @@
         <v>178</v>
       </c>
       <c r="X166" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="Y166">
         <v>0.68817024128686322</v>
@@ -22647,7 +22634,7 @@
         <v>308</v>
       </c>
       <c r="E167" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F167">
         <v>0.40611367416752975</v>
@@ -22680,7 +22667,7 @@
         <v>1.1714579055441479</v>
       </c>
       <c r="T167" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="U167">
         <v>584.29999999999995</v>
@@ -22692,7 +22679,7 @@
         <v>229</v>
       </c>
       <c r="X167" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="Y167">
         <v>0.73626450440374669</v>
@@ -22754,7 +22741,7 @@
         <v>310</v>
       </c>
       <c r="E168" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F168">
         <v>0.3894688608200183</v>
@@ -22787,7 +22774,7 @@
         <v>1.0287239794539065</v>
       </c>
       <c r="T168" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="U168">
         <v>537.12</v>
@@ -22799,7 +22786,7 @@
         <v>202</v>
       </c>
       <c r="X168" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="Y168">
         <v>0.68148255393079482</v>
@@ -22861,7 +22848,7 @@
         <v>312</v>
       </c>
       <c r="E169" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F169">
         <v>0.32672297444381559</v>
@@ -22894,7 +22881,7 @@
         <v>0.85200777202072542</v>
       </c>
       <c r="T169" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="U169">
         <v>845.84</v>
@@ -22906,7 +22893,7 @@
         <v>231</v>
       </c>
       <c r="X169" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="Y169">
         <v>0.72012009149828438</v>
@@ -22968,7 +22955,7 @@
         <v>314</v>
       </c>
       <c r="E170" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F170">
         <v>0.3480245250336807</v>
@@ -23001,7 +22988,7 @@
         <v>0.60103265420039076</v>
       </c>
       <c r="T170" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="U170">
         <v>81.81</v>
@@ -23013,7 +23000,7 @@
         <v>149</v>
       </c>
       <c r="X170" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="Y170">
         <v>0.64382079674175896</v>
@@ -23075,7 +23062,7 @@
         <v>316</v>
       </c>
       <c r="E171" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F171">
         <v>0.58584849090545676</v>
@@ -23108,7 +23095,7 @@
         <v>1.3318032786885245</v>
       </c>
       <c r="T171" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="U171">
         <v>407.24</v>
@@ -23120,7 +23107,7 @@
         <v>164</v>
       </c>
       <c r="X171" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="Y171">
         <v>0.63486813724080415</v>
@@ -23182,7 +23169,7 @@
         <v>318</v>
       </c>
       <c r="E172" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F172">
         <v>0.369893874005917</v>
@@ -23215,7 +23202,7 @@
         <v>1.2551010349926073</v>
       </c>
       <c r="T172" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="U172">
         <v>842.19</v>
@@ -23227,7 +23214,7 @@
         <v>242</v>
       </c>
       <c r="X172" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="Y172">
         <v>0.78400790817727495</v>
@@ -23289,7 +23276,7 @@
         <v>320</v>
       </c>
       <c r="E173" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F173">
         <v>0.76008651797747928</v>
@@ -23322,7 +23309,7 @@
         <v>1.7221486847488627</v>
       </c>
       <c r="T173" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="U173">
         <v>520.26</v>
@@ -23334,7 +23321,7 @@
         <v>172</v>
       </c>
       <c r="X173" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="Y173">
         <v>0.69468543949234052</v>
@@ -23396,7 +23383,7 @@
         <v>322</v>
       </c>
       <c r="E174" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F174">
         <v>0.49966555183946487</v>
@@ -23429,7 +23416,7 @@
         <v>1.0969206232364128</v>
       </c>
       <c r="T174" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="U174">
         <v>781.1</v>
@@ -23441,7 +23428,7 @@
         <v>250</v>
       </c>
       <c r="X174" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="Y174">
         <v>0.74368400469299956</v>
@@ -23503,7 +23490,7 @@
         <v>324</v>
       </c>
       <c r="E175" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F175">
         <v>0.41937557266523529</v>
@@ -23536,7 +23523,7 @@
         <v>0.8412712961163803</v>
       </c>
       <c r="T175" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="U175">
         <v>636.14</v>
@@ -23548,7 +23535,7 @@
         <v>116</v>
       </c>
       <c r="X175" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="Y175">
         <v>0.5967385666667876</v>
@@ -23613,7 +23600,7 @@
         <v>326</v>
       </c>
       <c r="E176" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F176">
         <v>0.42766845137453818</v>
@@ -23646,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="T176" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="U176">
         <v>438.54</v>
@@ -23658,7 +23645,7 @@
         <v>138</v>
       </c>
       <c r="X176" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="Y176">
         <v>0.62062256809338523</v>
@@ -23723,7 +23710,7 @@
         <v>328</v>
       </c>
       <c r="E177" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F177">
         <v>0.41411266185299167</v>
@@ -23756,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="U177">
         <v>197.68</v>
@@ -23768,7 +23755,7 @@
         <v>99</v>
       </c>
       <c r="X177" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="Y177">
         <v>0.58051154602878741</v>
@@ -23830,7 +23817,7 @@
         <v>330</v>
       </c>
       <c r="E178" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F178">
         <v>0.44474985724102556</v>
@@ -23863,7 +23850,7 @@
         <v>1.2189424177728272</v>
       </c>
       <c r="T178" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="U178">
         <v>864.2</v>
@@ -23875,7 +23862,7 @@
         <v>189</v>
       </c>
       <c r="X178" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="Y178">
         <v>0.69546193003357526</v>
@@ -23934,7 +23921,7 @@
         <v>332</v>
       </c>
       <c r="E179" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F179">
         <v>0.37354239610290757</v>
@@ -23967,7 +23954,7 @@
         <v>0.87841318907779498</v>
       </c>
       <c r="T179" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="U179">
         <v>569.4</v>
@@ -23979,7 +23966,7 @@
         <v>173</v>
       </c>
       <c r="X179" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="Y179">
         <v>0.68001037319942481</v>
@@ -24041,7 +24028,7 @@
         <v>334</v>
       </c>
       <c r="E180" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F180">
         <v>0.54016041310853669</v>
@@ -24074,7 +24061,7 @@
         <v>1.0098117663510018</v>
       </c>
       <c r="T180" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="U180">
         <v>542.23</v>
@@ -24086,7 +24073,7 @@
         <v>136</v>
       </c>
       <c r="X180" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="Y180">
         <v>0.59064775177327122</v>
@@ -24148,7 +24135,7 @@
         <v>336</v>
       </c>
       <c r="E181" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F181">
         <v>0.38674934171409159</v>
@@ -24181,7 +24168,7 @@
         <v>0.84896029935500816</v>
       </c>
       <c r="T181" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="U181">
         <v>741.19</v>
@@ -24193,7 +24180,7 @@
         <v>159</v>
       </c>
       <c r="X181" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="Y181">
         <v>0.63008314436885871</v>
@@ -24255,7 +24242,7 @@
         <v>338</v>
       </c>
       <c r="E182" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F182">
         <v>0.39502827418553793</v>
@@ -24288,7 +24275,7 @@
         <v>1.0161973073078958</v>
       </c>
       <c r="T182" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="U182">
         <v>554.75</v>
@@ -24300,7 +24287,7 @@
         <v>165</v>
       </c>
       <c r="X182" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="Y182">
         <v>0.68848600889527112</v>
@@ -24359,7 +24346,7 @@
         <v>340</v>
       </c>
       <c r="E183" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F183">
         <v>2.5085280672034901E-2</v>
@@ -24392,7 +24379,7 @@
         <v>0.47269880618435645</v>
       </c>
       <c r="T183" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="U183">
         <v>60.72</v>
@@ -24404,7 +24391,7 @@
         <v>130</v>
       </c>
       <c r="X183" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="Y183">
         <v>0.50974433507299999</v>
@@ -24466,7 +24453,7 @@
         <v>342</v>
       </c>
       <c r="E184" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F184">
         <v>0.46209278066210235</v>
@@ -24499,7 +24486,7 @@
         <v>1.0061369719919044</v>
       </c>
       <c r="T184" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="U184">
         <v>704.16</v>
@@ -24511,7 +24498,7 @@
         <v>160</v>
       </c>
       <c r="X184" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="Y184">
         <v>0.63461121000303911</v>
@@ -24573,7 +24560,7 @@
         <v>344</v>
       </c>
       <c r="E185" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F185">
         <v>0.50522758266300372</v>
@@ -24606,7 +24593,7 @@
         <v>1.6178780412688636</v>
       </c>
       <c r="T185" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="U185">
         <v>577.14</v>
@@ -24618,7 +24605,7 @@
         <v>205</v>
       </c>
       <c r="X185" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="Y185">
         <v>0.72588897966203725</v>
@@ -24680,7 +24667,7 @@
         <v>346</v>
       </c>
       <c r="E186" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F186">
         <v>0.31781987703956321</v>
@@ -24713,7 +24700,7 @@
         <v>0.90375354982096556</v>
       </c>
       <c r="T186" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="U186">
         <v>624.17999999999995</v>
@@ -24725,7 +24712,7 @@
         <v>199</v>
       </c>
       <c r="X186" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="Y186">
         <v>0.72275165890159532</v>
@@ -24787,7 +24774,7 @@
         <v>348</v>
       </c>
       <c r="E187" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F187">
         <v>0.40142284411602863</v>
@@ -24820,7 +24807,7 @@
         <v>1.0519899895051263</v>
       </c>
       <c r="T187" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="U187">
         <v>358.08</v>
@@ -24832,7 +24819,7 @@
         <v>180</v>
       </c>
       <c r="X187" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="Y187">
         <v>0.7358051777095217</v>
@@ -24894,7 +24881,7 @@
         <v>350</v>
       </c>
       <c r="E188" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F188">
         <v>0.39109839139445379</v>
@@ -24927,7 +24914,7 @@
         <v>1.0220762155059133</v>
       </c>
       <c r="T188" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="U188">
         <v>479.21</v>
@@ -24939,7 +24926,7 @@
         <v>221</v>
       </c>
       <c r="X188" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="Y188">
         <v>0.73300325155187707</v>
@@ -25001,7 +24988,7 @@
         <v>352</v>
       </c>
       <c r="E189" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F189">
         <v>0.37231784481978131</v>
@@ -25034,7 +25021,7 @@
         <v>1.1078111642339232</v>
       </c>
       <c r="T189" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="U189">
         <v>443.98</v>
@@ -25046,7 +25033,7 @@
         <v>161</v>
       </c>
       <c r="X189" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="Y189">
         <v>0.66535469531394698</v>
@@ -25108,7 +25095,7 @@
         <v>354</v>
       </c>
       <c r="E190" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F190">
         <v>0.39979733416478291</v>
@@ -25141,7 +25128,7 @@
         <v>1.3260803737509193</v>
       </c>
       <c r="T190" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="U190">
         <v>542.57000000000005</v>
@@ -25153,7 +25140,7 @@
         <v>181</v>
       </c>
       <c r="X190" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="Y190">
         <v>0.69998515219005197</v>
@@ -25215,7 +25202,7 @@
         <v>356</v>
       </c>
       <c r="E191" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F191">
         <v>0.35354957754685828</v>
@@ -25248,7 +25235,7 @@
         <v>0.95126039584810784</v>
       </c>
       <c r="T191" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="U191">
         <v>516.03</v>
@@ -25260,7 +25247,7 @@
         <v>188</v>
       </c>
       <c r="X191" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="Y191">
         <v>0.73224297396707494</v>
@@ -25322,7 +25309,7 @@
         <v>358</v>
       </c>
       <c r="E192" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F192">
         <v>0.36294316759240131</v>
@@ -25355,7 +25342,7 @@
         <v>0.72847469815840893</v>
       </c>
       <c r="T192" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="U192">
         <v>205.53</v>
@@ -25367,7 +25354,7 @@
         <v>91</v>
       </c>
       <c r="X192" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="Y192">
         <v>0.59803965018022809</v>
@@ -25432,7 +25419,7 @@
         <v>360</v>
       </c>
       <c r="E193" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F193">
         <v>0.39187866637404872</v>
@@ -25465,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="U193">
         <v>94.61</v>
@@ -25477,7 +25464,7 @@
         <v>85</v>
       </c>
       <c r="X193" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="Y193">
         <v>0.60988254008834353</v>
@@ -25542,7 +25529,7 @@
         <v>362</v>
       </c>
       <c r="E194" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F194">
         <v>0.33255147494003678</v>
@@ -25575,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="U194">
         <v>110.92</v>
@@ -25587,7 +25574,7 @@
         <v>95</v>
       </c>
       <c r="X194" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="Y194">
         <v>0.58520707327208088</v>
@@ -25649,7 +25636,7 @@
         <v>364</v>
       </c>
       <c r="E195" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F195">
         <v>0.39683017958298178</v>
@@ -25682,7 +25669,7 @@
         <v>0.8534706745037357</v>
       </c>
       <c r="T195" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="U195">
         <v>396.17</v>
@@ -25694,7 +25681,7 @@
         <v>132</v>
       </c>
       <c r="X195" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="Y195">
         <v>0.63568151533308892</v>
@@ -25756,7 +25743,7 @@
         <v>366</v>
       </c>
       <c r="E196" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F196">
         <v>0.3877789654158208</v>
@@ -25789,7 +25776,7 @@
         <v>0.86589644656734688</v>
       </c>
       <c r="T196" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="U196">
         <v>506.54</v>
@@ -25801,7 +25788,7 @@
         <v>140</v>
       </c>
       <c r="X196" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="Y196">
         <v>0.64691062490583728</v>
@@ -25863,7 +25850,7 @@
         <v>368</v>
       </c>
       <c r="E197" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F197">
         <v>0.37057876308349091</v>
@@ -25896,7 +25883,7 @@
         <v>0.86643492212046258</v>
       </c>
       <c r="T197" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="U197">
         <v>692.86</v>
@@ -25908,7 +25895,7 @@
         <v>175</v>
       </c>
       <c r="X197" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="Y197">
         <v>0.69412660430715689</v>
@@ -25970,7 +25957,7 @@
         <v>370</v>
       </c>
       <c r="E198" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F198">
         <v>0.34107145099122399</v>
@@ -26003,7 +25990,7 @@
         <v>0.92683950387018554</v>
       </c>
       <c r="T198" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="U198">
         <v>752.21</v>
@@ -26015,7 +26002,7 @@
         <v>196</v>
       </c>
       <c r="X198" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="Y198">
         <v>0.68687820097721786</v>
@@ -26077,7 +26064,7 @@
         <v>372</v>
       </c>
       <c r="E199" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F199">
         <v>0.41647966858185587</v>
@@ -26110,7 +26097,7 @@
         <v>1.2375886524822695</v>
       </c>
       <c r="T199" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="U199">
         <v>545.87</v>
@@ -26122,7 +26109,7 @@
         <v>179</v>
       </c>
       <c r="X199" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="Y199">
         <v>0.70579589013459376</v>
@@ -26184,7 +26171,7 @@
         <v>374</v>
       </c>
       <c r="E200" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F200">
         <v>0.54930675243981431</v>
@@ -26217,7 +26204,7 @@
         <v>1.7275175395081852</v>
       </c>
       <c r="T200" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="U200">
         <v>820.98</v>
@@ -26229,7 +26216,7 @@
         <v>193</v>
       </c>
       <c r="X200" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="Y200">
         <v>0.66161707867500197</v>
@@ -26291,7 +26278,7 @@
         <v>376</v>
       </c>
       <c r="E201" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F201">
         <v>0.33198348101519587</v>
@@ -26324,7 +26311,7 @@
         <v>1.0688140556368961</v>
       </c>
       <c r="T201" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="U201">
         <v>789.09</v>
@@ -26336,7 +26323,7 @@
         <v>252</v>
       </c>
       <c r="X201" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="Y201">
         <v>0.73393292111673225</v>
@@ -26398,7 +26385,7 @@
         <v>378</v>
       </c>
       <c r="E202" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F202">
         <v>0.36412974883251292</v>
@@ -26431,7 +26418,7 @@
         <v>0.97094073222787725</v>
       </c>
       <c r="T202" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="U202">
         <v>631.85</v>
@@ -26443,7 +26430,7 @@
         <v>248</v>
       </c>
       <c r="X202" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="Y202">
         <v>0.72920049670455633</v>
@@ -26505,7 +26492,7 @@
         <v>380</v>
       </c>
       <c r="E203" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F203">
         <v>0.29138097648520545</v>
@@ -26538,7 +26525,7 @@
         <v>1.0259617206746257</v>
       </c>
       <c r="T203" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="U203">
         <v>533.26</v>
@@ -26550,7 +26537,7 @@
         <v>245</v>
       </c>
       <c r="X203" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="Y203">
         <v>0.72119791111584786</v>
@@ -26612,7 +26599,7 @@
         <v>382</v>
       </c>
       <c r="E204" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F204">
         <v>0.34229142493543435</v>
@@ -26645,7 +26632,7 @@
         <v>1.0998516320474778</v>
       </c>
       <c r="T204" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="U204">
         <v>597.34</v>
@@ -26657,7 +26644,7 @@
         <v>239</v>
       </c>
       <c r="X204" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="Y204">
         <v>0.74365234375</v>
@@ -26719,7 +26706,7 @@
         <v>384</v>
       </c>
       <c r="E205" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F205">
         <v>0.32031134173461823</v>
@@ -26752,7 +26739,7 @@
         <v>0.97050978067575577</v>
       </c>
       <c r="T205" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="U205">
         <v>495.97</v>
@@ -26764,7 +26751,7 @@
         <v>230</v>
       </c>
       <c r="X205" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="Y205">
         <v>0.71537735039065853</v>
@@ -26826,7 +26813,7 @@
         <v>386</v>
       </c>
       <c r="E206" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F206">
         <v>0.34099824410654911</v>
@@ -26859,7 +26846,7 @@
         <v>0.92915080284721074</v>
       </c>
       <c r="T206" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="U206">
         <v>607.85</v>
@@ -26871,7 +26858,7 @@
         <v>203</v>
       </c>
       <c r="X206" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="Y206">
         <v>0.7328598162640354</v>
@@ -26933,7 +26920,7 @@
         <v>388</v>
       </c>
       <c r="E207" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F207">
         <v>0.38092619505872188</v>
@@ -26966,7 +26953,7 @@
         <v>0.91730536506655913</v>
       </c>
       <c r="T207" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="U207">
         <v>493.53</v>
@@ -26978,7 +26965,7 @@
         <v>198</v>
       </c>
       <c r="X207" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="Y207">
         <v>0.72157845286564359</v>
@@ -27040,7 +27027,7 @@
         <v>390</v>
       </c>
       <c r="E208" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F208">
         <v>0.37655943417750398</v>
@@ -27073,7 +27060,7 @@
         <v>0.71557293930175281</v>
       </c>
       <c r="T208" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="U208">
         <v>51.64</v>
@@ -27085,7 +27072,7 @@
         <v>80</v>
       </c>
       <c r="X208" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="Y208">
         <v>0.63379983261115991</v>
@@ -27147,7 +27134,7 @@
         <v>392</v>
       </c>
       <c r="E209" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F209">
         <v>0.44203416507826487</v>
@@ -27180,7 +27167,7 @@
         <v>0.86804873694546103</v>
       </c>
       <c r="T209" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="U209">
         <v>510.09</v>
@@ -27192,7 +27179,7 @@
         <v>141</v>
       </c>
       <c r="X209" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="Y209">
         <v>0.62893137717198855</v>
@@ -27254,7 +27241,7 @@
         <v>394</v>
       </c>
       <c r="E210" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F210">
         <v>0.34948028120530755</v>
@@ -27287,7 +27274,7 @@
         <v>0.62347814942970647</v>
       </c>
       <c r="T210" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="U210">
         <v>910.98</v>
@@ -27299,7 +27286,7 @@
         <v>154</v>
       </c>
       <c r="X210" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="Y210">
         <v>0.59372275501307759</v>
@@ -27361,7 +27348,7 @@
         <v>396</v>
       </c>
       <c r="E211" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F211">
         <v>0.40125609411280855</v>
@@ -27394,7 +27381,7 @@
         <v>2.0953598830836682</v>
       </c>
       <c r="T211" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="U211">
         <v>608.4</v>
@@ -27406,7 +27393,7 @@
         <v>168</v>
       </c>
       <c r="X211" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="Y211">
         <v>0.68593933645380123</v>
@@ -27468,7 +27455,7 @@
         <v>398</v>
       </c>
       <c r="E212" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F212">
         <v>0.48350360296761991</v>
@@ -27501,7 +27488,7 @@
         <v>0.89787988531763996</v>
       </c>
       <c r="T212" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="U212">
         <v>463.13</v>
@@ -27513,7 +27500,7 @@
         <v>153</v>
       </c>
       <c r="X212" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="Y212">
         <v>0.58978044050422496</v>
@@ -27575,7 +27562,7 @@
         <v>400</v>
       </c>
       <c r="E213" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F213">
         <v>0.40066669552794493</v>
@@ -27608,7 +27595,7 @@
         <v>1.2696196800482946</v>
       </c>
       <c r="T213" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="U213">
         <v>455.09</v>
@@ -27620,7 +27607,7 @@
         <v>200</v>
       </c>
       <c r="X213" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="Y213">
         <v>0.70139736054119994</v>
@@ -27682,7 +27669,7 @@
         <v>402</v>
       </c>
       <c r="E214" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F214">
         <v>0.39625579374275782</v>
@@ -27715,7 +27702,7 @@
         <v>1.0408192701572192</v>
       </c>
       <c r="T214" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="U214">
         <v>547.47</v>
@@ -27727,7 +27714,7 @@
         <v>234</v>
       </c>
       <c r="X214" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="Y214">
         <v>0.76113168886437077</v>
@@ -27789,7 +27776,7 @@
         <v>404</v>
       </c>
       <c r="E215" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F215">
         <v>0.3301222085108077</v>
@@ -27822,7 +27809,7 @@
         <v>1.0197942643391522</v>
       </c>
       <c r="T215" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="U215">
         <v>443.15</v>
@@ -27834,7 +27821,7 @@
         <v>227</v>
       </c>
       <c r="X215" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="Y215">
         <v>0.74039422290852941</v>
@@ -27896,7 +27883,7 @@
         <v>406</v>
       </c>
       <c r="E216" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F216">
         <v>0.29717146035277292</v>
@@ -27929,7 +27916,7 @@
         <v>0.94662989699083466</v>
       </c>
       <c r="T216" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="U216">
         <v>807.35</v>
@@ -27941,7 +27928,7 @@
         <v>212</v>
       </c>
       <c r="X216" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="Y216">
         <v>0.78299457994579946</v>
@@ -28003,7 +27990,7 @@
         <v>408</v>
       </c>
       <c r="E217" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F217">
         <v>0.32729248812051359</v>
@@ -28036,7 +28023,7 @@
         <v>1.0071245036206493</v>
       </c>
       <c r="T217" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="U217">
         <v>663.77</v>
@@ -28048,7 +28035,7 @@
         <v>224</v>
       </c>
       <c r="X217" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="Y217">
         <v>0.76363229201657146</v>
@@ -28110,7 +28097,7 @@
         <v>410</v>
       </c>
       <c r="E218" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F218">
         <v>0.37894181922745135</v>
@@ -28143,7 +28130,7 @@
         <v>1.1352546345621137</v>
       </c>
       <c r="T218" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="U218">
         <v>786.9</v>
@@ -28155,7 +28142,7 @@
         <v>210</v>
       </c>
       <c r="X218" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="Y218">
         <v>0.68235804758710494</v>
@@ -28217,7 +28204,7 @@
         <v>412</v>
       </c>
       <c r="E219" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F219">
         <v>0.37039862674041579</v>
@@ -28250,7 +28237,7 @@
         <v>0.91272727272727272</v>
       </c>
       <c r="T219" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="U219">
         <v>622.47</v>
@@ -28262,7 +28249,7 @@
         <v>225</v>
       </c>
       <c r="X219" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="Y219">
         <v>0.73974763406940058</v>
@@ -28324,7 +28311,7 @@
         <v>414</v>
       </c>
       <c r="E220" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F220">
         <v>0.35292380389840522</v>
@@ -28357,7 +28344,7 @@
         <v>0.92002961865975563</v>
       </c>
       <c r="T220" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="U220">
         <v>500.95</v>
@@ -28369,7 +28356,7 @@
         <v>218</v>
       </c>
       <c r="X220" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="Y220">
         <v>0.74918032786885247</v>
@@ -28431,7 +28418,7 @@
         <v>416</v>
       </c>
       <c r="E221" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F221">
         <v>0.33882091212458287</v>
@@ -28464,7 +28451,7 @@
         <v>0.99374062724131185</v>
       </c>
       <c r="T221" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="U221">
         <v>1015.43</v>
@@ -28476,7 +28463,7 @@
         <v>219</v>
       </c>
       <c r="X221" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="Y221">
         <v>0.72271020633116323</v>
@@ -28538,7 +28525,7 @@
         <v>418</v>
       </c>
       <c r="E222" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F222">
         <v>0.62826415094339627</v>
@@ -28571,7 +28558,7 @@
         <v>1.751597620096959</v>
       </c>
       <c r="T222" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="U222">
         <v>604.24</v>
@@ -28583,7 +28570,7 @@
         <v>204</v>
       </c>
       <c r="X222" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="Y222">
         <v>0.70859182459420411</v>
@@ -28645,7 +28632,7 @@
         <v>420</v>
       </c>
       <c r="E223" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F223">
         <v>0.29419370524268412</v>
@@ -28678,7 +28665,7 @@
         <v>1.4260166394526086</v>
       </c>
       <c r="T223" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="U223">
         <v>449.74</v>
@@ -28690,7 +28677,7 @@
         <v>167</v>
       </c>
       <c r="X223" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="Y223">
         <v>0.65541147412147749</v>
@@ -28752,7 +28739,7 @@
         <v>422</v>
       </c>
       <c r="E224" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F224">
         <v>0.34076930431180091</v>
@@ -28785,7 +28772,7 @@
         <v>1.1096086334676896</v>
       </c>
       <c r="T224" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="U224">
         <v>392.1</v>
@@ -28797,7 +28784,7 @@
         <v>208</v>
       </c>
       <c r="X224" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="Y224">
         <v>0.74715615305067218</v>
@@ -28859,7 +28846,7 @@
         <v>424</v>
       </c>
       <c r="E225" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F225">
         <v>0.36854527661044267</v>
@@ -28892,7 +28879,7 @@
         <v>1.0630442605253689</v>
       </c>
       <c r="T225" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="U225">
         <v>475.01</v>
@@ -28904,7 +28891,7 @@
         <v>195</v>
       </c>
       <c r="X225" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="Y225">
         <v>0.69967860422405881</v>
@@ -28966,7 +28953,7 @@
         <v>426</v>
       </c>
       <c r="E226" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F226">
         <v>0.40979955456570155</v>
@@ -28999,7 +28986,7 @@
         <v>1.300541923829595</v>
       </c>
       <c r="T226" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="U226">
         <v>518.44000000000005</v>
@@ -29011,7 +28998,7 @@
         <v>207</v>
       </c>
       <c r="X226" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="Y226">
         <v>0.70053785206176622</v>
@@ -29073,7 +29060,7 @@
         <v>428</v>
       </c>
       <c r="E227" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F227">
         <v>0.31917070874521603</v>
@@ -29106,7 +29093,7 @@
         <v>0.9073112265281662</v>
       </c>
       <c r="T227" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="U227">
         <v>396.44</v>
@@ -29118,7 +29105,7 @@
         <v>186</v>
       </c>
       <c r="X227" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="Y227">
         <v>0.72186116605444095</v>
@@ -29180,7 +29167,7 @@
         <v>430</v>
       </c>
       <c r="E228" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F228">
         <v>0.32191962803055463</v>
@@ -29213,7 +29200,7 @@
         <v>0.88293918918918923</v>
       </c>
       <c r="T228" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="U228">
         <v>440.12</v>
@@ -29225,7 +29212,7 @@
         <v>217</v>
       </c>
       <c r="X228" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="Y228">
         <v>0.75044776119402989</v>
@@ -29287,7 +29274,7 @@
         <v>432</v>
       </c>
       <c r="E229" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F229">
         <v>0.27740959140009391</v>
@@ -29320,7 +29307,7 @@
         <v>0.81533477321814252</v>
       </c>
       <c r="T229" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="U229">
         <v>655.78</v>
@@ -29332,7 +29319,7 @@
         <v>226</v>
       </c>
       <c r="X229" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="Y229">
         <v>0.77278700274758094</v>
@@ -29394,7 +29381,7 @@
         <v>434</v>
       </c>
       <c r="E230" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F230">
         <v>0.40842920710125025</v>
@@ -29427,7 +29414,7 @@
         <v>0.92878912309517292</v>
       </c>
       <c r="T230" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="U230">
         <v>1130.01</v>
@@ -29439,7 +29426,7 @@
         <v>148</v>
       </c>
       <c r="X230" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="Y230">
         <v>0.62091304787933999</v>
@@ -29504,7 +29491,7 @@
         <v>217</v>
       </c>
       <c r="E231" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F231">
         <v>0.51651208513630231</v>
@@ -29537,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="U231">
         <v>393.02</v>
@@ -29549,7 +29536,7 @@
         <v>137</v>
       </c>
       <c r="X231" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="Y231">
         <v>0.63344580521536287</v>
@@ -29614,7 +29601,7 @@
         <v>219</v>
       </c>
       <c r="E232" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F232">
         <v>0.31713299018960889</v>
@@ -29647,7 +29634,7 @@
         <v>0</v>
       </c>
       <c r="T232" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="U232">
         <v>734.8</v>
@@ -29659,7 +29646,7 @@
         <v>151</v>
       </c>
       <c r="X232" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="Y232">
         <v>0.6101135190918473</v>
@@ -29721,7 +29708,7 @@
         <v>438</v>
       </c>
       <c r="E233" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F233">
         <v>0.49895603459546833</v>
@@ -29754,7 +29741,7 @@
         <v>1.1222758451453076</v>
       </c>
       <c r="T233" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="U233">
         <v>1324.89</v>
@@ -29766,7 +29753,7 @@
         <v>169</v>
       </c>
       <c r="X233" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="Y233">
         <v>0.67507438402833331</v>
@@ -29828,7 +29815,7 @@
         <v>440</v>
       </c>
       <c r="E234" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F234">
         <v>0.41253237625669825</v>
@@ -29861,7 +29848,7 @@
         <v>1.0741157039959628</v>
       </c>
       <c r="T234" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="U234">
         <v>1009.24</v>
@@ -29873,7 +29860,7 @@
         <v>182</v>
       </c>
       <c r="X234" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="Y234">
         <v>0.66475949367088605</v>
@@ -29935,7 +29922,7 @@
         <v>442</v>
       </c>
       <c r="E235" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F235">
         <v>0.37809645492858368</v>
@@ -29968,7 +29955,7 @@
         <v>1.0365996359538876</v>
       </c>
       <c r="T235" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="U235">
         <v>1521.94</v>
@@ -29980,7 +29967,7 @@
         <v>197</v>
       </c>
       <c r="X235" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="Y235">
         <v>0.69570304790368509</v>
@@ -30042,7 +30029,7 @@
         <v>444</v>
       </c>
       <c r="E236" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F236">
         <v>0.4943415762302657</v>
@@ -30075,7 +30062,7 @@
         <v>0.86331924428375006</v>
       </c>
       <c r="T236" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="U236">
         <v>616.25</v>
@@ -30087,7 +30074,7 @@
         <v>131</v>
       </c>
       <c r="X236" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="Y236">
         <v>0.58371038054731328</v>
@@ -30149,7 +30136,7 @@
         <v>446</v>
       </c>
       <c r="E237" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F237">
         <v>0.38263889570191018</v>
@@ -30182,7 +30169,7 @@
         <v>0.85425903896759314</v>
       </c>
       <c r="T237" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="U237">
         <v>669.43</v>
@@ -30194,7 +30181,7 @@
         <v>176</v>
       </c>
       <c r="X237" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="Y237">
         <v>0.6990752914365852</v>
@@ -30256,7 +30243,7 @@
         <v>448</v>
       </c>
       <c r="E238" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F238">
         <v>0.43762354815550597</v>
@@ -30289,7 +30276,7 @@
         <v>1.2224439566287502</v>
       </c>
       <c r="T238" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="U238">
         <v>920.29</v>
@@ -30301,7 +30288,7 @@
         <v>194</v>
       </c>
       <c r="X238" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="Y238">
         <v>0.71582445029213682</v>
@@ -30363,7 +30350,7 @@
         <v>450</v>
       </c>
       <c r="E239" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F239">
         <v>0.33248325093805198</v>
@@ -30396,7 +30383,7 @@
         <v>0.85287801591645962</v>
       </c>
       <c r="T239" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="U239">
         <v>1254.8</v>
@@ -30408,7 +30395,7 @@
         <v>214</v>
       </c>
       <c r="X239" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="Y239">
         <v>0.72175583868975457</v>
@@ -30470,7 +30457,7 @@
         <v>452</v>
       </c>
       <c r="E240" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F240">
         <v>0.34073262850483693</v>
@@ -30503,7 +30490,7 @@
         <v>0.87194577268666917</v>
       </c>
       <c r="T240" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="U240">
         <v>911.61</v>
@@ -30515,7 +30502,7 @@
         <v>211</v>
       </c>
       <c r="X240" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="Y240">
         <v>0.71439785438607972</v>
@@ -30577,7 +30564,7 @@
         <v>454</v>
       </c>
       <c r="E241" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F241">
         <v>0.40732255216424335</v>
@@ -30610,7 +30597,7 @@
         <v>1.0079753449170983</v>
       </c>
       <c r="T241" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="U241">
         <v>411.74</v>
@@ -30622,7 +30609,7 @@
         <v>133</v>
       </c>
       <c r="X241" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="Y241">
         <v>0.64217623808416646</v>
@@ -30684,7 +30671,7 @@
         <v>456</v>
       </c>
       <c r="E242" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F242">
         <v>0.3676945924696427</v>
@@ -30717,7 +30704,7 @@
         <v>1.2051739518287243</v>
       </c>
       <c r="T242" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="U242">
         <v>614.27</v>
@@ -30729,7 +30716,7 @@
         <v>249</v>
       </c>
       <c r="X242" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="Y242">
         <v>0.78183852321461866</v>
@@ -30791,7 +30778,7 @@
         <v>458</v>
       </c>
       <c r="E243" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F243">
         <v>0.28865369833855614</v>
@@ -30824,7 +30811,7 @@
         <v>0.99206638701440819</v>
       </c>
       <c r="T243" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="U243">
         <v>1175.1400000000001</v>
@@ -30836,7 +30823,7 @@
         <v>244</v>
       </c>
       <c r="X243" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="Y243">
         <v>0.78763630332932544</v>
@@ -30898,7 +30885,7 @@
         <v>460</v>
       </c>
       <c r="E244" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F244">
         <v>0.41150172729120099</v>
@@ -30931,7 +30918,7 @@
         <v>0.94147217235188507</v>
       </c>
       <c r="T244" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="U244">
         <v>846.06</v>
@@ -30943,7 +30930,7 @@
         <v>255</v>
       </c>
       <c r="X244" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="Y244">
         <v>0.77608120788194146</v>
@@ -31005,7 +30992,7 @@
         <v>462</v>
       </c>
       <c r="E245" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F245">
         <v>0.27391304347826084</v>
@@ -31038,7 +31025,7 @@
         <v>0.95675355450236965</v>
       </c>
       <c r="T245" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="U245">
         <v>815.64</v>
@@ -31050,7 +31037,7 @@
         <v>259</v>
       </c>
       <c r="X245" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="Y245">
         <v>0.76895966583996866</v>
@@ -31112,7 +31099,7 @@
         <v>464</v>
       </c>
       <c r="E246" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F246">
         <v>0.35394540383694395</v>
@@ -31145,7 +31132,7 @@
         <v>0.95575572923566032</v>
       </c>
       <c r="T246" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="U246">
         <v>741.14</v>
@@ -31157,7 +31144,7 @@
         <v>237</v>
       </c>
       <c r="X246" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="Y246">
         <v>0.77211385467617422</v>
@@ -31219,7 +31206,7 @@
         <v>466</v>
       </c>
       <c r="E247" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F247">
         <v>0.39086160628713817</v>
@@ -31252,7 +31239,7 @@
         <v>1.0756670649143767</v>
       </c>
       <c r="T247" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="U247">
         <v>693.79</v>
@@ -31264,7 +31251,7 @@
         <v>223</v>
       </c>
       <c r="X247" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="Y247">
         <v>0.75049147229158919</v>
@@ -31326,7 +31313,7 @@
         <v>468</v>
       </c>
       <c r="E248" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F248">
         <v>0.64833517951391151</v>
@@ -31359,7 +31346,7 @@
         <v>1.6993946064942211</v>
       </c>
       <c r="T248" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="U248">
         <v>384.1</v>
@@ -31371,7 +31358,7 @@
         <v>209</v>
       </c>
       <c r="X248" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="Y248">
         <v>0.72114387316639506</v>
@@ -31433,7 +31420,7 @@
         <v>470</v>
       </c>
       <c r="E249" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F249">
         <v>0.48764638507748764</v>
@@ -31466,7 +31453,7 @@
         <v>1.7632841656299982</v>
       </c>
       <c r="T249" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="U249">
         <v>616.28</v>
@@ -31478,7 +31465,7 @@
         <v>216</v>
       </c>
       <c r="X249" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="Y249">
         <v>0.73075869624760337</v>
@@ -31540,7 +31527,7 @@
         <v>472</v>
       </c>
       <c r="E250" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F250">
         <v>0.53911966480152496</v>
@@ -31573,7 +31560,7 @@
         <v>1.1526442600209301</v>
       </c>
       <c r="T250" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="U250">
         <v>450.93</v>
@@ -31585,7 +31572,7 @@
         <v>158</v>
       </c>
       <c r="X250" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="Y250">
         <v>0.62016415166930283</v>
@@ -31647,7 +31634,7 @@
         <v>474</v>
       </c>
       <c r="E251" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F251">
         <v>0.22663011342256625</v>
@@ -31680,7 +31667,7 @@
         <v>0.64007005253940452</v>
       </c>
       <c r="T251" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="U251">
         <v>661</v>
@@ -31692,7 +31679,7 @@
         <v>206</v>
       </c>
       <c r="X251" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="Y251">
         <v>0.70126034690736661</v>
@@ -31754,7 +31741,7 @@
         <v>476</v>
       </c>
       <c r="E252" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F252">
         <v>0.35203038270522935</v>
@@ -31787,7 +31774,7 @@
         <v>1.0554787152297527</v>
       </c>
       <c r="T252" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="U252">
         <v>1202.26</v>
@@ -31799,7 +31786,7 @@
         <v>258</v>
       </c>
       <c r="X252" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="Y252">
         <v>0.76043145046835081</v>
@@ -31861,7 +31848,7 @@
         <v>478</v>
       </c>
       <c r="E253" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F253">
         <v>0.39867754114432324</v>
@@ -31894,7 +31881,7 @@
         <v>0.92515935508061498</v>
       </c>
       <c r="T253" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="U253">
         <v>989.57</v>
@@ -31906,7 +31893,7 @@
         <v>236</v>
       </c>
       <c r="X253" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="Y253">
         <v>0.73156124752384022</v>
@@ -31968,7 +31955,7 @@
         <v>480</v>
       </c>
       <c r="E254" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F254">
         <v>0.50494715538565327</v>
@@ -32001,7 +31988,7 @@
         <v>0.73132780082987547</v>
       </c>
       <c r="T254" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="U254">
         <v>72.87</v>
@@ -32013,7 +32000,7 @@
         <v>187</v>
       </c>
       <c r="X254" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="Y254">
         <v>0.76239067055393583</v>
@@ -32075,7 +32062,7 @@
         <v>482</v>
       </c>
       <c r="E255" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F255">
         <v>0.43603400891336125</v>
@@ -32108,7 +32095,7 @@
         <v>0.87210493635516917</v>
       </c>
       <c r="T255" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="U255">
         <v>747.67</v>
@@ -32120,7 +32107,7 @@
         <v>111</v>
       </c>
       <c r="X255" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="Y255">
         <v>0.56911356935033486</v>
@@ -32173,7 +32160,7 @@
     </row>
     <row r="256" spans="1:40">
       <c r="A256" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="B256" t="s">
         <v>40</v>
@@ -32185,7 +32172,7 @@
         <v>483</v>
       </c>
       <c r="E256" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F256">
         <v>0.53391772134497828</v>
@@ -32218,7 +32205,7 @@
         <v>0</v>
       </c>
       <c r="T256" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="U256">
         <v>211.22</v>
@@ -32230,7 +32217,7 @@
         <v>117</v>
       </c>
       <c r="X256" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="Y256">
         <v>0.56584940215358948</v>
@@ -32283,7 +32270,7 @@
     </row>
     <row r="257" spans="1:40">
       <c r="A257" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="B257" t="s">
         <v>40</v>
@@ -32295,7 +32282,7 @@
         <v>484</v>
       </c>
       <c r="E257" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F257">
         <v>0.61360718870346598</v>
@@ -32328,7 +32315,7 @@
         <v>0</v>
       </c>
       <c r="T257" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="U257">
         <v>82.09</v>
@@ -32340,7 +32327,7 @@
         <v>92</v>
       </c>
       <c r="X257" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="Y257">
         <v>0.51721225179345298</v>
@@ -32393,7 +32380,7 @@
     </row>
     <row r="258" spans="1:40">
       <c r="A258" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="B258" t="s">
         <v>40</v>
@@ -32405,7 +32392,7 @@
         <v>485</v>
       </c>
       <c r="E258" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F258">
         <v>0.3539078974970466</v>
@@ -32438,7 +32425,7 @@
         <v>0</v>
       </c>
       <c r="T258" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="U258">
         <v>240.23</v>
@@ -32450,7 +32437,7 @@
         <v>127</v>
       </c>
       <c r="X258" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="Y258">
         <v>0.62696632344540271</v>
@@ -32503,7 +32490,7 @@
     </row>
     <row r="259" spans="1:40">
       <c r="A259" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="B259" t="s">
         <v>40</v>
@@ -32515,7 +32502,7 @@
         <v>486</v>
       </c>
       <c r="E259" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F259">
         <v>0.37257442690086545</v>
@@ -32548,7 +32535,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="U259">
         <v>90.08</v>
@@ -32560,7 +32547,7 @@
         <v>98</v>
       </c>
       <c r="X259" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="Y259">
         <v>0.57603789429486174</v>
@@ -32613,7 +32600,7 @@
     </row>
     <row r="260" spans="1:40">
       <c r="A260" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="B260" t="s">
         <v>40</v>
@@ -32625,7 +32612,7 @@
         <v>487</v>
       </c>
       <c r="E260" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F260">
         <v>0.23336590885711347</v>
@@ -32658,7 +32645,7 @@
         <v>0</v>
       </c>
       <c r="T260" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="U260">
         <v>120.14</v>
@@ -32670,7 +32657,7 @@
         <v>107</v>
       </c>
       <c r="X260" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="Y260">
         <v>0.56779526727234308</v>
@@ -32732,7 +32719,7 @@
         <v>489</v>
       </c>
       <c r="E261" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F261">
         <v>0.38551194151377138</v>
@@ -32765,7 +32752,7 @@
         <v>0.77854944903818057</v>
       </c>
       <c r="T261" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="U261">
         <v>712.96</v>
@@ -32777,7 +32764,7 @@
         <v>145</v>
       </c>
       <c r="X261" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="Y261">
         <v>0.61981453702441025</v>
@@ -32839,7 +32826,7 @@
         <v>491</v>
       </c>
       <c r="E262" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F262">
         <v>0.35031492556304872</v>
@@ -32872,7 +32859,7 @@
         <v>0.68819618095021595</v>
       </c>
       <c r="T262" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="U262">
         <v>239.8</v>
@@ -32884,7 +32871,7 @@
         <v>142</v>
       </c>
       <c r="X262" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="Y262">
         <v>0.65097287845529972</v>
@@ -32946,7 +32933,7 @@
         <v>493</v>
       </c>
       <c r="E263" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F263">
         <v>0.45052130635376175</v>
@@ -32979,7 +32966,7 @@
         <v>1.0788961128027872</v>
       </c>
       <c r="T263" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="U263">
         <v>398.64</v>
@@ -32991,7 +32978,7 @@
         <v>156</v>
       </c>
       <c r="X263" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="Y263">
         <v>0.65999140524280187</v>
@@ -33053,7 +33040,7 @@
         <v>495</v>
       </c>
       <c r="E264" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F264">
         <v>0.41931046517240228</v>
@@ -33086,7 +33073,7 @@
         <v>0.87799693888811592</v>
       </c>
       <c r="T264" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="U264">
         <v>463.36</v>
@@ -33098,7 +33085,7 @@
         <v>115</v>
       </c>
       <c r="X264" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="Y264">
         <v>0.5382299587016095</v>
@@ -33160,7 +33147,7 @@
         <v>497</v>
       </c>
       <c r="E265" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F265">
         <v>0.3489056305285192</v>
@@ -33193,7 +33180,7 @@
         <v>0.93936477382098171</v>
       </c>
       <c r="T265" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="U265">
         <v>798.64</v>
@@ -33205,7 +33192,7 @@
         <v>185</v>
       </c>
       <c r="X265" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="Y265">
         <v>0.71221815965874469</v>
@@ -33267,7 +33254,7 @@
         <v>499</v>
       </c>
       <c r="E266" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F266">
         <v>0.48788030378825775</v>
@@ -33300,7 +33287,7 @@
         <v>1.0629657630413651</v>
       </c>
       <c r="T266" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="U266">
         <v>402.64</v>
@@ -33312,7 +33299,7 @@
         <v>135</v>
       </c>
       <c r="X266" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="Y266">
         <v>0.56396798731178976</v>
@@ -33374,7 +33361,7 @@
         <v>501</v>
       </c>
       <c r="E267" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F267">
         <v>0.3851796157531594</v>
@@ -33407,7 +33394,7 @@
         <v>0.84423014561682541</v>
       </c>
       <c r="T267" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="U267">
         <v>485.16</v>
@@ -33419,7 +33406,7 @@
         <v>128</v>
       </c>
       <c r="X267" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="Y267">
         <v>0.57038570573256675</v>
@@ -33481,7 +33468,7 @@
         <v>503</v>
       </c>
       <c r="E268" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F268">
         <v>0.35536594615092909</v>
@@ -33514,7 +33501,7 @@
         <v>1.0917951702065756</v>
       </c>
       <c r="T268" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="U268">
         <v>482.87</v>
@@ -33526,7 +33513,7 @@
         <v>228</v>
       </c>
       <c r="X268" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="Y268">
         <v>0.77445012580147721</v>
@@ -33588,7 +33575,7 @@
         <v>505</v>
       </c>
       <c r="E269" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F269">
         <v>0.65538000891890169</v>
@@ -33621,7 +33608,7 @@
         <v>1.6295923962712484</v>
       </c>
       <c r="T269" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="U269">
         <v>416.6</v>
@@ -33633,7 +33620,7 @@
         <v>177</v>
       </c>
       <c r="X269" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="Y269">
         <v>0.66550274085755046</v>
@@ -33695,7 +33682,7 @@
         <v>507</v>
       </c>
       <c r="E270" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F270">
         <v>0.43020198995041764</v>
@@ -33728,7 +33715,7 @@
         <v>0.99620181405895691</v>
       </c>
       <c r="T270" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="U270">
         <v>532.86</v>
@@ -33740,7 +33727,7 @@
         <v>192</v>
       </c>
       <c r="X270" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="Y270">
         <v>0.73453991378028838</v>
@@ -33802,7 +33789,7 @@
         <v>290</v>
       </c>
       <c r="E271" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F271">
         <v>0.4085002172453292</v>
@@ -33835,7 +33822,7 @@
         <v>1.2030881569939911</v>
       </c>
       <c r="T271" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="U271">
         <v>517.94000000000005</v>
@@ -33847,7 +33834,7 @@
         <v>201</v>
       </c>
       <c r="X271" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="Y271">
         <v>0.71713780117065207</v>
@@ -33909,7 +33896,7 @@
         <v>510</v>
       </c>
       <c r="E272" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F272">
         <v>0.36387236854526572</v>
@@ -33942,7 +33929,7 @@
         <v>0.87828136719168537</v>
       </c>
       <c r="T272" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="U272">
         <v>357.57</v>
@@ -33954,7 +33941,7 @@
         <v>190</v>
       </c>
       <c r="X272" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="Y272">
         <v>0.76339674888467257</v>
@@ -34016,7 +34003,7 @@
         <v>512</v>
       </c>
       <c r="E273" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F273">
         <v>0.32495639401450471</v>
@@ -34049,7 +34036,7 @@
         <v>0.97251282051282051</v>
       </c>
       <c r="T273" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="U273">
         <v>675.62</v>
@@ -34061,7 +34048,7 @@
         <v>220</v>
       </c>
       <c r="X273" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="Y273">
         <v>0.73645484949832773</v>
@@ -34123,7 +34110,7 @@
         <v>514</v>
       </c>
       <c r="E274" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F274">
         <v>0.34774523477452346</v>
@@ -34156,7 +34143,7 @@
         <v>1.157266675040824</v>
       </c>
       <c r="T274" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="U274">
         <v>794.82</v>
@@ -34168,7 +34155,7 @@
         <v>243</v>
       </c>
       <c r="X274" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="Y274">
         <v>0.7666389084619819</v>
@@ -34230,7 +34217,7 @@
         <v>516</v>
       </c>
       <c r="E275" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F275">
         <v>0.34365172189733595</v>
@@ -34263,7 +34250,7 @@
         <v>0.89874772556994542</v>
       </c>
       <c r="T275" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="U275">
         <v>725.48</v>
@@ -34275,7 +34262,7 @@
         <v>233</v>
       </c>
       <c r="X275" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="Y275">
         <v>0.74195034848223029</v>
@@ -34337,7 +34324,7 @@
         <v>518</v>
       </c>
       <c r="E276" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F276">
         <v>0.32260540152183143</v>
@@ -34370,7 +34357,7 @@
         <v>0.82241545893719803</v>
       </c>
       <c r="T276" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="U276">
         <v>803.18</v>
@@ -34382,7 +34369,7 @@
         <v>213</v>
       </c>
       <c r="X276" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="Y276">
         <v>0.68644198809615831</v>
@@ -34444,7 +34431,7 @@
         <v>520</v>
       </c>
       <c r="E277" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F277">
         <v>0.28922354691022334</v>
@@ -34477,7 +34464,7 @@
         <v>0.93833459993486046</v>
       </c>
       <c r="T277" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="U277">
         <v>983.46</v>
@@ -34489,7 +34476,7 @@
         <v>241</v>
       </c>
       <c r="X277" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="Y277">
         <v>0.77521227469089826</v>
@@ -34551,7 +34538,7 @@
         <v>522</v>
       </c>
       <c r="E278" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F278">
         <v>0.40058391200770438</v>
@@ -34584,7 +34571,7 @@
         <v>0.91290553977686928</v>
       </c>
       <c r="T278" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="U278">
         <v>978.43</v>
@@ -34596,7 +34583,7 @@
         <v>143</v>
       </c>
       <c r="X278" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="Y278">
         <v>0.5817951247005777</v>
@@ -34658,7 +34645,7 @@
         <v>524</v>
       </c>
       <c r="E279" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F279">
         <v>0.35205951653721967</v>
@@ -34691,7 +34678,7 @@
         <v>0.83716921271250155</v>
       </c>
       <c r="T279" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="U279">
         <v>870.72</v>
@@ -34703,7 +34690,7 @@
         <v>163</v>
       </c>
       <c r="X279" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="Y279">
         <v>0.62534115243040489</v>
@@ -34756,7 +34743,7 @@
     </row>
     <row r="280" spans="1:40">
       <c r="A280" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="S280">
         <v>0</v>

--- a/files/local_basic.xlsx
+++ b/files/local_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C199DA-7E28-473C-A866-2BC10E9E9F2F}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23942568-09C8-41D0-B5A4-C46CB4AF0EBE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DE99C3E-0403-4715-A30A-516131D8E267}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1116">
   <si>
     <t>행정구역명</t>
   </si>
@@ -3393,6 +3393,10 @@
   </si>
   <si>
     <t>직장월급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3771,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5545A06-5006-4106-AA61-5F8DE569D734}">
   <dimension ref="A1:AN280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3868,6 +3872,9 @@
       <c r="R2" t="s">
         <v>8</v>
       </c>
+      <c r="S2" t="s">
+        <v>1115</v>
+      </c>
       <c r="T2" t="s">
         <v>1106</v>
       </c>

--- a/files/local_basic.xlsx
+++ b/files/local_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23942568-09C8-41D0-B5A4-C46CB4AF0EBE}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E963B670-2AAB-4C4D-8CDF-11FD3793BABD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DE99C3E-0403-4715-A30A-516131D8E267}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1115">
   <si>
     <t>행정구역명</t>
   </si>
@@ -3347,9 +3347,6 @@
   </si>
   <si>
     <t>87,199</t>
-  </si>
-  <si>
-    <t>전국</t>
   </si>
   <si>
     <t>연말정산 주소지</t>
@@ -3773,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5545A06-5006-4106-AA61-5F8DE569D734}">
-  <dimension ref="A1:AN280"/>
+  <dimension ref="A1:AN279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="J226" workbookViewId="0">
+      <selection activeCell="O286" sqref="O286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3793,13 +3790,13 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="S1" t="s">
         <v>525</v>
@@ -3808,10 +3805,10 @@
         <v>2</v>
       </c>
       <c r="AB1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AD1" t="s">
         <v>1109</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1110</v>
       </c>
       <c r="AM1" t="s">
         <v>3</v>
@@ -3837,13 +3834,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H2" t="s">
         <v>1112</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1114</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -3873,22 +3870,22 @@
         <v>8</v>
       </c>
       <c r="S2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="T2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="U2" t="s">
         <v>526</v>
       </c>
       <c r="V2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="W2" t="s">
         <v>8</v>
       </c>
       <c r="X2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Y2" t="s">
         <v>527</v>
@@ -34746,26 +34743,6 @@
       </c>
       <c r="AN279">
         <v>1.2931591878960301E-4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:40">
-      <c r="A280" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S280">
-        <v>0</v>
-      </c>
-      <c r="X280" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y280">
-        <v>0.59769925611813801</v>
-      </c>
-      <c r="Z280">
-        <v>15.5</v>
-      </c>
-      <c r="AA280">
-        <v>0.60126571422814468</v>
       </c>
     </row>
   </sheetData>

--- a/files/local_basic.xlsx
+++ b/files/local_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E963B670-2AAB-4C4D-8CDF-11FD3793BABD}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E261D1E-1854-44C2-8B52-331596F977BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DE99C3E-0403-4715-A30A-516131D8E267}"/>
   </bookViews>
@@ -1621,15 +1621,6 @@
     <t>면적</t>
   </si>
   <si>
-    <t>12인가구비율(2020)</t>
-  </si>
-  <si>
-    <t>노인인구비율(2021.10)</t>
-  </si>
-  <si>
-    <t>아파트거주비율(2020)</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -3394,6 +3385,18 @@
   </si>
   <si>
     <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12인가구비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인인구비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트거주비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3772,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5545A06-5006-4106-AA61-5F8DE569D734}">
   <dimension ref="A1:AN279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J226" workbookViewId="0">
-      <selection activeCell="O286" sqref="O286"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3790,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="K1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="S1" t="s">
         <v>525</v>
@@ -3805,10 +3808,10 @@
         <v>2</v>
       </c>
       <c r="AB1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AD1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AM1" t="s">
         <v>3</v>
@@ -3834,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I2" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -3870,31 +3873,31 @@
         <v>8</v>
       </c>
       <c r="S2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="U2" t="s">
         <v>526</v>
       </c>
       <c r="V2" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="W2" t="s">
         <v>8</v>
       </c>
       <c r="X2" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="Y2" t="s">
-        <v>527</v>
+        <v>1112</v>
       </c>
       <c r="Z2" t="s">
-        <v>528</v>
+        <v>1113</v>
       </c>
       <c r="AA2" t="s">
-        <v>529</v>
+        <v>1114</v>
       </c>
       <c r="AB2" t="s">
         <v>12</v>
@@ -3944,7 +3947,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F3">
         <v>0.54833847158352522</v>
@@ -3986,7 +3989,7 @@
         <v>1.5352779795108533</v>
       </c>
       <c r="T3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="U3">
         <v>605.20000000000005</v>
@@ -3998,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Y3">
         <v>0.60884616640174372</v>
@@ -4057,7 +4060,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F4">
         <v>0.3913583427733574</v>
@@ -4099,7 +4102,7 @@
         <v>0.82436855177809165</v>
       </c>
       <c r="T4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="U4">
         <v>10187.799999999999</v>
@@ -4111,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Y4">
         <v>0.54058768275965685</v>
@@ -4170,7 +4173,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F5">
         <v>0.37096457090623491</v>
@@ -4212,7 +4215,7 @@
         <v>0.75913275291069671</v>
       </c>
       <c r="T5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U5">
         <v>1063.26</v>
@@ -4224,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y5">
         <v>0.55895048814504877</v>
@@ -4283,7 +4286,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F6">
         <v>0.43662014634519863</v>
@@ -4325,7 +4328,7 @@
         <v>0.88674450923756065</v>
       </c>
       <c r="T6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="U6">
         <v>769.82</v>
@@ -4337,7 +4340,7 @@
         <v>2</v>
       </c>
       <c r="X6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Y6">
         <v>0.61682503734777094</v>
@@ -4396,7 +4399,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F7">
         <v>0.40487116648073951</v>
@@ -4438,7 +4441,7 @@
         <v>0.8181945809349993</v>
       </c>
       <c r="T7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="U7">
         <v>883.57</v>
@@ -4450,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="X7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Y7">
         <v>0.58913630941270989</v>
@@ -4509,7 +4512,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F8">
         <v>0.43805625690663275</v>
@@ -4551,7 +4554,7 @@
         <v>0.81353971112217927</v>
       </c>
       <c r="T8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="U8">
         <v>501.24</v>
@@ -4563,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="X8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Y8">
         <v>0.59469440953778019</v>
@@ -4622,7 +4625,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F9">
         <v>0.43556993813899886</v>
@@ -4664,7 +4667,7 @@
         <v>0.99556470395457553</v>
       </c>
       <c r="T9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="U9">
         <v>539.35</v>
@@ -4676,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="X9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Y9">
         <v>0.62362485900051967</v>
@@ -4735,7 +4738,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F10">
         <v>0.47497162750341626</v>
@@ -4777,7 +4780,7 @@
         <v>0.91881164498104306</v>
       </c>
       <c r="T10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="U10">
         <v>1060.79</v>
@@ -4789,7 +4792,7 @@
         <v>8</v>
       </c>
       <c r="X10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Y10">
         <v>0.55493405571430821</v>
@@ -4848,7 +4851,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F11">
         <v>0.34053264399526439</v>
@@ -4890,7 +4893,7 @@
         <v>0.73745544664736018</v>
       </c>
       <c r="T11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="U11">
         <v>464.87</v>
@@ -4902,7 +4905,7 @@
         <v>9</v>
       </c>
       <c r="X11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Y11">
         <v>0.55196037554095434</v>
@@ -4961,7 +4964,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F12">
         <v>0.43587149000758918</v>
@@ -5003,7 +5006,7 @@
         <v>0.83646382110516493</v>
       </c>
       <c r="T12" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="U12">
         <v>16875.03</v>
@@ -5015,7 +5018,7 @@
         <v>17</v>
       </c>
       <c r="X12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Y12">
         <v>0.66278389020920092</v>
@@ -5074,7 +5077,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F13">
         <v>0.46429313916295334</v>
@@ -5116,7 +5119,7 @@
         <v>0.91091556588960831</v>
       </c>
       <c r="T13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="U13">
         <v>7407.7300000000014</v>
@@ -5128,7 +5131,7 @@
         <v>14</v>
       </c>
       <c r="X13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Y13">
         <v>0.64079231487564114</v>
@@ -5187,7 +5190,7 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F14">
         <v>0.45962934000699396</v>
@@ -5229,7 +5232,7 @@
         <v>0.95021692275327174</v>
       </c>
       <c r="T14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="U14">
         <v>8214.0600000000013</v>
@@ -5241,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="X14" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Y14">
         <v>0.63872220142520586</v>
@@ -5300,7 +5303,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F15">
         <v>0.40231538130597788</v>
@@ -5342,7 +5345,7 @@
         <v>0.87938822158875285</v>
       </c>
       <c r="T15" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="U15">
         <v>8069.0500000000011</v>
@@ -5354,7 +5357,7 @@
         <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Y15">
         <v>0.64666379909340566</v>
@@ -5413,7 +5416,7 @@
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F16">
         <v>0.42203839091097883</v>
@@ -5455,7 +5458,7 @@
         <v>1.0029470216329404</v>
       </c>
       <c r="T16" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="U16">
         <v>12318.690000000002</v>
@@ -5467,7 +5470,7 @@
         <v>15</v>
       </c>
       <c r="X16" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Y16">
         <v>0.66727116102311435</v>
@@ -5526,7 +5529,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F17">
         <v>0.43762550301093067</v>
@@ -5568,7 +5571,7 @@
         <v>0.99436141214255491</v>
       </c>
       <c r="T17" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="U17">
         <v>19031.059999999998</v>
@@ -5580,7 +5583,7 @@
         <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Y17">
         <v>0.66428642742346611</v>
@@ -5639,7 +5642,7 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F18">
         <v>1.5704289213211775</v>
@@ -5681,7 +5684,7 @@
         <v>0.90283561234951359</v>
       </c>
       <c r="T18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="U18">
         <v>10535.36</v>
@@ -5693,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="X18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Y18">
         <v>0.60543937547911164</v>
@@ -5752,7 +5755,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F19">
         <v>0.42317043790064279</v>
@@ -5794,7 +5797,7 @@
         <v>0.89463181090098143</v>
       </c>
       <c r="T19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="U19">
         <v>1849.15</v>
@@ -5806,7 +5809,7 @@
         <v>10</v>
       </c>
       <c r="X19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Y19">
         <v>0.59362218133714473</v>
@@ -5859,16 +5862,16 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F20">
         <v>1.308988195805034</v>
@@ -5913,7 +5916,7 @@
         <v>4.5809742765426682</v>
       </c>
       <c r="T20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="U20">
         <v>39.5</v>
@@ -5925,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="X20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Y20">
         <v>0.57715974007939363</v>
@@ -5987,7 +5990,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F21">
         <v>0.30570218565095136</v>
@@ -6032,7 +6035,7 @@
         <v>0.62512171372930869</v>
       </c>
       <c r="T21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="U21">
         <v>24.59</v>
@@ -6044,7 +6047,7 @@
         <v>8</v>
       </c>
       <c r="X21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Y21">
         <v>0.55352586537810189</v>
@@ -6106,7 +6109,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F22">
         <v>0.24611859676699591</v>
@@ -6151,7 +6154,7 @@
         <v>0.39724827422042369</v>
       </c>
       <c r="T22" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="U22">
         <v>23.6</v>
@@ -6163,7 +6166,7 @@
         <v>31</v>
       </c>
       <c r="X22" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Y22">
         <v>0.63261815800624011</v>
@@ -6225,7 +6228,7 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F23">
         <v>0.44752767784208425</v>
@@ -6270,7 +6273,7 @@
         <v>1.0236420293692337</v>
       </c>
       <c r="T23" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="U23">
         <v>41.44</v>
@@ -6282,7 +6285,7 @@
         <v>28</v>
       </c>
       <c r="X23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Y23">
         <v>0.62002810358177285</v>
@@ -6344,7 +6347,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F24">
         <v>0.23664172259760299</v>
@@ -6389,7 +6392,7 @@
         <v>0.3597292661955187</v>
       </c>
       <c r="T24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="U24">
         <v>29.57</v>
@@ -6401,7 +6404,7 @@
         <v>15</v>
       </c>
       <c r="X24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Y24">
         <v>0.74468085106382975</v>
@@ -6463,7 +6466,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F25">
         <v>0.37059803881295955</v>
@@ -6508,7 +6511,7 @@
         <v>0.62359145499866098</v>
       </c>
       <c r="T25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="U25">
         <v>17.059999999999999</v>
@@ -6520,7 +6523,7 @@
         <v>5</v>
       </c>
       <c r="X25" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Y25">
         <v>0.64883292787165492</v>
@@ -6582,7 +6585,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F26">
         <v>0.56796114061359571</v>
@@ -6627,7 +6630,7 @@
         <v>1.1286523163585365</v>
       </c>
       <c r="T26" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="U26">
         <v>20.12</v>
@@ -6639,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="X26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Y26">
         <v>0.58804995033001595</v>
@@ -6701,7 +6704,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F27">
         <v>1.0517725578573287</v>
@@ -6746,7 +6749,7 @@
         <v>2.1811813936563769</v>
       </c>
       <c r="T27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="U27">
         <v>13.02</v>
@@ -6758,7 +6761,7 @@
         <v>9</v>
       </c>
       <c r="X27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Y27">
         <v>0.66386611493541647</v>
@@ -6820,7 +6823,7 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F28">
         <v>0.22784103223992391</v>
@@ -6865,7 +6868,7 @@
         <v>0.43231824646532252</v>
       </c>
       <c r="T28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="U28">
         <v>35.44</v>
@@ -6877,7 +6880,7 @@
         <v>24</v>
       </c>
       <c r="X28" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Y28">
         <v>0.54583980857939274</v>
@@ -6939,7 +6942,7 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F29">
         <v>0.2291524635641331</v>
@@ -6984,7 +6987,7 @@
         <v>0.40596610283655099</v>
       </c>
       <c r="T29" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="U29">
         <v>20.67</v>
@@ -6996,7 +6999,7 @@
         <v>20</v>
       </c>
       <c r="X29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Y29">
         <v>0.56571033746329358</v>
@@ -7058,7 +7061,7 @@
         <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F30">
         <v>0.41002790796888056</v>
@@ -7103,7 +7106,7 @@
         <v>0.84778144451813442</v>
       </c>
       <c r="T30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="U30">
         <v>14.21</v>
@@ -7115,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="X30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Y30">
         <v>0.65001030770151558</v>
@@ -7177,7 +7180,7 @@
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F31">
         <v>0.27484815376728822</v>
@@ -7222,7 +7225,7 @@
         <v>0.51897214805379321</v>
       </c>
       <c r="T31" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="U31">
         <v>16.350000000000001</v>
@@ -7234,7 +7237,7 @@
         <v>3</v>
       </c>
       <c r="X31" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Y31">
         <v>0.62938855310372777</v>
@@ -7296,7 +7299,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F32">
         <v>0.66886487509974435</v>
@@ -7341,7 +7344,7 @@
         <v>1.6489633572238342</v>
       </c>
       <c r="T32" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="U32">
         <v>23.84</v>
@@ -7353,7 +7356,7 @@
         <v>19</v>
       </c>
       <c r="X32" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Y32">
         <v>0.64563327338017562</v>
@@ -7415,7 +7418,7 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F33">
         <v>0.37215210567617052</v>
@@ -7460,7 +7463,7 @@
         <v>0.75660165474873253</v>
       </c>
       <c r="T33" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="U33">
         <v>17.61</v>
@@ -7472,7 +7475,7 @@
         <v>11</v>
       </c>
       <c r="X33" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Y33">
         <v>0.62709597932568062</v>
@@ -7534,7 +7537,7 @@
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F34">
         <v>1.0575836639900935</v>
@@ -7579,7 +7582,7 @@
         <v>2.8928839971344162</v>
       </c>
       <c r="T34" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="U34">
         <v>46.98</v>
@@ -7591,7 +7594,7 @@
         <v>43</v>
       </c>
       <c r="X34" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Y34">
         <v>0.53040871620453101</v>
@@ -7653,7 +7656,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F35">
         <v>0.62067944869660907</v>
@@ -7698,7 +7701,7 @@
         <v>1.9559374760945509</v>
       </c>
       <c r="T35" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="U35">
         <v>16.86</v>
@@ -7710,7 +7713,7 @@
         <v>13</v>
       </c>
       <c r="X35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Y35">
         <v>0.61343361759939763</v>
@@ -7772,7 +7775,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F36">
         <v>0.25690784829696284</v>
@@ -7817,7 +7820,7 @@
         <v>0.52783214090923669</v>
       </c>
       <c r="T36" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="U36">
         <v>24.58</v>
@@ -7829,7 +7832,7 @@
         <v>10</v>
       </c>
       <c r="X36" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Y36">
         <v>0.59669932093955247</v>
@@ -7891,7 +7894,7 @@
         <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F37">
         <v>0.51756798369028534</v>
@@ -7936,7 +7939,7 @@
         <v>1.3335969055200565</v>
       </c>
       <c r="T37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U37">
         <v>33.880000000000003</v>
@@ -7948,7 +7951,7 @@
         <v>7</v>
       </c>
       <c r="X37" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="Y37">
         <v>0.54814557056059054</v>
@@ -8010,7 +8013,7 @@
         <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F38">
         <v>0.27100487256873085</v>
@@ -8055,7 +8058,7 @@
         <v>0.45510679103330925</v>
       </c>
       <c r="T38" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="U38">
         <v>17.41</v>
@@ -8067,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Y38">
         <v>0.49708510997085109</v>
@@ -8129,7 +8132,7 @@
         <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F39">
         <v>0.98928280056367279</v>
@@ -8174,7 +8177,7 @@
         <v>3.2288239698621801</v>
       </c>
       <c r="T39" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="U39">
         <v>24.53</v>
@@ -8186,7 +8189,7 @@
         <v>21</v>
       </c>
       <c r="X39" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Y39">
         <v>0.64613186691380675</v>
@@ -8248,7 +8251,7 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F40">
         <v>0.60452454707594105</v>
@@ -8293,7 +8296,7 @@
         <v>4.8368063407962607</v>
       </c>
       <c r="T40" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="U40">
         <v>21.87</v>
@@ -8305,7 +8308,7 @@
         <v>35</v>
       </c>
       <c r="X40" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="Y40">
         <v>0.65635121298869548</v>
@@ -8367,7 +8370,7 @@
         <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F41">
         <v>0.19779706740407588</v>
@@ -8412,7 +8415,7 @@
         <v>0.33228405532359079</v>
       </c>
       <c r="T41" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="U41">
         <v>29.7</v>
@@ -8424,7 +8427,7 @@
         <v>18</v>
       </c>
       <c r="X41" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Y41">
         <v>0.58959455702377894</v>
@@ -8486,7 +8489,7 @@
         <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F42">
         <v>1.7919034579554993</v>
@@ -8531,7 +8534,7 @@
         <v>7.3868739205526772</v>
       </c>
       <c r="T42" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="U42">
         <v>23.91</v>
@@ -8543,7 +8546,7 @@
         <v>64</v>
       </c>
       <c r="X42" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Y42">
         <v>0.66647743400510928</v>
@@ -8605,7 +8608,7 @@
         <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F43">
         <v>3.1973025142326583</v>
@@ -8650,7 +8653,7 @@
         <v>11.02493654822335</v>
       </c>
       <c r="T43" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="U43">
         <v>9.9600000000000009</v>
@@ -8662,7 +8665,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Y43">
         <v>0.68603996878006279</v>
@@ -8724,7 +8727,7 @@
         <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F44">
         <v>0.26620352482368154</v>
@@ -8769,7 +8772,7 @@
         <v>0.40095560422058529</v>
       </c>
       <c r="T44" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="U44">
         <v>18.5</v>
@@ -8781,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="X44" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Y44">
         <v>0.61990996893807027</v>
@@ -8843,7 +8846,7 @@
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F45">
         <v>0.45592133802477469</v>
@@ -8888,7 +8891,7 @@
         <v>0.84387980795166428</v>
       </c>
       <c r="T45" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U45">
         <v>843.71</v>
@@ -8900,7 +8903,7 @@
         <v>215</v>
       </c>
       <c r="X45" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Y45">
         <v>0.68548261344144701</v>
@@ -8962,7 +8965,7 @@
         <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F46">
         <v>0.30988576612604607</v>
@@ -9004,7 +9007,7 @@
         <v>0.57243176226729431</v>
       </c>
       <c r="T46" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="U46">
         <v>268.10000000000002</v>
@@ -9016,7 +9019,7 @@
         <v>82</v>
       </c>
       <c r="X46" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y46">
         <v>0.52247633278510974</v>
@@ -9081,7 +9084,7 @@
         <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F47">
         <v>0.24352689689523493</v>
@@ -9126,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="U47">
         <v>165.51</v>
@@ -9138,7 +9141,7 @@
         <v>94</v>
       </c>
       <c r="X47" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Y47">
         <v>0.54689166266072131</v>
@@ -9203,7 +9206,7 @@
         <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F48">
         <v>0.48725134025227101</v>
@@ -9248,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="U48">
         <v>59.1</v>
@@ -9260,7 +9263,7 @@
         <v>74</v>
       </c>
       <c r="X48" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Y48">
         <v>0.5407738307111839</v>
@@ -9325,7 +9328,7 @@
         <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F49">
         <v>0.23892406652759315</v>
@@ -9370,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="U49">
         <v>42.8</v>
@@ -9382,7 +9385,7 @@
         <v>57</v>
       </c>
       <c r="X49" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Y49">
         <v>0.46110684599126123</v>
@@ -9444,7 +9447,7 @@
         <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F50">
         <v>0.498269203261336</v>
@@ -9489,7 +9492,7 @@
         <v>1.9224057842226441</v>
       </c>
       <c r="T50" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="U50">
         <v>35.869999999999997</v>
@@ -9501,7 +9504,7 @@
         <v>101</v>
       </c>
       <c r="X50" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Y50">
         <v>0.43625634022629733</v>
@@ -9563,7 +9566,7 @@
         <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F51">
         <v>0.31891135577909241</v>
@@ -9608,7 +9611,7 @@
         <v>0.60876425208227802</v>
       </c>
       <c r="T51" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="U51">
         <v>38.520000000000003</v>
@@ -9620,7 +9623,7 @@
         <v>52</v>
       </c>
       <c r="X51" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Y51">
         <v>0.50618137417738795</v>
@@ -9682,7 +9685,7 @@
         <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F52">
         <v>0.36645398658718331</v>
@@ -9727,7 +9730,7 @@
         <v>0.75219507170996724</v>
       </c>
       <c r="T52" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U52">
         <v>431.02</v>
@@ -9739,7 +9742,7 @@
         <v>122</v>
       </c>
       <c r="X52" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Y52">
         <v>0.53885304007997814</v>
@@ -9801,7 +9804,7 @@
         <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F53">
         <v>0.34392841970012539</v>
@@ -9846,7 +9849,7 @@
         <v>0.56284693597142077</v>
       </c>
       <c r="T53" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="U53">
         <v>33.31</v>
@@ -9858,7 +9861,7 @@
         <v>67</v>
       </c>
       <c r="X53" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Y53">
         <v>0.5134533739232523</v>
@@ -9920,7 +9923,7 @@
         <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F54">
         <v>0.41063090838177663</v>
@@ -9965,7 +9968,7 @@
         <v>0.63820222772706015</v>
       </c>
       <c r="T54" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="U54">
         <v>36.409999999999997</v>
@@ -9977,7 +9980,7 @@
         <v>54</v>
       </c>
       <c r="X54" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="Y54">
         <v>0.52180528366251233</v>
@@ -10039,7 +10042,7 @@
         <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F55">
         <v>0.36272869289238235</v>
@@ -10084,7 +10087,7 @@
         <v>0.80832872539097955</v>
       </c>
       <c r="T55" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="U55">
         <v>276.60000000000002</v>
@@ -10096,7 +10099,7 @@
         <v>105</v>
       </c>
       <c r="X55" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="Y55">
         <v>0.50822791439244941</v>
@@ -10158,7 +10161,7 @@
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F56">
         <v>0.23958581648897548</v>
@@ -10203,7 +10206,7 @@
         <v>0.56248714857656623</v>
       </c>
       <c r="T56" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U56">
         <v>458.05</v>
@@ -10215,7 +10218,7 @@
         <v>108</v>
       </c>
       <c r="X56" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Y56">
         <v>0.48774394510172864</v>
@@ -10277,7 +10280,7 @@
         <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F57">
         <v>0.31404799589339949</v>
@@ -10322,7 +10325,7 @@
         <v>0.61665993976838773</v>
       </c>
       <c r="T57" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="U57">
         <v>95.67</v>
@@ -10334,7 +10337,7 @@
         <v>119</v>
       </c>
       <c r="X57" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="Y57">
         <v>0.62613348797975543</v>
@@ -10396,7 +10399,7 @@
         <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F58">
         <v>0.36828922080027521</v>
@@ -10441,7 +10444,7 @@
         <v>0.65358596430917315</v>
       </c>
       <c r="T58" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="U58">
         <v>53.44</v>
@@ -10453,7 +10456,7 @@
         <v>23</v>
       </c>
       <c r="X58" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Y58">
         <v>0.54001000962951695</v>
@@ -10515,7 +10518,7 @@
         <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F59">
         <v>0.50211259514731255</v>
@@ -10557,7 +10560,7 @@
         <v>1.169482362131806</v>
       </c>
       <c r="T59" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="U59">
         <v>141.66</v>
@@ -10569,7 +10572,7 @@
         <v>60</v>
       </c>
       <c r="X59" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Y59">
         <v>0.56744186046511624</v>
@@ -10634,7 +10637,7 @@
         <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F60">
         <v>0.6304526561474213</v>
@@ -10679,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="U60">
         <v>69.349999999999994</v>
@@ -10691,7 +10694,7 @@
         <v>59</v>
       </c>
       <c r="X60" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Y60">
         <v>0.49689015300789885</v>
@@ -10756,7 +10759,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F61">
         <v>0.28984659716925165</v>
@@ -10801,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="U61">
         <v>45.99</v>
@@ -10813,7 +10816,7 @@
         <v>73</v>
       </c>
       <c r="X61" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Y61">
         <v>0.64362681937485089</v>
@@ -10878,7 +10881,7 @@
         <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F62">
         <v>0.44620148909534163</v>
@@ -10923,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="U62">
         <v>26.38</v>
@@ -10935,7 +10938,7 @@
         <v>48</v>
       </c>
       <c r="X62" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Y62">
         <v>0.61615452346719279</v>
@@ -10997,7 +11000,7 @@
         <v>127</v>
       </c>
       <c r="E63" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F63">
         <v>0.37003280248650949</v>
@@ -11039,7 +11042,7 @@
         <v>0.91417797706094928</v>
       </c>
       <c r="T63" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="U63">
         <v>121.05</v>
@@ -11051,7 +11054,7 @@
         <v>37</v>
       </c>
       <c r="X63" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Y63">
         <v>0.5495173668548281</v>
@@ -11116,7 +11119,7 @@
         <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F64">
         <v>0.30003622233930455</v>
@@ -11161,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="U64">
         <v>47.31</v>
@@ -11173,7 +11176,7 @@
         <v>51</v>
       </c>
       <c r="X64" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Y64">
         <v>0.53970160091041741</v>
@@ -11238,7 +11241,7 @@
         <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F65">
         <v>0.41870880281883394</v>
@@ -11283,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="U65">
         <v>27.68</v>
@@ -11295,7 +11298,7 @@
         <v>30</v>
       </c>
       <c r="X65" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Y65">
         <v>0.51727383845905284</v>
@@ -11360,7 +11363,7 @@
         <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F66">
         <v>0.28366574890269997</v>
@@ -11405,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="U66">
         <v>33.17</v>
@@ -11417,7 +11420,7 @@
         <v>47</v>
       </c>
       <c r="X66" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Y66">
         <v>0.53172824608783931</v>
@@ -11482,7 +11485,7 @@
         <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F67">
         <v>0.54211391018619937</v>
@@ -11527,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="U67">
         <v>12.86</v>
@@ -11539,7 +11542,7 @@
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Y67">
         <v>0.65273506295507711</v>
@@ -11601,7 +11604,7 @@
         <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F68">
         <v>0.41060153783640169</v>
@@ -11646,7 +11649,7 @@
         <v>0.85532633866297136</v>
       </c>
       <c r="T68" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="U68">
         <v>135.80000000000001</v>
@@ -11658,7 +11661,7 @@
         <v>83</v>
       </c>
       <c r="X68" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Y68">
         <v>0.54040024269704878</v>
@@ -11720,7 +11723,7 @@
         <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F69">
         <v>0.48950417127211188</v>
@@ -11762,7 +11765,7 @@
         <v>0.93667733902525796</v>
       </c>
       <c r="T69" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U69">
         <v>154.22999999999999</v>
@@ -11774,7 +11777,7 @@
         <v>81</v>
       </c>
       <c r="X69" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Y69">
         <v>0.56599052947451634</v>
@@ -11839,7 +11842,7 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F70">
         <v>0.79109700036379271</v>
@@ -11884,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="U70">
         <v>91.51</v>
@@ -11896,7 +11899,7 @@
         <v>90</v>
       </c>
       <c r="X70" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="Y70">
         <v>0.56173037798479497</v>
@@ -11961,7 +11964,7 @@
         <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F71">
         <v>0.23419673799634397</v>
@@ -12006,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="U71">
         <v>57.99</v>
@@ -12018,7 +12021,7 @@
         <v>65</v>
       </c>
       <c r="X71" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="Y71">
         <v>0.56970637469376617</v>
@@ -12080,7 +12083,7 @@
         <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F72">
         <v>0.53185545927940459</v>
@@ -12125,7 +12128,7 @@
         <v>1.1116023865331344</v>
       </c>
       <c r="T72" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="U72">
         <v>553.39</v>
@@ -12137,7 +12140,7 @@
         <v>152</v>
       </c>
       <c r="X72" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="Y72">
         <v>0.62501292524040952</v>
@@ -12199,7 +12202,7 @@
         <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F73">
         <v>0.47782033337109736</v>
@@ -12241,7 +12244,7 @@
         <v>0.90779500945749003</v>
       </c>
       <c r="T73" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="U73">
         <v>58.5</v>
@@ -12253,7 +12256,7 @@
         <v>39</v>
       </c>
       <c r="X73" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="Y73">
         <v>0.50443617559882226</v>
@@ -12318,7 +12321,7 @@
         <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F74">
         <v>0.55791335962733923</v>
@@ -12363,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="U74">
         <v>21.93</v>
@@ -12375,7 +12378,7 @@
         <v>27</v>
       </c>
       <c r="X74" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Y74">
         <v>0.46632418548060023</v>
@@ -12440,7 +12443,7 @@
         <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F75">
         <v>0.37467339456444942</v>
@@ -12485,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="U75">
         <v>36.53</v>
@@ -12497,7 +12500,7 @@
         <v>61</v>
       </c>
       <c r="X75" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="Y75">
         <v>0.550158942975153</v>
@@ -12559,7 +12562,7 @@
         <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F76">
         <v>0.39265891915920492</v>
@@ -12604,7 +12607,7 @@
         <v>0.85041763341067289</v>
       </c>
       <c r="T76" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="U76">
         <v>310.33999999999997</v>
@@ -12616,7 +12619,7 @@
         <v>126</v>
       </c>
       <c r="X76" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="Y76">
         <v>0.55240623196768612</v>
@@ -12678,7 +12681,7 @@
         <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F77">
         <v>0.27033204607716937</v>
@@ -12723,7 +12726,7 @@
         <v>0.62593470166476906</v>
       </c>
       <c r="T77" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="U77">
         <v>877.69</v>
@@ -12735,7 +12738,7 @@
         <v>183</v>
       </c>
       <c r="X77" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="Y77">
         <v>0.66260726905603229</v>
@@ -12797,7 +12800,7 @@
         <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F78">
         <v>0.42316942811330838</v>
@@ -12842,7 +12845,7 @@
         <v>0.88493601656666487</v>
       </c>
       <c r="T78" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="U78">
         <v>608.37</v>
@@ -12854,7 +12857,7 @@
         <v>170</v>
       </c>
       <c r="X78" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Y78">
         <v>0.62413528055342049</v>
@@ -12916,7 +12919,7 @@
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F79">
         <v>0.36194125756478257</v>
@@ -12961,7 +12964,7 @@
         <v>0.80098860949924777</v>
       </c>
       <c r="T79" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="U79">
         <v>676.32</v>
@@ -12973,7 +12976,7 @@
         <v>222</v>
       </c>
       <c r="X79" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Y79">
         <v>0.6787498612190519</v>
@@ -13035,7 +13038,7 @@
         <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F80">
         <v>0.31252197237015145</v>
@@ -13080,7 +13083,7 @@
         <v>0.53353187510164257</v>
       </c>
       <c r="T80" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U80">
         <v>42.74</v>
@@ -13092,7 +13095,7 @@
         <v>72</v>
       </c>
       <c r="X80" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Y80">
         <v>0.56477602846293617</v>
@@ -13154,7 +13157,7 @@
         <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F81">
         <v>0.32512881978568164</v>
@@ -13196,7 +13199,7 @@
         <v>0.78502453771326974</v>
       </c>
       <c r="T81" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="U81">
         <v>591.34</v>
@@ -13208,7 +13211,7 @@
         <v>103</v>
       </c>
       <c r="X81" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Y81">
         <v>0.49108492772575846</v>
@@ -13273,7 +13276,7 @@
         <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F82">
         <v>0.3454892784880238</v>
@@ -13318,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="U82">
         <v>81.7</v>
@@ -13330,7 +13333,7 @@
         <v>71</v>
       </c>
       <c r="X82" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Y82">
         <v>0.48179467468027115</v>
@@ -13395,7 +13398,7 @@
         <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F83">
         <v>0.20148733874312696</v>
@@ -13440,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="U83">
         <v>42.1</v>
@@ -13452,7 +13455,7 @@
         <v>42</v>
       </c>
       <c r="X83" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="Y83">
         <v>0.43987831687153606</v>
@@ -13517,7 +13520,7 @@
         <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F84">
         <v>0.46870189840944076</v>
@@ -13562,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="U84">
         <v>467.6</v>
@@ -13574,7 +13577,7 @@
         <v>139</v>
       </c>
       <c r="X84" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="Y84">
         <v>0.57158517868888403</v>
@@ -13636,7 +13639,7 @@
         <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F85">
         <v>0.33643038655133656</v>
@@ -13681,7 +13684,7 @@
         <v>0.55927708330229298</v>
       </c>
       <c r="T85" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="U85">
         <v>53.99</v>
@@ -13693,7 +13696,7 @@
         <v>93</v>
       </c>
       <c r="X85" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="Y85">
         <v>0.49597940919184441</v>
@@ -13755,7 +13758,7 @@
         <v>174</v>
       </c>
       <c r="E86" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F86">
         <v>0.26328707148480046</v>
@@ -13800,7 +13803,7 @@
         <v>0.50243034036916867</v>
       </c>
       <c r="T86" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="U86">
         <v>81.540000000000006</v>
@@ -13812,7 +13815,7 @@
         <v>69</v>
       </c>
       <c r="X86" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Y86">
         <v>0.55964889620199143</v>
@@ -13874,7 +13877,7 @@
         <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F87">
         <v>0.56253514589451326</v>
@@ -13919,7 +13922,7 @@
         <v>1.1509569722262196</v>
       </c>
       <c r="T87" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="U87">
         <v>461.38</v>
@@ -13931,7 +13934,7 @@
         <v>146</v>
       </c>
       <c r="X87" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="Y87">
         <v>0.57056884253431639</v>
@@ -13993,7 +13996,7 @@
         <v>178</v>
       </c>
       <c r="E88" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F88">
         <v>0.40204473030136711</v>
@@ -14038,7 +14041,7 @@
         <v>0.79914292472810688</v>
       </c>
       <c r="T88" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="U88">
         <v>672.83</v>
@@ -14050,7 +14053,7 @@
         <v>129</v>
       </c>
       <c r="X88" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="Y88">
         <v>0.53474058645947908</v>
@@ -14112,7 +14115,7 @@
         <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F89">
         <v>0.41911781794648556</v>
@@ -14157,7 +14160,7 @@
         <v>0.9059976224620726</v>
       </c>
       <c r="T89" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="U89">
         <v>458.08</v>
@@ -14169,7 +14172,7 @@
         <v>114</v>
       </c>
       <c r="X89" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="Y89">
         <v>0.58957712784670591</v>
@@ -14231,7 +14234,7 @@
         <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F90">
         <v>0.6534134492457172</v>
@@ -14276,7 +14279,7 @@
         <v>1.3511155678114817</v>
       </c>
       <c r="T90" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="U90">
         <v>826.57</v>
@@ -14288,7 +14291,7 @@
         <v>171</v>
       </c>
       <c r="X90" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Y90">
         <v>0.63858882822343555</v>
@@ -14350,7 +14353,7 @@
         <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F91">
         <v>0.26769800486556183</v>
@@ -14395,7 +14398,7 @@
         <v>0.60759030090364785</v>
       </c>
       <c r="T91" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="U91">
         <v>93.03</v>
@@ -14407,7 +14410,7 @@
         <v>89</v>
       </c>
       <c r="X91" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="Y91">
         <v>0.55931781401717917</v>
@@ -14469,7 +14472,7 @@
         <v>186</v>
       </c>
       <c r="E92" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F92">
         <v>0.55839387893603165</v>
@@ -14514,7 +14517,7 @@
         <v>1.0826574209169399</v>
       </c>
       <c r="T92" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="U92">
         <v>693.92</v>
@@ -14526,7 +14529,7 @@
         <v>113</v>
       </c>
       <c r="X92" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="Y92">
         <v>0.51872955314396141</v>
@@ -14588,7 +14591,7 @@
         <v>188</v>
       </c>
       <c r="E93" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F93">
         <v>0.27636227307464922</v>
@@ -14633,7 +14636,7 @@
         <v>0.84407000054179981</v>
       </c>
       <c r="T93" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="U93">
         <v>411.43</v>
@@ -14645,7 +14648,7 @@
         <v>174</v>
       </c>
       <c r="X93" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="Y93">
         <v>0.69263664785999213</v>
@@ -14707,7 +14710,7 @@
         <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F94">
         <v>0.28219920502489382</v>
@@ -14752,7 +14755,7 @@
         <v>0.50474023511566168</v>
       </c>
       <c r="T94" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="U94">
         <v>45.57</v>
@@ -14764,7 +14767,7 @@
         <v>62</v>
       </c>
       <c r="X94" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="Y94">
         <v>0.53813186426358772</v>
@@ -14826,7 +14829,7 @@
         <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F95">
         <v>0.30192311001526589</v>
@@ -14871,7 +14874,7 @@
         <v>0.55489305763284802</v>
       </c>
       <c r="T95" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="U95">
         <v>24.84</v>
@@ -14883,7 +14886,7 @@
         <v>16</v>
       </c>
       <c r="X95" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Y95">
         <v>0.6210303834039832</v>
@@ -14945,7 +14948,7 @@
         <v>195</v>
       </c>
       <c r="E96" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F96">
         <v>0.44476749790807885</v>
@@ -14990,7 +14993,7 @@
         <v>1.0196980854197348</v>
       </c>
       <c r="T96" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="U96">
         <v>57.05</v>
@@ -15002,7 +15005,7 @@
         <v>40</v>
       </c>
       <c r="X96" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Y96">
         <v>0.56293239353778068</v>
@@ -15064,7 +15067,7 @@
         <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F97">
         <v>0.55441534762895917</v>
@@ -15109,7 +15112,7 @@
         <v>1.6336620349619004</v>
       </c>
       <c r="T97" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="U97">
         <v>7.19</v>
@@ -15121,7 +15124,7 @@
         <v>45</v>
       </c>
       <c r="X97" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Y97">
         <v>0.60287707061900608</v>
@@ -15183,7 +15186,7 @@
         <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F98">
         <v>0.32689738819730707</v>
@@ -15228,7 +15231,7 @@
         <v>0.58643572092237517</v>
       </c>
       <c r="T98" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="U98">
         <v>32</v>
@@ -15240,7 +15243,7 @@
         <v>22</v>
       </c>
       <c r="X98" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="Y98">
         <v>0.55572970102545327</v>
@@ -15302,7 +15305,7 @@
         <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F99">
         <v>0.32544021957569458</v>
@@ -15347,7 +15350,7 @@
         <v>0.80196324465362367</v>
       </c>
       <c r="T99" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="U99">
         <v>116.9</v>
@@ -15359,7 +15362,7 @@
         <v>76</v>
       </c>
       <c r="X99" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Y99">
         <v>0.5063329582681948</v>
@@ -15421,7 +15424,7 @@
         <v>203</v>
       </c>
       <c r="E100" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F100">
         <v>0.27440847750598829</v>
@@ -15466,7 +15469,7 @@
         <v>0.60979563296570571</v>
       </c>
       <c r="T100" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="U100">
         <v>55.95</v>
@@ -15478,7 +15481,7 @@
         <v>58</v>
       </c>
       <c r="X100" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="Y100">
         <v>0.48918982121218563</v>
@@ -15540,7 +15543,7 @@
         <v>205</v>
       </c>
       <c r="E101" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F101">
         <v>0.33532640658694374</v>
@@ -15585,7 +15588,7 @@
         <v>0.42506325346033635</v>
       </c>
       <c r="T101" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="U101">
         <v>172.48</v>
@@ -15597,7 +15600,7 @@
         <v>191</v>
       </c>
       <c r="X101" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="Y101">
         <v>0.75657142857142856</v>
@@ -15659,7 +15662,7 @@
         <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F102">
         <v>0.65133433367457128</v>
@@ -15704,7 +15707,7 @@
         <v>1.3363576349509962</v>
       </c>
       <c r="T102" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="U102">
         <v>140.19</v>
@@ -15716,7 +15719,7 @@
         <v>118</v>
       </c>
       <c r="X102" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Y102">
         <v>0.65196490402393514</v>
@@ -15778,7 +15781,7 @@
         <v>87</v>
       </c>
       <c r="E103" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F103">
         <v>1.71253318910414</v>
@@ -15811,7 +15814,7 @@
         <v>3.6767212628770474</v>
       </c>
       <c r="T103" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="U103">
         <v>2.82</v>
@@ -15823,7 +15826,7 @@
         <v>25</v>
       </c>
       <c r="X103" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="Y103">
         <v>0.7738931148819973</v>
@@ -15885,7 +15888,7 @@
         <v>201</v>
       </c>
       <c r="E104" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F104">
         <v>0.41771744176132325</v>
@@ -15918,7 +15921,7 @@
         <v>1.0167518539309244</v>
       </c>
       <c r="T104" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="U104">
         <v>13.96</v>
@@ -15930,7 +15933,7 @@
         <v>53</v>
       </c>
       <c r="X104" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="Y104">
         <v>0.68559700387211442</v>
@@ -15992,7 +15995,7 @@
         <v>197</v>
       </c>
       <c r="E105" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F105">
         <v>0.85493415426714559</v>
@@ -16025,7 +16028,7 @@
         <v>1.551640175853906</v>
       </c>
       <c r="T105" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="U105">
         <v>9.74</v>
@@ -16037,7 +16040,7 @@
         <v>41</v>
       </c>
       <c r="X105" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Y105">
         <v>0.69981898632341111</v>
@@ -16099,7 +16102,7 @@
         <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F106">
         <v>0.40101340101340099</v>
@@ -16132,7 +16135,7 @@
         <v>0.96495637195380224</v>
       </c>
       <c r="T106" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="U106">
         <v>14.19</v>
@@ -16144,7 +16147,7 @@
         <v>49</v>
       </c>
       <c r="X106" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="Y106">
         <v>0.6862829943747295</v>
@@ -16206,7 +16209,7 @@
         <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F107">
         <v>0.47624623336756688</v>
@@ -16239,7 +16242,7 @@
         <v>0.84238724551092636</v>
       </c>
       <c r="T107" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="U107">
         <v>29.68</v>
@@ -16251,7 +16254,7 @@
         <v>33</v>
       </c>
       <c r="X107" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="Y107">
         <v>0.66102288278539834</v>
@@ -16313,7 +16316,7 @@
         <v>215</v>
       </c>
       <c r="E108" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F108">
         <v>0.32831794748831078</v>
@@ -16346,7 +16349,7 @@
         <v>0.58720812399330113</v>
       </c>
       <c r="T108" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="U108">
         <v>16.63</v>
@@ -16358,7 +16361,7 @@
         <v>17</v>
       </c>
       <c r="X108" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="Y108">
         <v>0.56910001603576921</v>
@@ -16420,7 +16423,7 @@
         <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F109">
         <v>0.30938017596377393</v>
@@ -16453,7 +16456,7 @@
         <v>0.73775967321515212</v>
       </c>
       <c r="T109" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U109">
         <v>26.81</v>
@@ -16465,7 +16468,7 @@
         <v>36</v>
       </c>
       <c r="X109" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="Y109">
         <v>0.60663622801862482</v>
@@ -16527,7 +16530,7 @@
         <v>219</v>
       </c>
       <c r="E110" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F110">
         <v>0.20937673998999176</v>
@@ -16560,7 +16563,7 @@
         <v>0.40040265160815125</v>
       </c>
       <c r="T110" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="U110">
         <v>39.36</v>
@@ -16572,7 +16575,7 @@
         <v>56</v>
       </c>
       <c r="X110" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="Y110">
         <v>0.57261693231141875</v>
@@ -16634,7 +16637,7 @@
         <v>221</v>
       </c>
       <c r="E111" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F111">
         <v>0.34367170126485475</v>
@@ -16667,7 +16670,7 @@
         <v>0.70725498515061513</v>
       </c>
       <c r="T111" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="U111">
         <v>51.47</v>
@@ -16679,7 +16682,7 @@
         <v>50</v>
       </c>
       <c r="X111" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="Y111">
         <v>0.57825651113086574</v>
@@ -16741,7 +16744,7 @@
         <v>223</v>
       </c>
       <c r="E112" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F112">
         <v>0.3599745601017596</v>
@@ -16774,7 +16777,7 @@
         <v>0.70759548611111112</v>
       </c>
       <c r="T112" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="U112">
         <v>41.75</v>
@@ -16786,7 +16789,7 @@
         <v>55</v>
       </c>
       <c r="X112" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Y112">
         <v>0.60518565841345029</v>
@@ -16848,7 +16851,7 @@
         <v>225</v>
       </c>
       <c r="E113" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F113">
         <v>0.40650583902106935</v>
@@ -16881,7 +16884,7 @@
         <v>0.80665834480806109</v>
       </c>
       <c r="T113" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="U113">
         <v>65.27</v>
@@ -16893,7 +16896,7 @@
         <v>88</v>
       </c>
       <c r="X113" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="Y113">
         <v>0.64883794031551445</v>
@@ -16955,7 +16958,7 @@
         <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F114">
         <v>0.81976074808345734</v>
@@ -16988,7 +16991,7 @@
         <v>2.1027897465858469</v>
       </c>
       <c r="T114" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="U114">
         <v>181.48</v>
@@ -17000,7 +17003,7 @@
         <v>124</v>
       </c>
       <c r="X114" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="Y114">
         <v>0.5318631267517907</v>
@@ -17062,7 +17065,7 @@
         <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F115">
         <v>0.44355007368426175</v>
@@ -17095,7 +17098,7 @@
         <v>1.0620396249535322</v>
       </c>
       <c r="T115" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="U115">
         <v>12.1</v>
@@ -17107,7 +17110,7 @@
         <v>14</v>
       </c>
       <c r="X115" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="Y115">
         <v>0.60287751315651295</v>
@@ -17169,7 +17172,7 @@
         <v>230</v>
       </c>
       <c r="E116" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F116">
         <v>0.32774813051377411</v>
@@ -17202,7 +17205,7 @@
         <v>0.53626413180412624</v>
       </c>
       <c r="T116" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="U116">
         <v>10.210000000000001</v>
@@ -17214,7 +17217,7 @@
         <v>12</v>
       </c>
       <c r="X116" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="Y116">
         <v>0.66543676662320728</v>
@@ -17276,7 +17279,7 @@
         <v>232</v>
       </c>
       <c r="E117" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F117">
         <v>0.59705553271045908</v>
@@ -17309,7 +17312,7 @@
         <v>1.1697354012274939</v>
       </c>
       <c r="T117" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="U117">
         <v>36.090000000000003</v>
@@ -17321,7 +17324,7 @@
         <v>66</v>
       </c>
       <c r="X117" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="Y117">
         <v>0.62645845739870754</v>
@@ -17383,7 +17386,7 @@
         <v>234</v>
       </c>
       <c r="E118" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F118">
         <v>0.35747036109430741</v>
@@ -17416,7 +17419,7 @@
         <v>0.93940753265126553</v>
       </c>
       <c r="T118" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="U118">
         <v>218.32</v>
@@ -17428,7 +17431,7 @@
         <v>123</v>
       </c>
       <c r="X118" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="Y118">
         <v>0.5605100324402259</v>
@@ -17481,7 +17484,7 @@
     </row>
     <row r="119" spans="1:40">
       <c r="A119" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B119" t="s">
         <v>29</v>
@@ -17490,7 +17493,7 @@
         <v>87</v>
       </c>
       <c r="E119" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F119">
         <v>1.2696901529150264</v>
@@ -17523,7 +17526,7 @@
         <v>2.2012722035525685</v>
       </c>
       <c r="T119" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="U119">
         <v>7.06</v>
@@ -17535,7 +17538,7 @@
         <v>34</v>
       </c>
       <c r="X119" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="Y119">
         <v>0.69179715558109467</v>
@@ -17588,7 +17591,7 @@
     </row>
     <row r="120" spans="1:40">
       <c r="A120" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
@@ -17597,7 +17600,7 @@
         <v>197</v>
       </c>
       <c r="E120" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F120">
         <v>0.33707406591793293</v>
@@ -17630,7 +17633,7 @@
         <v>0.74880279392180904</v>
       </c>
       <c r="T120" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="U120">
         <v>182.18</v>
@@ -17642,7 +17645,7 @@
         <v>102</v>
       </c>
       <c r="X120" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="Y120">
         <v>0.61913561091206593</v>
@@ -17695,7 +17698,7 @@
     </row>
     <row r="121" spans="1:40">
       <c r="A121" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B121" t="s">
         <v>29</v>
@@ -17704,7 +17707,7 @@
         <v>201</v>
       </c>
       <c r="E121" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F121">
         <v>0.47418938635733321</v>
@@ -17737,7 +17740,7 @@
         <v>0.98086541376174596</v>
       </c>
       <c r="T121" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="U121">
         <v>17.329999999999998</v>
@@ -17749,7 +17752,7 @@
         <v>38</v>
       </c>
       <c r="X121" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="Y121">
         <v>0.65318433944694121</v>
@@ -17802,7 +17805,7 @@
     </row>
     <row r="122" spans="1:40">
       <c r="A122" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -17811,7 +17814,7 @@
         <v>217</v>
       </c>
       <c r="E122" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F122">
         <v>0.40393702426467015</v>
@@ -17844,7 +17847,7 @@
         <v>0.87424776924673164</v>
       </c>
       <c r="T122" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="U122">
         <v>17.440000000000001</v>
@@ -17856,7 +17859,7 @@
         <v>46</v>
       </c>
       <c r="X122" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="Y122">
         <v>0.71666666666666667</v>
@@ -17909,7 +17912,7 @@
     </row>
     <row r="123" spans="1:40">
       <c r="A123" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B123" t="s">
         <v>29</v>
@@ -17918,7 +17921,7 @@
         <v>219</v>
       </c>
       <c r="E123" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F123">
         <v>0.37959308039651868</v>
@@ -17951,7 +17954,7 @@
         <v>0.70156264533531765</v>
       </c>
       <c r="T123" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="U123">
         <v>94.08</v>
@@ -17963,7 +17966,7 @@
         <v>77</v>
       </c>
       <c r="X123" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="Y123">
         <v>0.57375378652886666</v>
@@ -18016,7 +18019,7 @@
     </row>
     <row r="124" spans="1:40">
       <c r="A124" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -18025,7 +18028,7 @@
         <v>235</v>
       </c>
       <c r="E124" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F124">
         <v>0.346197649182371</v>
@@ -18058,7 +18061,7 @@
         <v>0.67837678544142155</v>
       </c>
       <c r="T124" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="U124">
         <v>76.459999999999994</v>
@@ -18070,7 +18073,7 @@
         <v>70</v>
       </c>
       <c r="X124" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="Y124">
         <v>0.53044514756083105</v>
@@ -18123,7 +18126,7 @@
     </row>
     <row r="125" spans="1:40">
       <c r="A125" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
@@ -18132,7 +18135,7 @@
         <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F125">
         <v>0.38017320130083676</v>
@@ -18165,7 +18168,7 @@
         <v>0.8096363700101662</v>
       </c>
       <c r="T125" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="U125">
         <v>62.34</v>
@@ -18177,7 +18180,7 @@
         <v>44</v>
       </c>
       <c r="X125" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="Y125">
         <v>0.56988356046611088</v>
@@ -18230,7 +18233,7 @@
     </row>
     <row r="126" spans="1:40">
       <c r="A126" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
@@ -18239,7 +18242,7 @@
         <v>237</v>
       </c>
       <c r="E126" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F126">
         <v>0.38789852783939788</v>
@@ -18272,7 +18275,7 @@
         <v>0.82601387929345527</v>
       </c>
       <c r="T126" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="U126">
         <v>426.68</v>
@@ -18284,7 +18287,7 @@
         <v>134</v>
       </c>
       <c r="X126" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Y126">
         <v>0.54029385126295659</v>
@@ -18346,7 +18349,7 @@
         <v>197</v>
       </c>
       <c r="E127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F127">
         <v>0.676672176947691</v>
@@ -18379,7 +18382,7 @@
         <v>1.2448747484762765</v>
       </c>
       <c r="T127" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="U127">
         <v>49.32</v>
@@ -18391,7 +18394,7 @@
         <v>97</v>
       </c>
       <c r="X127" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="Y127">
         <v>0.69144087110660923</v>
@@ -18453,7 +18456,7 @@
         <v>201</v>
       </c>
       <c r="E128" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F128">
         <v>0.50778012032704278</v>
@@ -18486,7 +18489,7 @@
         <v>1.0168743027147638</v>
       </c>
       <c r="T128" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="U128">
         <v>47.78</v>
@@ -18498,7 +18501,7 @@
         <v>63</v>
       </c>
       <c r="X128" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="Y128">
         <v>0.60651830858909539</v>
@@ -18560,7 +18563,7 @@
         <v>217</v>
       </c>
       <c r="E129" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F129">
         <v>0.28252489037076306</v>
@@ -18593,7 +18596,7 @@
         <v>0.49171362740471364</v>
       </c>
       <c r="T129" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="U129">
         <v>60.98</v>
@@ -18605,7 +18608,7 @@
         <v>87</v>
       </c>
       <c r="X129" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="Y129">
         <v>0.59126501182575952</v>
@@ -18667,7 +18670,7 @@
         <v>219</v>
       </c>
       <c r="E130" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F130">
         <v>0.38285977497404627</v>
@@ -18700,7 +18703,7 @@
         <v>0.73781984109087528</v>
       </c>
       <c r="T130" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="U130">
         <v>120.3</v>
@@ -18712,7 +18715,7 @@
         <v>86</v>
       </c>
       <c r="X130" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="Y130">
         <v>0.6080080809418934</v>
@@ -18774,7 +18777,7 @@
         <v>243</v>
       </c>
       <c r="E131" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F131">
         <v>0.38873495658449897</v>
@@ -18807,7 +18810,7 @@
         <v>0.80045759318694587</v>
       </c>
       <c r="T131" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="U131">
         <v>222.86</v>
@@ -18819,7 +18822,7 @@
         <v>104</v>
       </c>
       <c r="X131" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="Y131">
         <v>0.54344879518072287</v>
@@ -18881,7 +18884,7 @@
         <v>197</v>
       </c>
       <c r="E132" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F132">
         <v>0.32337141424632021</v>
@@ -18914,7 +18917,7 @@
         <v>1.0900305876620739</v>
       </c>
       <c r="T132" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="U132">
         <v>136.66</v>
@@ -18926,7 +18929,7 @@
         <v>106</v>
       </c>
       <c r="X132" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Y132">
         <v>0.67264386176802904</v>
@@ -18988,7 +18991,7 @@
         <v>87</v>
       </c>
       <c r="E133" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F133">
         <v>0.41113296413229128</v>
@@ -19021,7 +19024,7 @@
         <v>0.86144870566868603</v>
       </c>
       <c r="T133" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="U133">
         <v>62.14</v>
@@ -19033,7 +19036,7 @@
         <v>84</v>
       </c>
       <c r="X133" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="Y133">
         <v>0.62340946082897419</v>
@@ -19095,7 +19098,7 @@
         <v>201</v>
       </c>
       <c r="E134" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F134">
         <v>0.39276989996751371</v>
@@ -19128,7 +19131,7 @@
         <v>0.89477493204870395</v>
       </c>
       <c r="T134" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="U134">
         <v>95.5</v>
@@ -19140,7 +19143,7 @@
         <v>75</v>
       </c>
       <c r="X134" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Y134">
         <v>0.61037108452699507</v>
@@ -19202,7 +19205,7 @@
         <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F135">
         <v>0.45494513023717897</v>
@@ -19235,7 +19238,7 @@
         <v>1.0116329228414389</v>
       </c>
       <c r="T135" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="U135">
         <v>176.37</v>
@@ -19247,7 +19250,7 @@
         <v>100</v>
       </c>
       <c r="X135" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Y135">
         <v>0.61406878650227126</v>
@@ -19309,7 +19312,7 @@
         <v>250</v>
       </c>
       <c r="E136" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F136">
         <v>0.53035577286416047</v>
@@ -19342,7 +19345,7 @@
         <v>1.3033402987867635</v>
       </c>
       <c r="T136" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="U136">
         <v>68.680000000000007</v>
@@ -19354,7 +19357,7 @@
         <v>96</v>
       </c>
       <c r="X136" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="Y136">
         <v>0.61212682249479289</v>
@@ -19416,7 +19419,7 @@
         <v>87</v>
       </c>
       <c r="E137" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F137">
         <v>0.26497455274160847</v>
@@ -19449,7 +19452,7 @@
         <v>0.63714333908575438</v>
       </c>
       <c r="T137" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="U137">
         <v>37</v>
@@ -19461,7 +19464,7 @@
         <v>68</v>
       </c>
       <c r="X137" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Y137">
         <v>0.56973221718619926</v>
@@ -19523,7 +19526,7 @@
         <v>217</v>
       </c>
       <c r="E138" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F138">
         <v>0.56748520841674455</v>
@@ -19556,7 +19559,7 @@
         <v>0.90550236244093896</v>
       </c>
       <c r="T138" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="U138">
         <v>73.05</v>
@@ -19568,7 +19571,7 @@
         <v>78</v>
       </c>
       <c r="X138" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="Y138">
         <v>0.5810039166392017</v>
@@ -19630,7 +19633,7 @@
         <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F139">
         <v>0.51426204361136818</v>
@@ -19663,7 +19666,7 @@
         <v>0.97098964857915215</v>
       </c>
       <c r="T139" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="U139">
         <v>36.04</v>
@@ -19675,7 +19678,7 @@
         <v>79</v>
       </c>
       <c r="X139" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="Y139">
         <v>0.55518082546127279</v>
@@ -19737,7 +19740,7 @@
         <v>219</v>
       </c>
       <c r="E140" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F140">
         <v>0.45731343283582088</v>
@@ -19770,7 +19773,7 @@
         <v>1.0063153334929267</v>
       </c>
       <c r="T140" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="U140">
         <v>157.33000000000001</v>
@@ -19782,7 +19785,7 @@
         <v>110</v>
       </c>
       <c r="X140" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="Y140">
         <v>0.47315465895749437</v>
@@ -19844,7 +19847,7 @@
         <v>256</v>
       </c>
       <c r="E141" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F141">
         <v>0.48310588659190201</v>
@@ -19877,7 +19880,7 @@
         <v>1.0706454206563847</v>
       </c>
       <c r="T141" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="U141">
         <v>757.37</v>
@@ -19889,7 +19892,7 @@
         <v>155</v>
       </c>
       <c r="X141" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Y141">
         <v>0.57545257727209909</v>
@@ -19951,7 +19954,7 @@
         <v>258</v>
       </c>
       <c r="E142" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F142">
         <v>0.37882615758113902</v>
@@ -19984,7 +19987,7 @@
         <v>0.93310699857953117</v>
       </c>
       <c r="T142" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="U142">
         <v>1116.4100000000001</v>
@@ -19996,7 +19999,7 @@
         <v>157</v>
       </c>
       <c r="X142" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Y142">
         <v>0.62237566720325344</v>
@@ -20058,7 +20061,7 @@
         <v>260</v>
       </c>
       <c r="E143" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F143">
         <v>0.40404065895548547</v>
@@ -20091,7 +20094,7 @@
         <v>0.80203209736410641</v>
       </c>
       <c r="T143" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="U143">
         <v>868.28</v>
@@ -20103,7 +20106,7 @@
         <v>150</v>
       </c>
       <c r="X143" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Y143">
         <v>0.62774057853329956</v>
@@ -20165,7 +20168,7 @@
         <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F144">
         <v>0.40884802139288312</v>
@@ -20198,7 +20201,7 @@
         <v>0.78228776978417269</v>
       </c>
       <c r="T144" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="U144">
         <v>1040.3399999999999</v>
@@ -20210,7 +20213,7 @@
         <v>166</v>
       </c>
       <c r="X144" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Y144">
         <v>0.686347315162396</v>
@@ -20272,7 +20275,7 @@
         <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F145">
         <v>0.36901736669810797</v>
@@ -20305,7 +20308,7 @@
         <v>0.69782683684028979</v>
       </c>
       <c r="T145" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="U145">
         <v>180.21</v>
@@ -20317,7 +20320,7 @@
         <v>144</v>
       </c>
       <c r="X145" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="Y145">
         <v>0.64213001309215267</v>
@@ -20379,7 +20382,7 @@
         <v>266</v>
       </c>
       <c r="E146" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F146">
         <v>0.46873706004140786</v>
@@ -20412,7 +20415,7 @@
         <v>0.74671563780194938</v>
       </c>
       <c r="T146" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="U146">
         <v>303.47000000000003</v>
@@ -20424,7 +20427,7 @@
         <v>184</v>
       </c>
       <c r="X146" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="Y146">
         <v>0.69638437533627462</v>
@@ -20486,7 +20489,7 @@
         <v>268</v>
       </c>
       <c r="E147" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F147">
         <v>0.38441976773756037</v>
@@ -20519,7 +20522,7 @@
         <v>0.65154501171308521</v>
       </c>
       <c r="T147" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="U147">
         <v>105.72</v>
@@ -20531,7 +20534,7 @@
         <v>125</v>
       </c>
       <c r="X147" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Y147">
         <v>0.66549464150094229</v>
@@ -20593,7 +20596,7 @@
         <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F148">
         <v>0.4583365970579481</v>
@@ -20626,7 +20629,7 @@
         <v>0.90570872194322027</v>
       </c>
       <c r="T148" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="U148">
         <v>1187</v>
@@ -20638,7 +20641,7 @@
         <v>232</v>
       </c>
       <c r="X148" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="Y148">
         <v>0.72334546872968408</v>
@@ -20700,7 +20703,7 @@
         <v>272</v>
       </c>
       <c r="E149" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F149">
         <v>0.38445816727251492</v>
@@ -20733,7 +20736,7 @@
         <v>0.98028370973523837</v>
       </c>
       <c r="T149" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="U149">
         <v>1820.14</v>
@@ -20745,7 +20748,7 @@
         <v>247</v>
       </c>
       <c r="X149" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Y149">
         <v>0.69062211113774097</v>
@@ -20807,7 +20810,7 @@
         <v>274</v>
       </c>
       <c r="E150" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F150">
         <v>0.37504829777186277</v>
@@ -20840,7 +20843,7 @@
         <v>1.1234786813895381</v>
       </c>
       <c r="T150" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="U150">
         <v>997.75</v>
@@ -20852,7 +20855,7 @@
         <v>238</v>
       </c>
       <c r="X150" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="Y150">
         <v>0.70784675271460762</v>
@@ -20914,7 +20917,7 @@
         <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F151">
         <v>0.4291915498145274</v>
@@ -20947,7 +20950,7 @@
         <v>0.89568515884305355</v>
       </c>
       <c r="T151" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="U151">
         <v>1127.6099999999999</v>
@@ -20959,7 +20962,7 @@
         <v>251</v>
       </c>
       <c r="X151" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Y151">
         <v>0.74011365633604775</v>
@@ -21021,7 +21024,7 @@
         <v>278</v>
       </c>
       <c r="E152" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F152">
         <v>0.45349461054479834</v>
@@ -21054,7 +21057,7 @@
         <v>1.0999461690292482</v>
       </c>
       <c r="T152" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="U152">
         <v>1463.83</v>
@@ -21066,7 +21069,7 @@
         <v>256</v>
       </c>
       <c r="X152" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Y152">
         <v>0.72466539196940727</v>
@@ -21128,7 +21131,7 @@
         <v>280</v>
       </c>
       <c r="E153" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F153">
         <v>0.5354608934630809</v>
@@ -21161,7 +21164,7 @@
         <v>1.3044795300165228</v>
       </c>
       <c r="T153" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="U153">
         <v>1219.74</v>
@@ -21173,7 +21176,7 @@
         <v>254</v>
       </c>
       <c r="X153" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="Y153">
         <v>0.7331490015360983</v>
@@ -21235,7 +21238,7 @@
         <v>282</v>
       </c>
       <c r="E154" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F154">
         <v>0.30099565407344386</v>
@@ -21268,7 +21271,7 @@
         <v>0.62437960595578279</v>
       </c>
       <c r="T154" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="U154">
         <v>889.46</v>
@@ -21280,7 +21283,7 @@
         <v>235</v>
       </c>
       <c r="X154" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Y154">
         <v>0.61904761904761907</v>
@@ -21342,7 +21345,7 @@
         <v>284</v>
       </c>
       <c r="E155" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F155">
         <v>0.34523858621685155</v>
@@ -21375,7 +21378,7 @@
         <v>0.55692379182156138</v>
       </c>
       <c r="T155" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="U155">
         <v>908.93</v>
@@ -21387,7 +21390,7 @@
         <v>257</v>
       </c>
       <c r="X155" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="Y155">
         <v>0.67350237397716939</v>
@@ -21449,7 +21452,7 @@
         <v>286</v>
       </c>
       <c r="E156" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F156">
         <v>0.3366932725199544</v>
@@ -21482,7 +21485,7 @@
         <v>0.6017775229357798</v>
       </c>
       <c r="T156" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="U156">
         <v>706.57</v>
@@ -21494,7 +21497,7 @@
         <v>253</v>
       </c>
       <c r="X156" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Y156">
         <v>0.63654500645464152</v>
@@ -21556,7 +21559,7 @@
         <v>288</v>
       </c>
       <c r="E157" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F157">
         <v>0.37684636958554069</v>
@@ -21589,7 +21592,7 @@
         <v>0.6196487897484575</v>
       </c>
       <c r="T157" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="U157">
         <v>1645.2</v>
@@ -21601,7 +21604,7 @@
         <v>260</v>
       </c>
       <c r="X157" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Y157">
         <v>0.65509847522236342</v>
@@ -21663,7 +21666,7 @@
         <v>290</v>
       </c>
       <c r="E158" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F158">
         <v>0.44262234396979344</v>
@@ -21696,7 +21699,7 @@
         <v>1.0488731656184487</v>
       </c>
       <c r="T158" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="U158">
         <v>664.28</v>
@@ -21708,7 +21711,7 @@
         <v>246</v>
       </c>
       <c r="X158" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Y158">
         <v>0.73215047342830331</v>
@@ -21770,7 +21773,7 @@
         <v>292</v>
       </c>
       <c r="E159" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F159">
         <v>0.47438093199172199</v>
@@ -21803,7 +21806,7 @@
         <v>0.82979844552759852</v>
       </c>
       <c r="T159" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="U159">
         <v>630.09</v>
@@ -21815,7 +21818,7 @@
         <v>240</v>
       </c>
       <c r="X159" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="Y159">
         <v>0.72492697176241483</v>
@@ -21877,7 +21880,7 @@
         <v>294</v>
       </c>
       <c r="E160" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F160">
         <v>0.39191379680001132</v>
@@ -21910,7 +21913,7 @@
         <v>0.79186885245901639</v>
       </c>
       <c r="T160" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="U160">
         <v>940.33</v>
@@ -21922,7 +21925,7 @@
         <v>121</v>
       </c>
       <c r="X160" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="Y160">
         <v>0.59759479570979079</v>
@@ -21987,7 +21990,7 @@
         <v>296</v>
       </c>
       <c r="E161" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F161">
         <v>0.27333670499349749</v>
@@ -22020,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="T161" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="U161">
         <v>404.4</v>
@@ -22032,7 +22035,7 @@
         <v>147</v>
       </c>
       <c r="X161" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="Y161">
         <v>0.55250166407810075</v>
@@ -22097,7 +22100,7 @@
         <v>298</v>
       </c>
       <c r="E162" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F162">
         <v>0.35950205490456227</v>
@@ -22130,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="T162" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="U162">
         <v>122.63</v>
@@ -22142,7 +22145,7 @@
         <v>109</v>
       </c>
       <c r="X162" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Y162">
         <v>0.62170115703260731</v>
@@ -22207,7 +22210,7 @@
         <v>300</v>
       </c>
       <c r="E163" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F163">
         <v>0.49296705512469613</v>
@@ -22240,7 +22243,7 @@
         <v>0</v>
       </c>
       <c r="T163" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="U163">
         <v>198.34</v>
@@ -22252,7 +22255,7 @@
         <v>112</v>
       </c>
       <c r="X163" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="Y163">
         <v>0.60665212060011542</v>
@@ -22317,7 +22320,7 @@
         <v>302</v>
       </c>
       <c r="E164" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F164">
         <v>0.40306778771444157</v>
@@ -22350,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="T164" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="U164">
         <v>214.96</v>
@@ -22362,7 +22365,7 @@
         <v>120</v>
       </c>
       <c r="X164" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="Y164">
         <v>0.60016606560830821</v>
@@ -22424,7 +22427,7 @@
         <v>304</v>
       </c>
       <c r="E165" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F165">
         <v>0.42150081861965927</v>
@@ -22457,7 +22460,7 @@
         <v>0.81826563188022894</v>
       </c>
       <c r="T165" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="U165">
         <v>984</v>
@@ -22469,7 +22472,7 @@
         <v>162</v>
       </c>
       <c r="X165" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="Y165">
         <v>0.66664876130723449</v>
@@ -22531,7 +22534,7 @@
         <v>306</v>
       </c>
       <c r="E166" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F166">
         <v>0.40290518718442481</v>
@@ -22564,7 +22567,7 @@
         <v>0.74660579970670327</v>
       </c>
       <c r="T166" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="U166">
         <v>883.54</v>
@@ -22576,7 +22579,7 @@
         <v>178</v>
       </c>
       <c r="X166" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Y166">
         <v>0.68817024128686322</v>
@@ -22638,7 +22641,7 @@
         <v>308</v>
       </c>
       <c r="E167" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F167">
         <v>0.40611367416752975</v>
@@ -22671,7 +22674,7 @@
         <v>1.1714579055441479</v>
       </c>
       <c r="T167" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="U167">
         <v>584.29999999999995</v>
@@ -22683,7 +22686,7 @@
         <v>229</v>
       </c>
       <c r="X167" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="Y167">
         <v>0.73626450440374669</v>
@@ -22745,7 +22748,7 @@
         <v>310</v>
       </c>
       <c r="E168" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F168">
         <v>0.3894688608200183</v>
@@ -22778,7 +22781,7 @@
         <v>1.0287239794539065</v>
       </c>
       <c r="T168" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="U168">
         <v>537.12</v>
@@ -22790,7 +22793,7 @@
         <v>202</v>
       </c>
       <c r="X168" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="Y168">
         <v>0.68148255393079482</v>
@@ -22852,7 +22855,7 @@
         <v>312</v>
       </c>
       <c r="E169" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F169">
         <v>0.32672297444381559</v>
@@ -22885,7 +22888,7 @@
         <v>0.85200777202072542</v>
       </c>
       <c r="T169" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="U169">
         <v>845.84</v>
@@ -22897,7 +22900,7 @@
         <v>231</v>
       </c>
       <c r="X169" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="Y169">
         <v>0.72012009149828438</v>
@@ -22959,7 +22962,7 @@
         <v>314</v>
       </c>
       <c r="E170" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F170">
         <v>0.3480245250336807</v>
@@ -22992,7 +22995,7 @@
         <v>0.60103265420039076</v>
       </c>
       <c r="T170" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="U170">
         <v>81.81</v>
@@ -23004,7 +23007,7 @@
         <v>149</v>
       </c>
       <c r="X170" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="Y170">
         <v>0.64382079674175896</v>
@@ -23066,7 +23069,7 @@
         <v>316</v>
       </c>
       <c r="E171" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F171">
         <v>0.58584849090545676</v>
@@ -23099,7 +23102,7 @@
         <v>1.3318032786885245</v>
       </c>
       <c r="T171" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="U171">
         <v>407.24</v>
@@ -23111,7 +23114,7 @@
         <v>164</v>
       </c>
       <c r="X171" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="Y171">
         <v>0.63486813724080415</v>
@@ -23173,7 +23176,7 @@
         <v>318</v>
       </c>
       <c r="E172" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F172">
         <v>0.369893874005917</v>
@@ -23206,7 +23209,7 @@
         <v>1.2551010349926073</v>
       </c>
       <c r="T172" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="U172">
         <v>842.19</v>
@@ -23218,7 +23221,7 @@
         <v>242</v>
       </c>
       <c r="X172" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="Y172">
         <v>0.78400790817727495</v>
@@ -23280,7 +23283,7 @@
         <v>320</v>
       </c>
       <c r="E173" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F173">
         <v>0.76008651797747928</v>
@@ -23313,7 +23316,7 @@
         <v>1.7221486847488627</v>
       </c>
       <c r="T173" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="U173">
         <v>520.26</v>
@@ -23325,7 +23328,7 @@
         <v>172</v>
       </c>
       <c r="X173" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="Y173">
         <v>0.69468543949234052</v>
@@ -23387,7 +23390,7 @@
         <v>322</v>
       </c>
       <c r="E174" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F174">
         <v>0.49966555183946487</v>
@@ -23420,7 +23423,7 @@
         <v>1.0969206232364128</v>
       </c>
       <c r="T174" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="U174">
         <v>781.1</v>
@@ -23432,7 +23435,7 @@
         <v>250</v>
       </c>
       <c r="X174" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="Y174">
         <v>0.74368400469299956</v>
@@ -23494,7 +23497,7 @@
         <v>324</v>
       </c>
       <c r="E175" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F175">
         <v>0.41937557266523529</v>
@@ -23527,7 +23530,7 @@
         <v>0.8412712961163803</v>
       </c>
       <c r="T175" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="U175">
         <v>636.14</v>
@@ -23539,7 +23542,7 @@
         <v>116</v>
       </c>
       <c r="X175" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="Y175">
         <v>0.5967385666667876</v>
@@ -23604,7 +23607,7 @@
         <v>326</v>
       </c>
       <c r="E176" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F176">
         <v>0.42766845137453818</v>
@@ -23637,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="T176" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="U176">
         <v>438.54</v>
@@ -23649,7 +23652,7 @@
         <v>138</v>
       </c>
       <c r="X176" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="Y176">
         <v>0.62062256809338523</v>
@@ -23714,7 +23717,7 @@
         <v>328</v>
       </c>
       <c r="E177" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F177">
         <v>0.41411266185299167</v>
@@ -23747,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="T177" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="U177">
         <v>197.68</v>
@@ -23759,7 +23762,7 @@
         <v>99</v>
       </c>
       <c r="X177" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="Y177">
         <v>0.58051154602878741</v>
@@ -23821,7 +23824,7 @@
         <v>330</v>
       </c>
       <c r="E178" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F178">
         <v>0.44474985724102556</v>
@@ -23854,7 +23857,7 @@
         <v>1.2189424177728272</v>
       </c>
       <c r="T178" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="U178">
         <v>864.2</v>
@@ -23866,7 +23869,7 @@
         <v>189</v>
       </c>
       <c r="X178" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="Y178">
         <v>0.69546193003357526</v>
@@ -23925,7 +23928,7 @@
         <v>332</v>
       </c>
       <c r="E179" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F179">
         <v>0.37354239610290757</v>
@@ -23958,7 +23961,7 @@
         <v>0.87841318907779498</v>
       </c>
       <c r="T179" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="U179">
         <v>569.4</v>
@@ -23970,7 +23973,7 @@
         <v>173</v>
       </c>
       <c r="X179" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="Y179">
         <v>0.68001037319942481</v>
@@ -24032,7 +24035,7 @@
         <v>334</v>
       </c>
       <c r="E180" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F180">
         <v>0.54016041310853669</v>
@@ -24065,7 +24068,7 @@
         <v>1.0098117663510018</v>
       </c>
       <c r="T180" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="U180">
         <v>542.23</v>
@@ -24077,7 +24080,7 @@
         <v>136</v>
       </c>
       <c r="X180" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="Y180">
         <v>0.59064775177327122</v>
@@ -24139,7 +24142,7 @@
         <v>336</v>
       </c>
       <c r="E181" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F181">
         <v>0.38674934171409159</v>
@@ -24172,7 +24175,7 @@
         <v>0.84896029935500816</v>
       </c>
       <c r="T181" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="U181">
         <v>741.19</v>
@@ -24184,7 +24187,7 @@
         <v>159</v>
       </c>
       <c r="X181" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="Y181">
         <v>0.63008314436885871</v>
@@ -24246,7 +24249,7 @@
         <v>338</v>
       </c>
       <c r="E182" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F182">
         <v>0.39502827418553793</v>
@@ -24279,7 +24282,7 @@
         <v>1.0161973073078958</v>
       </c>
       <c r="T182" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="U182">
         <v>554.75</v>
@@ -24291,7 +24294,7 @@
         <v>165</v>
       </c>
       <c r="X182" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="Y182">
         <v>0.68848600889527112</v>
@@ -24350,7 +24353,7 @@
         <v>340</v>
       </c>
       <c r="E183" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F183">
         <v>2.5085280672034901E-2</v>
@@ -24383,7 +24386,7 @@
         <v>0.47269880618435645</v>
       </c>
       <c r="T183" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="U183">
         <v>60.72</v>
@@ -24395,7 +24398,7 @@
         <v>130</v>
       </c>
       <c r="X183" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="Y183">
         <v>0.50974433507299999</v>
@@ -24457,7 +24460,7 @@
         <v>342</v>
       </c>
       <c r="E184" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F184">
         <v>0.46209278066210235</v>
@@ -24490,7 +24493,7 @@
         <v>1.0061369719919044</v>
       </c>
       <c r="T184" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="U184">
         <v>704.16</v>
@@ -24502,7 +24505,7 @@
         <v>160</v>
       </c>
       <c r="X184" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="Y184">
         <v>0.63461121000303911</v>
@@ -24564,7 +24567,7 @@
         <v>344</v>
       </c>
       <c r="E185" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F185">
         <v>0.50522758266300372</v>
@@ -24597,7 +24600,7 @@
         <v>1.6178780412688636</v>
       </c>
       <c r="T185" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="U185">
         <v>577.14</v>
@@ -24609,7 +24612,7 @@
         <v>205</v>
       </c>
       <c r="X185" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="Y185">
         <v>0.72588897966203725</v>
@@ -24671,7 +24674,7 @@
         <v>346</v>
       </c>
       <c r="E186" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F186">
         <v>0.31781987703956321</v>
@@ -24704,7 +24707,7 @@
         <v>0.90375354982096556</v>
       </c>
       <c r="T186" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="U186">
         <v>624.17999999999995</v>
@@ -24716,7 +24719,7 @@
         <v>199</v>
       </c>
       <c r="X186" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="Y186">
         <v>0.72275165890159532</v>
@@ -24778,7 +24781,7 @@
         <v>348</v>
       </c>
       <c r="E187" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F187">
         <v>0.40142284411602863</v>
@@ -24811,7 +24814,7 @@
         <v>1.0519899895051263</v>
       </c>
       <c r="T187" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="U187">
         <v>358.08</v>
@@ -24823,7 +24826,7 @@
         <v>180</v>
       </c>
       <c r="X187" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="Y187">
         <v>0.7358051777095217</v>
@@ -24885,7 +24888,7 @@
         <v>350</v>
       </c>
       <c r="E188" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F188">
         <v>0.39109839139445379</v>
@@ -24918,7 +24921,7 @@
         <v>1.0220762155059133</v>
       </c>
       <c r="T188" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="U188">
         <v>479.21</v>
@@ -24930,7 +24933,7 @@
         <v>221</v>
       </c>
       <c r="X188" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="Y188">
         <v>0.73300325155187707</v>
@@ -24992,7 +24995,7 @@
         <v>352</v>
       </c>
       <c r="E189" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F189">
         <v>0.37231784481978131</v>
@@ -25025,7 +25028,7 @@
         <v>1.1078111642339232</v>
       </c>
       <c r="T189" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="U189">
         <v>443.98</v>
@@ -25037,7 +25040,7 @@
         <v>161</v>
       </c>
       <c r="X189" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="Y189">
         <v>0.66535469531394698</v>
@@ -25099,7 +25102,7 @@
         <v>354</v>
       </c>
       <c r="E190" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F190">
         <v>0.39979733416478291</v>
@@ -25132,7 +25135,7 @@
         <v>1.3260803737509193</v>
       </c>
       <c r="T190" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="U190">
         <v>542.57000000000005</v>
@@ -25144,7 +25147,7 @@
         <v>181</v>
       </c>
       <c r="X190" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="Y190">
         <v>0.69998515219005197</v>
@@ -25206,7 +25209,7 @@
         <v>356</v>
       </c>
       <c r="E191" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F191">
         <v>0.35354957754685828</v>
@@ -25239,7 +25242,7 @@
         <v>0.95126039584810784</v>
       </c>
       <c r="T191" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="U191">
         <v>516.03</v>
@@ -25251,7 +25254,7 @@
         <v>188</v>
       </c>
       <c r="X191" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="Y191">
         <v>0.73224297396707494</v>
@@ -25313,7 +25316,7 @@
         <v>358</v>
       </c>
       <c r="E192" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F192">
         <v>0.36294316759240131</v>
@@ -25346,7 +25349,7 @@
         <v>0.72847469815840893</v>
       </c>
       <c r="T192" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="U192">
         <v>205.53</v>
@@ -25358,7 +25361,7 @@
         <v>91</v>
       </c>
       <c r="X192" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="Y192">
         <v>0.59803965018022809</v>
@@ -25423,7 +25426,7 @@
         <v>360</v>
       </c>
       <c r="E193" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F193">
         <v>0.39187866637404872</v>
@@ -25456,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="T193" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="U193">
         <v>94.61</v>
@@ -25468,7 +25471,7 @@
         <v>85</v>
       </c>
       <c r="X193" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="Y193">
         <v>0.60988254008834353</v>
@@ -25533,7 +25536,7 @@
         <v>362</v>
       </c>
       <c r="E194" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F194">
         <v>0.33255147494003678</v>
@@ -25566,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="T194" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="U194">
         <v>110.92</v>
@@ -25578,7 +25581,7 @@
         <v>95</v>
       </c>
       <c r="X194" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="Y194">
         <v>0.58520707327208088</v>
@@ -25640,7 +25643,7 @@
         <v>364</v>
       </c>
       <c r="E195" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F195">
         <v>0.39683017958298178</v>
@@ -25673,7 +25676,7 @@
         <v>0.8534706745037357</v>
       </c>
       <c r="T195" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="U195">
         <v>396.17</v>
@@ -25685,7 +25688,7 @@
         <v>132</v>
       </c>
       <c r="X195" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="Y195">
         <v>0.63568151533308892</v>
@@ -25747,7 +25750,7 @@
         <v>366</v>
       </c>
       <c r="E196" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F196">
         <v>0.3877789654158208</v>
@@ -25780,7 +25783,7 @@
         <v>0.86589644656734688</v>
       </c>
       <c r="T196" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="U196">
         <v>506.54</v>
@@ -25792,7 +25795,7 @@
         <v>140</v>
       </c>
       <c r="X196" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="Y196">
         <v>0.64691062490583728</v>
@@ -25854,7 +25857,7 @@
         <v>368</v>
       </c>
       <c r="E197" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F197">
         <v>0.37057876308349091</v>
@@ -25887,7 +25890,7 @@
         <v>0.86643492212046258</v>
       </c>
       <c r="T197" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="U197">
         <v>692.86</v>
@@ -25899,7 +25902,7 @@
         <v>175</v>
       </c>
       <c r="X197" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="Y197">
         <v>0.69412660430715689</v>
@@ -25961,7 +25964,7 @@
         <v>370</v>
       </c>
       <c r="E198" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F198">
         <v>0.34107145099122399</v>
@@ -25994,7 +25997,7 @@
         <v>0.92683950387018554</v>
       </c>
       <c r="T198" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="U198">
         <v>752.21</v>
@@ -26006,7 +26009,7 @@
         <v>196</v>
       </c>
       <c r="X198" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="Y198">
         <v>0.68687820097721786</v>
@@ -26068,7 +26071,7 @@
         <v>372</v>
       </c>
       <c r="E199" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F199">
         <v>0.41647966858185587</v>
@@ -26101,7 +26104,7 @@
         <v>1.2375886524822695</v>
       </c>
       <c r="T199" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="U199">
         <v>545.87</v>
@@ -26113,7 +26116,7 @@
         <v>179</v>
       </c>
       <c r="X199" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="Y199">
         <v>0.70579589013459376</v>
@@ -26175,7 +26178,7 @@
         <v>374</v>
       </c>
       <c r="E200" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F200">
         <v>0.54930675243981431</v>
@@ -26208,7 +26211,7 @@
         <v>1.7275175395081852</v>
       </c>
       <c r="T200" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="U200">
         <v>820.98</v>
@@ -26220,7 +26223,7 @@
         <v>193</v>
       </c>
       <c r="X200" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="Y200">
         <v>0.66161707867500197</v>
@@ -26282,7 +26285,7 @@
         <v>376</v>
       </c>
       <c r="E201" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F201">
         <v>0.33198348101519587</v>
@@ -26315,7 +26318,7 @@
         <v>1.0688140556368961</v>
       </c>
       <c r="T201" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="U201">
         <v>789.09</v>
@@ -26327,7 +26330,7 @@
         <v>252</v>
       </c>
       <c r="X201" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="Y201">
         <v>0.73393292111673225</v>
@@ -26389,7 +26392,7 @@
         <v>378</v>
       </c>
       <c r="E202" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F202">
         <v>0.36412974883251292</v>
@@ -26422,7 +26425,7 @@
         <v>0.97094073222787725</v>
       </c>
       <c r="T202" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="U202">
         <v>631.85</v>
@@ -26434,7 +26437,7 @@
         <v>248</v>
       </c>
       <c r="X202" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="Y202">
         <v>0.72920049670455633</v>
@@ -26496,7 +26499,7 @@
         <v>380</v>
       </c>
       <c r="E203" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F203">
         <v>0.29138097648520545</v>
@@ -26529,7 +26532,7 @@
         <v>1.0259617206746257</v>
       </c>
       <c r="T203" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="U203">
         <v>533.26</v>
@@ -26541,7 +26544,7 @@
         <v>245</v>
       </c>
       <c r="X203" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="Y203">
         <v>0.72119791111584786</v>
@@ -26603,7 +26606,7 @@
         <v>382</v>
       </c>
       <c r="E204" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F204">
         <v>0.34229142493543435</v>
@@ -26636,7 +26639,7 @@
         <v>1.0998516320474778</v>
       </c>
       <c r="T204" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="U204">
         <v>597.34</v>
@@ -26648,7 +26651,7 @@
         <v>239</v>
       </c>
       <c r="X204" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="Y204">
         <v>0.74365234375</v>
@@ -26710,7 +26713,7 @@
         <v>384</v>
       </c>
       <c r="E205" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F205">
         <v>0.32031134173461823</v>
@@ -26743,7 +26746,7 @@
         <v>0.97050978067575577</v>
       </c>
       <c r="T205" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="U205">
         <v>495.97</v>
@@ -26755,7 +26758,7 @@
         <v>230</v>
       </c>
       <c r="X205" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="Y205">
         <v>0.71537735039065853</v>
@@ -26817,7 +26820,7 @@
         <v>386</v>
       </c>
       <c r="E206" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F206">
         <v>0.34099824410654911</v>
@@ -26850,7 +26853,7 @@
         <v>0.92915080284721074</v>
       </c>
       <c r="T206" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U206">
         <v>607.85</v>
@@ -26862,7 +26865,7 @@
         <v>203</v>
       </c>
       <c r="X206" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="Y206">
         <v>0.7328598162640354</v>
@@ -26924,7 +26927,7 @@
         <v>388</v>
       </c>
       <c r="E207" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F207">
         <v>0.38092619505872188</v>
@@ -26957,7 +26960,7 @@
         <v>0.91730536506655913</v>
       </c>
       <c r="T207" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="U207">
         <v>493.53</v>
@@ -26969,7 +26972,7 @@
         <v>198</v>
       </c>
       <c r="X207" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="Y207">
         <v>0.72157845286564359</v>
@@ -27031,7 +27034,7 @@
         <v>390</v>
       </c>
       <c r="E208" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F208">
         <v>0.37655943417750398</v>
@@ -27064,7 +27067,7 @@
         <v>0.71557293930175281</v>
       </c>
       <c r="T208" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="U208">
         <v>51.64</v>
@@ -27076,7 +27079,7 @@
         <v>80</v>
       </c>
       <c r="X208" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="Y208">
         <v>0.63379983261115991</v>
@@ -27138,7 +27141,7 @@
         <v>392</v>
       </c>
       <c r="E209" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F209">
         <v>0.44203416507826487</v>
@@ -27171,7 +27174,7 @@
         <v>0.86804873694546103</v>
       </c>
       <c r="T209" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="U209">
         <v>510.09</v>
@@ -27183,7 +27186,7 @@
         <v>141</v>
       </c>
       <c r="X209" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="Y209">
         <v>0.62893137717198855</v>
@@ -27245,7 +27248,7 @@
         <v>394</v>
       </c>
       <c r="E210" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F210">
         <v>0.34948028120530755</v>
@@ -27278,7 +27281,7 @@
         <v>0.62347814942970647</v>
       </c>
       <c r="T210" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="U210">
         <v>910.98</v>
@@ -27290,7 +27293,7 @@
         <v>154</v>
       </c>
       <c r="X210" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="Y210">
         <v>0.59372275501307759</v>
@@ -27352,7 +27355,7 @@
         <v>396</v>
       </c>
       <c r="E211" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F211">
         <v>0.40125609411280855</v>
@@ -27385,7 +27388,7 @@
         <v>2.0953598830836682</v>
       </c>
       <c r="T211" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="U211">
         <v>608.4</v>
@@ -27397,7 +27400,7 @@
         <v>168</v>
       </c>
       <c r="X211" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="Y211">
         <v>0.68593933645380123</v>
@@ -27459,7 +27462,7 @@
         <v>398</v>
       </c>
       <c r="E212" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F212">
         <v>0.48350360296761991</v>
@@ -27492,7 +27495,7 @@
         <v>0.89787988531763996</v>
       </c>
       <c r="T212" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="U212">
         <v>463.13</v>
@@ -27504,7 +27507,7 @@
         <v>153</v>
       </c>
       <c r="X212" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="Y212">
         <v>0.58978044050422496</v>
@@ -27566,7 +27569,7 @@
         <v>400</v>
       </c>
       <c r="E213" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F213">
         <v>0.40066669552794493</v>
@@ -27599,7 +27602,7 @@
         <v>1.2696196800482946</v>
       </c>
       <c r="T213" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="U213">
         <v>455.09</v>
@@ -27611,7 +27614,7 @@
         <v>200</v>
       </c>
       <c r="X213" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="Y213">
         <v>0.70139736054119994</v>
@@ -27673,7 +27676,7 @@
         <v>402</v>
       </c>
       <c r="E214" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F214">
         <v>0.39625579374275782</v>
@@ -27706,7 +27709,7 @@
         <v>1.0408192701572192</v>
       </c>
       <c r="T214" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="U214">
         <v>547.47</v>
@@ -27718,7 +27721,7 @@
         <v>234</v>
       </c>
       <c r="X214" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="Y214">
         <v>0.76113168886437077</v>
@@ -27780,7 +27783,7 @@
         <v>404</v>
       </c>
       <c r="E215" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F215">
         <v>0.3301222085108077</v>
@@ -27813,7 +27816,7 @@
         <v>1.0197942643391522</v>
       </c>
       <c r="T215" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="U215">
         <v>443.15</v>
@@ -27825,7 +27828,7 @@
         <v>227</v>
       </c>
       <c r="X215" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="Y215">
         <v>0.74039422290852941</v>
@@ -27887,7 +27890,7 @@
         <v>406</v>
       </c>
       <c r="E216" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F216">
         <v>0.29717146035277292</v>
@@ -27920,7 +27923,7 @@
         <v>0.94662989699083466</v>
       </c>
       <c r="T216" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="U216">
         <v>807.35</v>
@@ -27932,7 +27935,7 @@
         <v>212</v>
       </c>
       <c r="X216" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="Y216">
         <v>0.78299457994579946</v>
@@ -27994,7 +27997,7 @@
         <v>408</v>
       </c>
       <c r="E217" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F217">
         <v>0.32729248812051359</v>
@@ -28027,7 +28030,7 @@
         <v>1.0071245036206493</v>
       </c>
       <c r="T217" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="U217">
         <v>663.77</v>
@@ -28039,7 +28042,7 @@
         <v>224</v>
       </c>
       <c r="X217" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Y217">
         <v>0.76363229201657146</v>
@@ -28101,7 +28104,7 @@
         <v>410</v>
       </c>
       <c r="E218" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F218">
         <v>0.37894181922745135</v>
@@ -28134,7 +28137,7 @@
         <v>1.1352546345621137</v>
       </c>
       <c r="T218" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="U218">
         <v>786.9</v>
@@ -28146,7 +28149,7 @@
         <v>210</v>
       </c>
       <c r="X218" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Y218">
         <v>0.68235804758710494</v>
@@ -28208,7 +28211,7 @@
         <v>412</v>
       </c>
       <c r="E219" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F219">
         <v>0.37039862674041579</v>
@@ -28241,7 +28244,7 @@
         <v>0.91272727272727272</v>
       </c>
       <c r="T219" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="U219">
         <v>622.47</v>
@@ -28253,7 +28256,7 @@
         <v>225</v>
       </c>
       <c r="X219" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="Y219">
         <v>0.73974763406940058</v>
@@ -28315,7 +28318,7 @@
         <v>414</v>
       </c>
       <c r="E220" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F220">
         <v>0.35292380389840522</v>
@@ -28348,7 +28351,7 @@
         <v>0.92002961865975563</v>
       </c>
       <c r="T220" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="U220">
         <v>500.95</v>
@@ -28360,7 +28363,7 @@
         <v>218</v>
       </c>
       <c r="X220" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="Y220">
         <v>0.74918032786885247</v>
@@ -28422,7 +28425,7 @@
         <v>416</v>
       </c>
       <c r="E221" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F221">
         <v>0.33882091212458287</v>
@@ -28455,7 +28458,7 @@
         <v>0.99374062724131185</v>
       </c>
       <c r="T221" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="U221">
         <v>1015.43</v>
@@ -28467,7 +28470,7 @@
         <v>219</v>
       </c>
       <c r="X221" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y221">
         <v>0.72271020633116323</v>
@@ -28529,7 +28532,7 @@
         <v>418</v>
       </c>
       <c r="E222" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F222">
         <v>0.62826415094339627</v>
@@ -28562,7 +28565,7 @@
         <v>1.751597620096959</v>
       </c>
       <c r="T222" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="U222">
         <v>604.24</v>
@@ -28574,7 +28577,7 @@
         <v>204</v>
       </c>
       <c r="X222" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="Y222">
         <v>0.70859182459420411</v>
@@ -28636,7 +28639,7 @@
         <v>420</v>
       </c>
       <c r="E223" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F223">
         <v>0.29419370524268412</v>
@@ -28669,7 +28672,7 @@
         <v>1.4260166394526086</v>
       </c>
       <c r="T223" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="U223">
         <v>449.74</v>
@@ -28681,7 +28684,7 @@
         <v>167</v>
       </c>
       <c r="X223" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Y223">
         <v>0.65541147412147749</v>
@@ -28743,7 +28746,7 @@
         <v>422</v>
       </c>
       <c r="E224" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F224">
         <v>0.34076930431180091</v>
@@ -28776,7 +28779,7 @@
         <v>1.1096086334676896</v>
       </c>
       <c r="T224" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="U224">
         <v>392.1</v>
@@ -28788,7 +28791,7 @@
         <v>208</v>
       </c>
       <c r="X224" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="Y224">
         <v>0.74715615305067218</v>
@@ -28850,7 +28853,7 @@
         <v>424</v>
       </c>
       <c r="E225" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F225">
         <v>0.36854527661044267</v>
@@ -28883,7 +28886,7 @@
         <v>1.0630442605253689</v>
       </c>
       <c r="T225" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="U225">
         <v>475.01</v>
@@ -28895,7 +28898,7 @@
         <v>195</v>
       </c>
       <c r="X225" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="Y225">
         <v>0.69967860422405881</v>
@@ -28957,7 +28960,7 @@
         <v>426</v>
       </c>
       <c r="E226" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F226">
         <v>0.40979955456570155</v>
@@ -28990,7 +28993,7 @@
         <v>1.300541923829595</v>
       </c>
       <c r="T226" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="U226">
         <v>518.44000000000005</v>
@@ -29002,7 +29005,7 @@
         <v>207</v>
       </c>
       <c r="X226" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Y226">
         <v>0.70053785206176622</v>
@@ -29064,7 +29067,7 @@
         <v>428</v>
       </c>
       <c r="E227" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F227">
         <v>0.31917070874521603</v>
@@ -29097,7 +29100,7 @@
         <v>0.9073112265281662</v>
       </c>
       <c r="T227" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="U227">
         <v>396.44</v>
@@ -29109,7 +29112,7 @@
         <v>186</v>
       </c>
       <c r="X227" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Y227">
         <v>0.72186116605444095</v>
@@ -29171,7 +29174,7 @@
         <v>430</v>
       </c>
       <c r="E228" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F228">
         <v>0.32191962803055463</v>
@@ -29204,7 +29207,7 @@
         <v>0.88293918918918923</v>
       </c>
       <c r="T228" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="U228">
         <v>440.12</v>
@@ -29216,7 +29219,7 @@
         <v>217</v>
       </c>
       <c r="X228" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="Y228">
         <v>0.75044776119402989</v>
@@ -29278,7 +29281,7 @@
         <v>432</v>
       </c>
       <c r="E229" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F229">
         <v>0.27740959140009391</v>
@@ -29311,7 +29314,7 @@
         <v>0.81533477321814252</v>
       </c>
       <c r="T229" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="U229">
         <v>655.78</v>
@@ -29323,7 +29326,7 @@
         <v>226</v>
       </c>
       <c r="X229" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="Y229">
         <v>0.77278700274758094</v>
@@ -29385,7 +29388,7 @@
         <v>434</v>
       </c>
       <c r="E230" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F230">
         <v>0.40842920710125025</v>
@@ -29418,7 +29421,7 @@
         <v>0.92878912309517292</v>
       </c>
       <c r="T230" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="U230">
         <v>1130.01</v>
@@ -29430,7 +29433,7 @@
         <v>148</v>
       </c>
       <c r="X230" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="Y230">
         <v>0.62091304787933999</v>
@@ -29495,7 +29498,7 @@
         <v>217</v>
       </c>
       <c r="E231" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F231">
         <v>0.51651208513630231</v>
@@ -29528,7 +29531,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="U231">
         <v>393.02</v>
@@ -29540,7 +29543,7 @@
         <v>137</v>
       </c>
       <c r="X231" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="Y231">
         <v>0.63344580521536287</v>
@@ -29605,7 +29608,7 @@
         <v>219</v>
       </c>
       <c r="E232" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F232">
         <v>0.31713299018960889</v>
@@ -29638,7 +29641,7 @@
         <v>0</v>
       </c>
       <c r="T232" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="U232">
         <v>734.8</v>
@@ -29650,7 +29653,7 @@
         <v>151</v>
       </c>
       <c r="X232" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="Y232">
         <v>0.6101135190918473</v>
@@ -29712,7 +29715,7 @@
         <v>438</v>
       </c>
       <c r="E233" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F233">
         <v>0.49895603459546833</v>
@@ -29745,7 +29748,7 @@
         <v>1.1222758451453076</v>
       </c>
       <c r="T233" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="U233">
         <v>1324.89</v>
@@ -29757,7 +29760,7 @@
         <v>169</v>
       </c>
       <c r="X233" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="Y233">
         <v>0.67507438402833331</v>
@@ -29819,7 +29822,7 @@
         <v>440</v>
       </c>
       <c r="E234" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F234">
         <v>0.41253237625669825</v>
@@ -29852,7 +29855,7 @@
         <v>1.0741157039959628</v>
       </c>
       <c r="T234" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="U234">
         <v>1009.24</v>
@@ -29864,7 +29867,7 @@
         <v>182</v>
       </c>
       <c r="X234" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="Y234">
         <v>0.66475949367088605</v>
@@ -29926,7 +29929,7 @@
         <v>442</v>
       </c>
       <c r="E235" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F235">
         <v>0.37809645492858368</v>
@@ -29959,7 +29962,7 @@
         <v>1.0365996359538876</v>
       </c>
       <c r="T235" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="U235">
         <v>1521.94</v>
@@ -29971,7 +29974,7 @@
         <v>197</v>
       </c>
       <c r="X235" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="Y235">
         <v>0.69570304790368509</v>
@@ -30033,7 +30036,7 @@
         <v>444</v>
       </c>
       <c r="E236" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F236">
         <v>0.4943415762302657</v>
@@ -30066,7 +30069,7 @@
         <v>0.86331924428375006</v>
       </c>
       <c r="T236" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="U236">
         <v>616.25</v>
@@ -30078,7 +30081,7 @@
         <v>131</v>
       </c>
       <c r="X236" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Y236">
         <v>0.58371038054731328</v>
@@ -30140,7 +30143,7 @@
         <v>446</v>
       </c>
       <c r="E237" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F237">
         <v>0.38263889570191018</v>
@@ -30173,7 +30176,7 @@
         <v>0.85425903896759314</v>
       </c>
       <c r="T237" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="U237">
         <v>669.43</v>
@@ -30185,7 +30188,7 @@
         <v>176</v>
       </c>
       <c r="X237" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="Y237">
         <v>0.6990752914365852</v>
@@ -30247,7 +30250,7 @@
         <v>448</v>
       </c>
       <c r="E238" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F238">
         <v>0.43762354815550597</v>
@@ -30280,7 +30283,7 @@
         <v>1.2224439566287502</v>
       </c>
       <c r="T238" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="U238">
         <v>920.29</v>
@@ -30292,7 +30295,7 @@
         <v>194</v>
       </c>
       <c r="X238" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="Y238">
         <v>0.71582445029213682</v>
@@ -30354,7 +30357,7 @@
         <v>450</v>
       </c>
       <c r="E239" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F239">
         <v>0.33248325093805198</v>
@@ -30387,7 +30390,7 @@
         <v>0.85287801591645962</v>
       </c>
       <c r="T239" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="U239">
         <v>1254.8</v>
@@ -30399,7 +30402,7 @@
         <v>214</v>
       </c>
       <c r="X239" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Y239">
         <v>0.72175583868975457</v>
@@ -30461,7 +30464,7 @@
         <v>452</v>
       </c>
       <c r="E240" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F240">
         <v>0.34073262850483693</v>
@@ -30494,7 +30497,7 @@
         <v>0.87194577268666917</v>
       </c>
       <c r="T240" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="U240">
         <v>911.61</v>
@@ -30506,7 +30509,7 @@
         <v>211</v>
       </c>
       <c r="X240" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Y240">
         <v>0.71439785438607972</v>
@@ -30568,7 +30571,7 @@
         <v>454</v>
       </c>
       <c r="E241" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F241">
         <v>0.40732255216424335</v>
@@ -30601,7 +30604,7 @@
         <v>1.0079753449170983</v>
       </c>
       <c r="T241" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="U241">
         <v>411.74</v>
@@ -30613,7 +30616,7 @@
         <v>133</v>
       </c>
       <c r="X241" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="Y241">
         <v>0.64217623808416646</v>
@@ -30675,7 +30678,7 @@
         <v>456</v>
       </c>
       <c r="E242" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F242">
         <v>0.3676945924696427</v>
@@ -30708,7 +30711,7 @@
         <v>1.2051739518287243</v>
       </c>
       <c r="T242" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="U242">
         <v>614.27</v>
@@ -30720,7 +30723,7 @@
         <v>249</v>
       </c>
       <c r="X242" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="Y242">
         <v>0.78183852321461866</v>
@@ -30782,7 +30785,7 @@
         <v>458</v>
       </c>
       <c r="E243" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F243">
         <v>0.28865369833855614</v>
@@ -30815,7 +30818,7 @@
         <v>0.99206638701440819</v>
       </c>
       <c r="T243" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="U243">
         <v>1175.1400000000001</v>
@@ -30827,7 +30830,7 @@
         <v>244</v>
       </c>
       <c r="X243" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="Y243">
         <v>0.78763630332932544</v>
@@ -30889,7 +30892,7 @@
         <v>460</v>
       </c>
       <c r="E244" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F244">
         <v>0.41150172729120099</v>
@@ -30922,7 +30925,7 @@
         <v>0.94147217235188507</v>
       </c>
       <c r="T244" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="U244">
         <v>846.06</v>
@@ -30934,7 +30937,7 @@
         <v>255</v>
       </c>
       <c r="X244" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="Y244">
         <v>0.77608120788194146</v>
@@ -30996,7 +30999,7 @@
         <v>462</v>
       </c>
       <c r="E245" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F245">
         <v>0.27391304347826084</v>
@@ -31029,7 +31032,7 @@
         <v>0.95675355450236965</v>
       </c>
       <c r="T245" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="U245">
         <v>815.64</v>
@@ -31041,7 +31044,7 @@
         <v>259</v>
       </c>
       <c r="X245" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="Y245">
         <v>0.76895966583996866</v>
@@ -31103,7 +31106,7 @@
         <v>464</v>
       </c>
       <c r="E246" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F246">
         <v>0.35394540383694395</v>
@@ -31136,7 +31139,7 @@
         <v>0.95575572923566032</v>
       </c>
       <c r="T246" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="U246">
         <v>741.14</v>
@@ -31148,7 +31151,7 @@
         <v>237</v>
       </c>
       <c r="X246" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="Y246">
         <v>0.77211385467617422</v>
@@ -31210,7 +31213,7 @@
         <v>466</v>
       </c>
       <c r="E247" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F247">
         <v>0.39086160628713817</v>
@@ -31243,7 +31246,7 @@
         <v>1.0756670649143767</v>
       </c>
       <c r="T247" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="U247">
         <v>693.79</v>
@@ -31255,7 +31258,7 @@
         <v>223</v>
       </c>
       <c r="X247" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Y247">
         <v>0.75049147229158919</v>
@@ -31317,7 +31320,7 @@
         <v>468</v>
       </c>
       <c r="E248" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F248">
         <v>0.64833517951391151</v>
@@ -31350,7 +31353,7 @@
         <v>1.6993946064942211</v>
       </c>
       <c r="T248" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="U248">
         <v>384.1</v>
@@ -31362,7 +31365,7 @@
         <v>209</v>
       </c>
       <c r="X248" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="Y248">
         <v>0.72114387316639506</v>
@@ -31424,7 +31427,7 @@
         <v>470</v>
       </c>
       <c r="E249" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F249">
         <v>0.48764638507748764</v>
@@ -31457,7 +31460,7 @@
         <v>1.7632841656299982</v>
       </c>
       <c r="T249" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="U249">
         <v>616.28</v>
@@ -31469,7 +31472,7 @@
         <v>216</v>
       </c>
       <c r="X249" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Y249">
         <v>0.73075869624760337</v>
@@ -31531,7 +31534,7 @@
         <v>472</v>
       </c>
       <c r="E250" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F250">
         <v>0.53911966480152496</v>
@@ -31564,7 +31567,7 @@
         <v>1.1526442600209301</v>
       </c>
       <c r="T250" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="U250">
         <v>450.93</v>
@@ -31576,7 +31579,7 @@
         <v>158</v>
       </c>
       <c r="X250" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="Y250">
         <v>0.62016415166930283</v>
@@ -31638,7 +31641,7 @@
         <v>474</v>
       </c>
       <c r="E251" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F251">
         <v>0.22663011342256625</v>
@@ -31671,7 +31674,7 @@
         <v>0.64007005253940452</v>
       </c>
       <c r="T251" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="U251">
         <v>661</v>
@@ -31683,7 +31686,7 @@
         <v>206</v>
       </c>
       <c r="X251" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="Y251">
         <v>0.70126034690736661</v>
@@ -31745,7 +31748,7 @@
         <v>476</v>
       </c>
       <c r="E252" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F252">
         <v>0.35203038270522935</v>
@@ -31778,7 +31781,7 @@
         <v>1.0554787152297527</v>
       </c>
       <c r="T252" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="U252">
         <v>1202.26</v>
@@ -31790,7 +31793,7 @@
         <v>258</v>
       </c>
       <c r="X252" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Y252">
         <v>0.76043145046835081</v>
@@ -31852,7 +31855,7 @@
         <v>478</v>
       </c>
       <c r="E253" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F253">
         <v>0.39867754114432324</v>
@@ -31885,7 +31888,7 @@
         <v>0.92515935508061498</v>
       </c>
       <c r="T253" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="U253">
         <v>989.57</v>
@@ -31897,7 +31900,7 @@
         <v>236</v>
       </c>
       <c r="X253" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="Y253">
         <v>0.73156124752384022</v>
@@ -31959,7 +31962,7 @@
         <v>480</v>
       </c>
       <c r="E254" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F254">
         <v>0.50494715538565327</v>
@@ -31992,7 +31995,7 @@
         <v>0.73132780082987547</v>
       </c>
       <c r="T254" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="U254">
         <v>72.87</v>
@@ -32004,7 +32007,7 @@
         <v>187</v>
       </c>
       <c r="X254" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="Y254">
         <v>0.76239067055393583</v>
@@ -32066,7 +32069,7 @@
         <v>482</v>
       </c>
       <c r="E255" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F255">
         <v>0.43603400891336125</v>
@@ -32099,7 +32102,7 @@
         <v>0.87210493635516917</v>
       </c>
       <c r="T255" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="U255">
         <v>747.67</v>
@@ -32111,7 +32114,7 @@
         <v>111</v>
       </c>
       <c r="X255" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="Y255">
         <v>0.56911356935033486</v>
@@ -32164,7 +32167,7 @@
     </row>
     <row r="256" spans="1:40">
       <c r="A256" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B256" t="s">
         <v>40</v>
@@ -32176,7 +32179,7 @@
         <v>483</v>
       </c>
       <c r="E256" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F256">
         <v>0.53391772134497828</v>
@@ -32209,7 +32212,7 @@
         <v>0</v>
       </c>
       <c r="T256" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="U256">
         <v>211.22</v>
@@ -32221,7 +32224,7 @@
         <v>117</v>
       </c>
       <c r="X256" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="Y256">
         <v>0.56584940215358948</v>
@@ -32274,7 +32277,7 @@
     </row>
     <row r="257" spans="1:40">
       <c r="A257" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B257" t="s">
         <v>40</v>
@@ -32286,7 +32289,7 @@
         <v>484</v>
       </c>
       <c r="E257" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F257">
         <v>0.61360718870346598</v>
@@ -32319,7 +32322,7 @@
         <v>0</v>
       </c>
       <c r="T257" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="U257">
         <v>82.09</v>
@@ -32331,7 +32334,7 @@
         <v>92</v>
       </c>
       <c r="X257" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="Y257">
         <v>0.51721225179345298</v>
@@ -32384,7 +32387,7 @@
     </row>
     <row r="258" spans="1:40">
       <c r="A258" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B258" t="s">
         <v>40</v>
@@ -32396,7 +32399,7 @@
         <v>485</v>
       </c>
       <c r="E258" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F258">
         <v>0.3539078974970466</v>
@@ -32429,7 +32432,7 @@
         <v>0</v>
       </c>
       <c r="T258" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="U258">
         <v>240.23</v>
@@ -32441,7 +32444,7 @@
         <v>127</v>
       </c>
       <c r="X258" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="Y258">
         <v>0.62696632344540271</v>
@@ -32494,7 +32497,7 @@
     </row>
     <row r="259" spans="1:40">
       <c r="A259" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B259" t="s">
         <v>40</v>
@@ -32506,7 +32509,7 @@
         <v>486</v>
       </c>
       <c r="E259" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F259">
         <v>0.37257442690086545</v>
@@ -32539,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="T259" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="U259">
         <v>90.08</v>
@@ -32551,7 +32554,7 @@
         <v>98</v>
       </c>
       <c r="X259" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="Y259">
         <v>0.57603789429486174</v>
@@ -32604,7 +32607,7 @@
     </row>
     <row r="260" spans="1:40">
       <c r="A260" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B260" t="s">
         <v>40</v>
@@ -32616,7 +32619,7 @@
         <v>487</v>
       </c>
       <c r="E260" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F260">
         <v>0.23336590885711347</v>
@@ -32649,7 +32652,7 @@
         <v>0</v>
       </c>
       <c r="T260" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="U260">
         <v>120.14</v>
@@ -32661,7 +32664,7 @@
         <v>107</v>
       </c>
       <c r="X260" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="Y260">
         <v>0.56779526727234308</v>
@@ -32723,7 +32726,7 @@
         <v>489</v>
       </c>
       <c r="E261" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F261">
         <v>0.38551194151377138</v>
@@ -32756,7 +32759,7 @@
         <v>0.77854944903818057</v>
       </c>
       <c r="T261" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="U261">
         <v>712.96</v>
@@ -32768,7 +32771,7 @@
         <v>145</v>
       </c>
       <c r="X261" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="Y261">
         <v>0.61981453702441025</v>
@@ -32830,7 +32833,7 @@
         <v>491</v>
       </c>
       <c r="E262" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F262">
         <v>0.35031492556304872</v>
@@ -32863,7 +32866,7 @@
         <v>0.68819618095021595</v>
       </c>
       <c r="T262" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="U262">
         <v>239.8</v>
@@ -32875,7 +32878,7 @@
         <v>142</v>
       </c>
       <c r="X262" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="Y262">
         <v>0.65097287845529972</v>
@@ -32937,7 +32940,7 @@
         <v>493</v>
       </c>
       <c r="E263" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F263">
         <v>0.45052130635376175</v>
@@ -32970,7 +32973,7 @@
         <v>1.0788961128027872</v>
       </c>
       <c r="T263" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="U263">
         <v>398.64</v>
@@ -32982,7 +32985,7 @@
         <v>156</v>
       </c>
       <c r="X263" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="Y263">
         <v>0.65999140524280187</v>
@@ -33044,7 +33047,7 @@
         <v>495</v>
       </c>
       <c r="E264" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F264">
         <v>0.41931046517240228</v>
@@ -33077,7 +33080,7 @@
         <v>0.87799693888811592</v>
       </c>
       <c r="T264" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="U264">
         <v>463.36</v>
@@ -33089,7 +33092,7 @@
         <v>115</v>
       </c>
       <c r="X264" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="Y264">
         <v>0.5382299587016095</v>
@@ -33151,7 +33154,7 @@
         <v>497</v>
       </c>
       <c r="E265" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F265">
         <v>0.3489056305285192</v>
@@ -33184,7 +33187,7 @@
         <v>0.93936477382098171</v>
       </c>
       <c r="T265" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="U265">
         <v>798.64</v>
@@ -33196,7 +33199,7 @@
         <v>185</v>
       </c>
       <c r="X265" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="Y265">
         <v>0.71221815965874469</v>
@@ -33258,7 +33261,7 @@
         <v>499</v>
       </c>
       <c r="E266" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F266">
         <v>0.48788030378825775</v>
@@ -33291,7 +33294,7 @@
         <v>1.0629657630413651</v>
       </c>
       <c r="T266" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="U266">
         <v>402.64</v>
@@ -33303,7 +33306,7 @@
         <v>135</v>
       </c>
       <c r="X266" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="Y266">
         <v>0.56396798731178976</v>
@@ -33365,7 +33368,7 @@
         <v>501</v>
       </c>
       <c r="E267" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F267">
         <v>0.3851796157531594</v>
@@ -33398,7 +33401,7 @@
         <v>0.84423014561682541</v>
       </c>
       <c r="T267" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="U267">
         <v>485.16</v>
@@ -33410,7 +33413,7 @@
         <v>128</v>
       </c>
       <c r="X267" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Y267">
         <v>0.57038570573256675</v>
@@ -33472,7 +33475,7 @@
         <v>503</v>
       </c>
       <c r="E268" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F268">
         <v>0.35536594615092909</v>
@@ -33505,7 +33508,7 @@
         <v>1.0917951702065756</v>
       </c>
       <c r="T268" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="U268">
         <v>482.87</v>
@@ -33517,7 +33520,7 @@
         <v>228</v>
       </c>
       <c r="X268" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="Y268">
         <v>0.77445012580147721</v>
@@ -33579,7 +33582,7 @@
         <v>505</v>
       </c>
       <c r="E269" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F269">
         <v>0.65538000891890169</v>
@@ -33612,7 +33615,7 @@
         <v>1.6295923962712484</v>
       </c>
       <c r="T269" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="U269">
         <v>416.6</v>
@@ -33624,7 +33627,7 @@
         <v>177</v>
       </c>
       <c r="X269" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="Y269">
         <v>0.66550274085755046</v>
@@ -33686,7 +33689,7 @@
         <v>507</v>
       </c>
       <c r="E270" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F270">
         <v>0.43020198995041764</v>
@@ -33719,7 +33722,7 @@
         <v>0.99620181405895691</v>
       </c>
       <c r="T270" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="U270">
         <v>532.86</v>
@@ -33731,7 +33734,7 @@
         <v>192</v>
       </c>
       <c r="X270" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Y270">
         <v>0.73453991378028838</v>
@@ -33793,7 +33796,7 @@
         <v>290</v>
       </c>
       <c r="E271" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F271">
         <v>0.4085002172453292</v>
@@ -33826,7 +33829,7 @@
         <v>1.2030881569939911</v>
       </c>
       <c r="T271" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="U271">
         <v>517.94000000000005</v>
@@ -33838,7 +33841,7 @@
         <v>201</v>
       </c>
       <c r="X271" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="Y271">
         <v>0.71713780117065207</v>
@@ -33900,7 +33903,7 @@
         <v>510</v>
       </c>
       <c r="E272" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F272">
         <v>0.36387236854526572</v>
@@ -33933,7 +33936,7 @@
         <v>0.87828136719168537</v>
       </c>
       <c r="T272" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="U272">
         <v>357.57</v>
@@ -33945,7 +33948,7 @@
         <v>190</v>
       </c>
       <c r="X272" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="Y272">
         <v>0.76339674888467257</v>
@@ -34007,7 +34010,7 @@
         <v>512</v>
       </c>
       <c r="E273" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F273">
         <v>0.32495639401450471</v>
@@ -34040,7 +34043,7 @@
         <v>0.97251282051282051</v>
       </c>
       <c r="T273" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="U273">
         <v>675.62</v>
@@ -34052,7 +34055,7 @@
         <v>220</v>
       </c>
       <c r="X273" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="Y273">
         <v>0.73645484949832773</v>
@@ -34114,7 +34117,7 @@
         <v>514</v>
       </c>
       <c r="E274" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F274">
         <v>0.34774523477452346</v>
@@ -34147,7 +34150,7 @@
         <v>1.157266675040824</v>
       </c>
       <c r="T274" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="U274">
         <v>794.82</v>
@@ -34159,7 +34162,7 @@
         <v>243</v>
       </c>
       <c r="X274" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Y274">
         <v>0.7666389084619819</v>
@@ -34221,7 +34224,7 @@
         <v>516</v>
       </c>
       <c r="E275" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F275">
         <v>0.34365172189733595</v>
@@ -34254,7 +34257,7 @@
         <v>0.89874772556994542</v>
       </c>
       <c r="T275" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="U275">
         <v>725.48</v>
@@ -34266,7 +34269,7 @@
         <v>233</v>
       </c>
       <c r="X275" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="Y275">
         <v>0.74195034848223029</v>
@@ -34328,7 +34331,7 @@
         <v>518</v>
       </c>
       <c r="E276" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F276">
         <v>0.32260540152183143</v>
@@ -34361,7 +34364,7 @@
         <v>0.82241545893719803</v>
       </c>
       <c r="T276" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="U276">
         <v>803.18</v>
@@ -34373,7 +34376,7 @@
         <v>213</v>
       </c>
       <c r="X276" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="Y276">
         <v>0.68644198809615831</v>
@@ -34435,7 +34438,7 @@
         <v>520</v>
       </c>
       <c r="E277" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F277">
         <v>0.28922354691022334</v>
@@ -34468,7 +34471,7 @@
         <v>0.93833459993486046</v>
       </c>
       <c r="T277" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="U277">
         <v>983.46</v>
@@ -34480,7 +34483,7 @@
         <v>241</v>
       </c>
       <c r="X277" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="Y277">
         <v>0.77521227469089826</v>
@@ -34542,7 +34545,7 @@
         <v>522</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F278">
         <v>0.40058391200770438</v>
@@ -34575,7 +34578,7 @@
         <v>0.91290553977686928</v>
       </c>
       <c r="T278" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="U278">
         <v>978.43</v>
@@ -34587,7 +34590,7 @@
         <v>143</v>
       </c>
       <c r="X278" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="Y278">
         <v>0.5817951247005777</v>
@@ -34649,7 +34652,7 @@
         <v>524</v>
       </c>
       <c r="E279" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F279">
         <v>0.35205951653721967</v>
@@ -34682,7 +34685,7 @@
         <v>0.83716921271250155</v>
       </c>
       <c r="T279" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="U279">
         <v>870.72</v>
@@ -34694,7 +34697,7 @@
         <v>163</v>
       </c>
       <c r="X279" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="Y279">
         <v>0.62534115243040489</v>

--- a/files/local_basic.xlsx
+++ b/files/local_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/부동산 기본 파일/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E261D1E-1854-44C2-8B52-331596F977BC}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{61C4DF32-37D9-4B59-BF9A-74EAC33D63E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303CE3FA-189B-4902-9558-F8EE425BD6CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DE99C3E-0403-4715-A30A-516131D8E267}"/>
   </bookViews>
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5545A06-5006-4106-AA61-5F8DE569D734}">
   <dimension ref="A1:AN279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="J280" sqref="J280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8970,6 +8970,9 @@
       <c r="F46">
         <v>0.30988576612604607</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -9090,13 +9093,13 @@
         <v>0.24352689689523493</v>
       </c>
       <c r="G47">
-        <v>102937.06166898372</v>
+        <v>104191</v>
       </c>
       <c r="H47">
-        <v>105634.88087282301</v>
+        <v>108103</v>
       </c>
       <c r="I47">
-        <v>3452120.2899615359</v>
+        <v>3532777.777777778</v>
       </c>
       <c r="J47">
         <v>39</v>
@@ -9212,13 +9215,13 @@
         <v>0.48725134025227101</v>
       </c>
       <c r="G48">
-        <v>122462.25389069853</v>
+        <v>129485</v>
       </c>
       <c r="H48">
-        <v>129832.30432335165</v>
+        <v>128844</v>
       </c>
       <c r="I48">
-        <v>4242885.7622010345</v>
+        <v>4210588.2352941176</v>
       </c>
       <c r="J48">
         <v>16</v>
@@ -9334,13 +9337,13 @@
         <v>0.23892406652759315</v>
       </c>
       <c r="G49">
-        <v>126989.56037880974</v>
+        <v>131065</v>
       </c>
       <c r="H49">
-        <v>125420.19645628678</v>
+        <v>123320</v>
       </c>
       <c r="I49">
-        <v>4098699.2305976069</v>
+        <v>4030065.3594771242</v>
       </c>
       <c r="J49">
         <v>20</v>
@@ -9453,13 +9456,13 @@
         <v>0.498269203261336</v>
       </c>
       <c r="G50">
-        <v>144438.1058772688</v>
+        <v>170130</v>
       </c>
       <c r="H50">
-        <v>157971.46063940259</v>
+        <v>159688</v>
       </c>
       <c r="I50">
-        <v>5162466.0339674046</v>
+        <v>5218562.0915032681</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -9572,13 +9575,13 @@
         <v>0.31891135577909241</v>
       </c>
       <c r="G51">
-        <v>109769.54902783</v>
+        <v>113479</v>
       </c>
       <c r="H51">
-        <v>108211.33582092648</v>
+        <v>111914</v>
       </c>
       <c r="I51">
-        <v>3536318.1640825649</v>
+        <v>3657320.2614379087</v>
       </c>
       <c r="J51">
         <v>34</v>
@@ -9691,13 +9694,13 @@
         <v>0.36645398658718331</v>
       </c>
       <c r="G52">
-        <v>109140.00497820601</v>
+        <v>111484</v>
       </c>
       <c r="H52">
-        <v>92092.27511396115</v>
+        <v>96931</v>
       </c>
       <c r="I52">
-        <v>3009551.4743124559</v>
+        <v>3167679.7385620913</v>
       </c>
       <c r="J52">
         <v>66</v>
@@ -9810,13 +9813,13 @@
         <v>0.34392841970012539</v>
       </c>
       <c r="G53">
-        <v>111572.72688152897</v>
+        <v>115485</v>
       </c>
       <c r="H53">
-        <v>105140.57082639787</v>
+        <v>106690</v>
       </c>
       <c r="I53">
-        <v>3435966.3668757472</v>
+        <v>3486601.3071895423</v>
       </c>
       <c r="J53">
         <v>41</v>
@@ -9929,13 +9932,13 @@
         <v>0.41063090838177663</v>
       </c>
       <c r="G54">
-        <v>112885.41171195758</v>
+        <v>110903</v>
       </c>
       <c r="H54">
-        <v>113056.56622482184</v>
+        <v>113274</v>
       </c>
       <c r="I54">
-        <v>3694659.0269549619</v>
+        <v>3701764.7058823532</v>
       </c>
       <c r="J54">
         <v>29</v>
@@ -10048,13 +10051,13 @@
         <v>0.36272869289238235</v>
       </c>
       <c r="G55">
-        <v>110419.85963658635</v>
+        <v>117056</v>
       </c>
       <c r="H55">
-        <v>104425.28643527535</v>
+        <v>108577</v>
       </c>
       <c r="I55">
-        <v>3412591.0599763184</v>
+        <v>3548267.9738562088</v>
       </c>
       <c r="J55">
         <v>45</v>
@@ -10167,13 +10170,13 @@
         <v>0.23958581648897548</v>
       </c>
       <c r="G56">
-        <v>103035.96812428332</v>
+        <v>108270</v>
       </c>
       <c r="H56">
-        <v>99305.87364968269</v>
+        <v>103102</v>
       </c>
       <c r="I56">
-        <v>3245289.9885517219</v>
+        <v>3369346.4052287587</v>
       </c>
       <c r="J56">
         <v>52</v>
@@ -10286,13 +10289,13 @@
         <v>0.31404799589339949</v>
       </c>
       <c r="G57">
-        <v>78026.169284807009</v>
+        <v>73340</v>
       </c>
       <c r="H57">
-        <v>80280.00383800696</v>
+        <v>85140</v>
       </c>
       <c r="I57">
-        <v>2623529.5371897696</v>
+        <v>2782352.9411764708</v>
       </c>
       <c r="J57">
         <v>76</v>
@@ -10405,13 +10408,13 @@
         <v>0.36828922080027521</v>
       </c>
       <c r="G58">
-        <v>100946.87220490008</v>
+        <v>102551</v>
       </c>
       <c r="H58">
-        <v>99641.848627245796</v>
+        <v>199238</v>
       </c>
       <c r="I58">
-        <v>3256269.5629818887</v>
+        <v>6511045.7516339868</v>
       </c>
       <c r="J58">
         <v>51</v>
@@ -10523,6 +10526,9 @@
       <c r="F59">
         <v>0.50211259514731255</v>
       </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
       <c r="H59">
         <v>0</v>
       </c>
@@ -10643,13 +10649,13 @@
         <v>0.6304526561474213</v>
       </c>
       <c r="G60">
-        <v>157633.63368193561</v>
+        <v>179062</v>
       </c>
       <c r="H60">
-        <v>171946.96299169093</v>
+        <v>177429</v>
       </c>
       <c r="I60">
-        <v>5619181.7971140826</v>
+        <v>5798333.333333334</v>
       </c>
       <c r="J60">
         <v>3</v>
@@ -10765,13 +10771,13 @@
         <v>0.28984659716925165</v>
       </c>
       <c r="G61">
-        <v>83785.065329835998</v>
+        <v>90926</v>
       </c>
       <c r="H61">
-        <v>98106.180715802475</v>
+        <v>103527</v>
       </c>
       <c r="I61">
-        <v>3206084.3371177283</v>
+        <v>3383235.2941176468</v>
       </c>
       <c r="J61">
         <v>54</v>
@@ -10887,13 +10893,13 @@
         <v>0.44620148909534163</v>
       </c>
       <c r="G62">
-        <v>89693.294558926733</v>
+        <v>90171</v>
       </c>
       <c r="H62">
-        <v>85753.155323993444</v>
+        <v>91906</v>
       </c>
       <c r="I62">
-        <v>2802390.6968625309</v>
+        <v>3003464.0522875814</v>
       </c>
       <c r="J62">
         <v>73</v>
@@ -11005,6 +11011,9 @@
       <c r="F63">
         <v>0.37003280248650949</v>
       </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
       <c r="H63">
         <v>0</v>
       </c>
@@ -11125,13 +11134,13 @@
         <v>0.30003622233930455</v>
       </c>
       <c r="G64">
-        <v>98787.432793904271</v>
+        <v>98034</v>
       </c>
       <c r="H64">
-        <v>107724.41194336223</v>
+        <v>107951</v>
       </c>
       <c r="I64">
-        <v>3520405.6190641248</v>
+        <v>3527810.4575163401</v>
       </c>
       <c r="J64">
         <v>35</v>
@@ -11247,13 +11256,13 @@
         <v>0.41870880281883394</v>
       </c>
       <c r="G65">
-        <v>122132.68081901694</v>
+        <v>130544</v>
       </c>
       <c r="H65">
-        <v>156266.06984804952</v>
+        <v>159461</v>
       </c>
       <c r="I65">
-        <v>5106734.3087597881</v>
+        <v>5211143.7908496726</v>
       </c>
       <c r="J65">
         <v>6</v>
@@ -11369,13 +11378,13 @@
         <v>0.28366574890269997</v>
       </c>
       <c r="G66">
-        <v>102141.01422538217</v>
+        <v>99497</v>
       </c>
       <c r="H66">
-        <v>114720.1058502907</v>
+        <v>114366</v>
       </c>
       <c r="I66">
-        <v>3749023.0670029637</v>
+        <v>3737450.9803921566</v>
       </c>
       <c r="J66">
         <v>27</v>
@@ -11491,13 +11500,13 @@
         <v>0.54211391018619937</v>
       </c>
       <c r="G67">
-        <v>88925.764373024736</v>
+        <v>89614</v>
       </c>
       <c r="H67">
-        <v>106667.05695595457</v>
+        <v>108136</v>
       </c>
       <c r="I67">
-        <v>3485851.5345083191</v>
+        <v>3533856.2091503269</v>
       </c>
       <c r="J67">
         <v>38</v>
@@ -11610,13 +11619,13 @@
         <v>0.41060153783640169</v>
       </c>
       <c r="G68">
-        <v>103982.18194228043</v>
+        <v>103153</v>
       </c>
       <c r="H68">
-        <v>94704.600173408966</v>
+        <v>99888</v>
       </c>
       <c r="I68">
-        <v>3094921.5742944106</v>
+        <v>3264313.7254901961</v>
       </c>
       <c r="J68">
         <v>60</v>
@@ -11728,6 +11737,9 @@
       <c r="F69">
         <v>0.48950417127211188</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
       <c r="H69">
         <v>0</v>
       </c>
@@ -11848,13 +11860,13 @@
         <v>0.79109700036379271</v>
       </c>
       <c r="G70">
-        <v>97171.285403588554</v>
+        <v>99809</v>
       </c>
       <c r="H70">
-        <v>98001.952668051832</v>
+        <v>102579</v>
       </c>
       <c r="I70">
-        <v>3202678.1917663999</v>
+        <v>3352254.9019607846</v>
       </c>
       <c r="J70">
         <v>55</v>
@@ -11970,13 +11982,13 @@
         <v>0.23419673799634397</v>
       </c>
       <c r="G71">
-        <v>93604.115082340533</v>
+        <v>90396</v>
       </c>
       <c r="H71">
-        <v>95578.62899660501</v>
+        <v>97949</v>
       </c>
       <c r="I71">
-        <v>3123484.6077321903</v>
+        <v>3200947.7124183006</v>
       </c>
       <c r="J71">
         <v>57</v>
@@ -12089,13 +12101,13 @@
         <v>0.53185545927940459</v>
       </c>
       <c r="G72">
-        <v>89359.433470315373</v>
+        <v>86714</v>
       </c>
       <c r="H72">
-        <v>95240.336087358461</v>
+        <v>99096</v>
       </c>
       <c r="I72">
-        <v>3112429.2839006032</v>
+        <v>3238431.3725490198</v>
       </c>
       <c r="J72">
         <v>58</v>
@@ -12207,6 +12219,9 @@
       <c r="F73">
         <v>0.47782033337109736</v>
       </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73">
         <v>0</v>
       </c>
@@ -12327,13 +12342,13 @@
         <v>0.55791335962733923</v>
       </c>
       <c r="G74">
-        <v>124627.52063249878</v>
+        <v>136363</v>
       </c>
       <c r="H74">
-        <v>127230.16317662317</v>
+        <v>129314</v>
       </c>
       <c r="I74">
-        <v>4157848.4698242866</v>
+        <v>4225947.712418301</v>
       </c>
       <c r="J74">
         <v>19</v>
@@ -12449,13 +12464,13 @@
         <v>0.37467339456444942</v>
       </c>
       <c r="G75">
-        <v>101030.05638835627</v>
+        <v>103535</v>
       </c>
       <c r="H75">
-        <v>100034.69368760225</v>
+        <v>102332</v>
       </c>
       <c r="I75">
-        <v>3269107.6368497466</v>
+        <v>3344183.0065359478</v>
       </c>
       <c r="J75">
         <v>49</v>
@@ -12568,13 +12583,13 @@
         <v>0.39265891915920492</v>
       </c>
       <c r="G76">
-        <v>95028.679190195515</v>
+        <v>91080</v>
       </c>
       <c r="H76">
-        <v>83567.632986143406</v>
+        <v>89245</v>
       </c>
       <c r="I76">
-        <v>2730968.3982399805</v>
+        <v>2916503.2679738561</v>
       </c>
       <c r="J76">
         <v>74</v>
@@ -12687,13 +12702,13 @@
         <v>0.27033204607716937</v>
       </c>
       <c r="G77">
-        <v>93849.321000812008</v>
+        <v>102478</v>
       </c>
       <c r="H77">
-        <v>104807.80021447055</v>
+        <v>105166</v>
       </c>
       <c r="I77">
-        <v>3425091.5102768149</v>
+        <v>3436797.3856209153</v>
       </c>
       <c r="J77">
         <v>42</v>
@@ -12806,13 +12821,13 @@
         <v>0.42316942811330838</v>
       </c>
       <c r="G78">
-        <v>88664.983959098536</v>
+        <v>88337</v>
       </c>
       <c r="H78">
-        <v>91449.21816032374</v>
+        <v>94945</v>
       </c>
       <c r="I78">
-        <v>2988536.5411870508</v>
+        <v>3102777.7777777775</v>
       </c>
       <c r="J78">
         <v>68</v>
@@ -12925,13 +12940,13 @@
         <v>0.36194125756478257</v>
       </c>
       <c r="G79">
-        <v>69306.306812312774</v>
+        <v>66400</v>
       </c>
       <c r="H79">
-        <v>82221.903585657376</v>
+        <v>86688</v>
       </c>
       <c r="I79">
-        <v>2686990.3132567769</v>
+        <v>2832941.176470588</v>
       </c>
       <c r="J79">
         <v>75</v>
@@ -13044,13 +13059,13 @@
         <v>0.31252197237015145</v>
       </c>
       <c r="G80">
-        <v>99013.793370793413</v>
+        <v>94198</v>
       </c>
       <c r="H80">
-        <v>105526.26667632944</v>
+        <v>107649</v>
       </c>
       <c r="I80">
-        <v>3448570.8064159951</v>
+        <v>3517941.176470588</v>
       </c>
       <c r="J80">
         <v>40</v>
@@ -13162,6 +13177,9 @@
       <c r="F81">
         <v>0.32512881978568164</v>
       </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
       <c r="H81">
         <v>0</v>
       </c>
@@ -13282,13 +13300,13 @@
         <v>0.3454892784880238</v>
       </c>
       <c r="G82">
-        <v>127484.76229444315</v>
+        <v>134593</v>
       </c>
       <c r="H82">
-        <v>134135.16468099592</v>
+        <v>133943</v>
       </c>
       <c r="I82">
-        <v>4383502.1137580369</v>
+        <v>4377222.222222222</v>
       </c>
       <c r="J82">
         <v>13</v>
@@ -13404,13 +13422,13 @@
         <v>0.20148733874312696</v>
       </c>
       <c r="G83">
-        <v>153333.87182382835</v>
+        <v>173819</v>
       </c>
       <c r="H83">
-        <v>155486.13056386422</v>
+        <v>158139</v>
       </c>
       <c r="I83">
-        <v>5081246.0968583077</v>
+        <v>5167941.176470588</v>
       </c>
       <c r="J83">
         <v>7</v>
@@ -13526,13 +13544,13 @@
         <v>0.46870189840944076</v>
       </c>
       <c r="G84">
-        <v>98158.410056701745</v>
+        <v>101132</v>
       </c>
       <c r="H84">
-        <v>91130.348105293975</v>
+        <v>201158</v>
       </c>
       <c r="I84">
-        <v>2978115.951153398</v>
+        <v>6573790.8496732023</v>
       </c>
       <c r="J84">
         <v>69</v>
@@ -13645,13 +13663,13 @@
         <v>0.33643038655133656</v>
       </c>
       <c r="G85">
-        <v>117873.82576826813</v>
+        <v>128395</v>
       </c>
       <c r="H85">
-        <v>117378.7013356244</v>
+        <v>119911</v>
       </c>
       <c r="I85">
-        <v>3835905.2724060263</v>
+        <v>3918660.1307189544</v>
       </c>
       <c r="J85">
         <v>25</v>
@@ -13764,13 +13782,13 @@
         <v>0.26328707148480046</v>
       </c>
       <c r="G86">
-        <v>93860.605221323247</v>
+        <v>94096</v>
       </c>
       <c r="H86">
-        <v>90819.485277526008</v>
+        <v>94673</v>
       </c>
       <c r="I86">
-        <v>2967957.0352132684</v>
+        <v>3093888.888888889</v>
       </c>
       <c r="J86">
         <v>70</v>
@@ -13883,13 +13901,13 @@
         <v>0.56253514589451326</v>
       </c>
       <c r="G87">
-        <v>98736.442338312787</v>
+        <v>96879</v>
       </c>
       <c r="H87">
-        <v>111232.87356769817</v>
+        <v>118948</v>
       </c>
       <c r="I87">
-        <v>3635061.2277025548</v>
+        <v>3887189.5424836599</v>
       </c>
       <c r="J87">
         <v>32</v>
@@ -14002,13 +14020,13 @@
         <v>0.40204473030136711</v>
       </c>
       <c r="G88">
-        <v>92883.380094257082</v>
+        <v>93307</v>
       </c>
       <c r="H88">
-        <v>103353.95047108513</v>
+        <v>105563</v>
       </c>
       <c r="I88">
-        <v>3377580.0807544161</v>
+        <v>3449771.2418300654</v>
       </c>
       <c r="J88">
         <v>46</v>
@@ -14121,13 +14139,13 @@
         <v>0.41911781794648556</v>
       </c>
       <c r="G89">
-        <v>97506.178945746971</v>
+        <v>93163</v>
       </c>
       <c r="H89">
-        <v>108837.11935859843</v>
+        <v>110505</v>
       </c>
       <c r="I89">
-        <v>3556768.606490144</v>
+        <v>3611274.5098039219</v>
       </c>
       <c r="J89">
         <v>33</v>
@@ -14240,13 +14258,13 @@
         <v>0.6534134492457172</v>
       </c>
       <c r="G90">
-        <v>81796.912634940163</v>
+        <v>79111</v>
       </c>
       <c r="H90">
-        <v>78213.635329052486</v>
+        <v>85120</v>
       </c>
       <c r="I90">
-        <v>2556001.1545441989</v>
+        <v>2781699.3464052286</v>
       </c>
       <c r="J90">
         <v>77</v>
@@ -14359,13 +14377,13 @@
         <v>0.26769800486556183</v>
       </c>
       <c r="G91">
-        <v>116180.90731296943</v>
+        <v>126712</v>
       </c>
       <c r="H91">
-        <v>112862.53735724674</v>
+        <v>115313</v>
       </c>
       <c r="I91">
-        <v>3688318.2142891083</v>
+        <v>3768398.6928104577</v>
       </c>
       <c r="J91">
         <v>30</v>
@@ -14478,13 +14496,13 @@
         <v>0.55839387893603165</v>
       </c>
       <c r="G92">
-        <v>107286.06563783241</v>
+        <v>110239</v>
       </c>
       <c r="H92">
-        <v>127487.81537945844</v>
+        <v>130139</v>
       </c>
       <c r="I92">
-        <v>4166268.4764528903</v>
+        <v>4252908.4967320263</v>
       </c>
       <c r="J92">
         <v>18</v>
@@ -14597,13 +14615,13 @@
         <v>0.27636227307464922</v>
       </c>
       <c r="G93">
-        <v>83696.355744793211</v>
+        <v>86197</v>
       </c>
       <c r="H93">
-        <v>92829.401007952649</v>
+        <v>96616</v>
       </c>
       <c r="I93">
-        <v>3033640.5558154462</v>
+        <v>3157385.6209150325</v>
       </c>
       <c r="J93">
         <v>63</v>
@@ -14716,13 +14734,13 @@
         <v>0.28219920502489382</v>
       </c>
       <c r="G94">
-        <v>101018.56602400374</v>
+        <v>94888</v>
       </c>
       <c r="H94">
-        <v>91715.99328880939</v>
+        <v>94811</v>
       </c>
       <c r="I94">
-        <v>2997254.6826408301</v>
+        <v>3098398.6928104577</v>
       </c>
       <c r="J94">
         <v>67</v>
@@ -14835,13 +14853,13 @@
         <v>0.30192311001526589</v>
       </c>
       <c r="G95">
-        <v>89308.15808638795</v>
+        <v>163577</v>
       </c>
       <c r="H95">
-        <v>88530.608347684145</v>
+        <v>266904</v>
       </c>
       <c r="I95">
-        <v>2893157.1355452337</v>
+        <v>8722352.9411764704</v>
       </c>
       <c r="J95">
         <v>72</v>
@@ -14954,13 +14972,13 @@
         <v>0.44476749790807885</v>
       </c>
       <c r="G96">
-        <v>100419.27313574956</v>
+        <v>95029</v>
       </c>
       <c r="H96">
-        <v>99165.442802513193</v>
+        <v>101697</v>
       </c>
       <c r="I96">
-        <v>3240700.7451801696</v>
+        <v>3323431.3725490198</v>
       </c>
       <c r="J96">
         <v>53</v>
@@ -15073,13 +15091,13 @@
         <v>0.55441534762895917</v>
       </c>
       <c r="G97">
-        <v>87338.110227006793</v>
+        <v>81943</v>
       </c>
       <c r="H97">
-        <v>89254.123003737695</v>
+        <v>92467</v>
       </c>
       <c r="I97">
-        <v>2916801.4053509054</v>
+        <v>3021797.3856209153</v>
       </c>
       <c r="J97">
         <v>71</v>
@@ -15192,13 +15210,13 @@
         <v>0.32689738819730707</v>
       </c>
       <c r="G98">
-        <v>99759.148751950488</v>
+        <v>96178</v>
       </c>
       <c r="H98">
-        <v>97804.428560727494</v>
+        <v>99979</v>
       </c>
       <c r="I98">
-        <v>3196223.1555793299</v>
+        <v>3267287.5816993462</v>
       </c>
       <c r="J98">
         <v>56</v>
@@ -15311,13 +15329,13 @@
         <v>0.32544021957569458</v>
       </c>
       <c r="G99">
-        <v>106451.46742776975</v>
+        <v>106155</v>
       </c>
       <c r="H99">
-        <v>101953.29288679275</v>
+        <v>105660</v>
       </c>
       <c r="I99">
-        <v>3331806.9570847307</v>
+        <v>3452941.176470588</v>
       </c>
       <c r="J99">
         <v>47</v>
@@ -15430,13 +15448,13 @@
         <v>0.27440847750598829</v>
       </c>
       <c r="G100">
-        <v>118946.00603657665</v>
+        <v>126840</v>
       </c>
       <c r="H100">
-        <v>133310.61367740601</v>
+        <v>135682</v>
       </c>
       <c r="I100">
-        <v>4356556.0025296081</v>
+        <v>4434052.287581699</v>
       </c>
       <c r="J100">
         <v>14</v>
@@ -15549,13 +15567,13 @@
         <v>0.33532640658694374</v>
       </c>
       <c r="G101">
-        <v>63923.376955983338</v>
+        <v>64128</v>
       </c>
       <c r="H101">
-        <v>92449.599215803071</v>
+        <v>96650</v>
       </c>
       <c r="I101">
-        <v>3021228.7325425842</v>
+        <v>3158496.7320261439</v>
       </c>
       <c r="J101">
         <v>65</v>
@@ -15668,13 +15686,13 @@
         <v>0.65133433367457128</v>
       </c>
       <c r="G102">
-        <v>94539.066427809477</v>
+        <v>93776</v>
       </c>
       <c r="H102">
-        <v>104667.07591525739</v>
+        <v>103859</v>
       </c>
       <c r="I102">
-        <v>3420492.6769691957</v>
+        <v>3394084.967320262</v>
       </c>
       <c r="J102">
         <v>44</v>
@@ -15786,6 +15804,15 @@
       <c r="F103">
         <v>1.71253318910414</v>
       </c>
+      <c r="G103">
+        <v>71206</v>
+      </c>
+      <c r="H103">
+        <v>85092</v>
+      </c>
+      <c r="I103">
+        <v>2780784.3137254901</v>
+      </c>
       <c r="K103">
         <v>13493</v>
       </c>
@@ -15893,6 +15920,15 @@
       <c r="F104">
         <v>0.41771744176132325</v>
       </c>
+      <c r="G104">
+        <v>77877</v>
+      </c>
+      <c r="H104">
+        <v>102421</v>
+      </c>
+      <c r="I104">
+        <v>3347091.5032679737</v>
+      </c>
       <c r="K104">
         <v>33847</v>
       </c>
@@ -16000,6 +16036,15 @@
       <c r="F105">
         <v>0.85493415426714559</v>
       </c>
+      <c r="G105">
+        <v>69648</v>
+      </c>
+      <c r="H105">
+        <v>91621</v>
+      </c>
+      <c r="I105">
+        <v>2994150.3267973857</v>
+      </c>
       <c r="K105">
         <v>29570</v>
       </c>
@@ -16107,6 +16152,15 @@
       <c r="F106">
         <v>0.40101340101340099</v>
       </c>
+      <c r="G106">
+        <v>72372</v>
+      </c>
+      <c r="H106">
+        <v>93374</v>
+      </c>
+      <c r="I106">
+        <v>3051437.9084967319</v>
+      </c>
       <c r="K106">
         <v>35413</v>
       </c>
@@ -16214,6 +16268,15 @@
       <c r="F107">
         <v>0.47624623336756688</v>
       </c>
+      <c r="G107">
+        <v>86353</v>
+      </c>
+      <c r="H107">
+        <v>102415</v>
+      </c>
+      <c r="I107">
+        <v>3346895.4248366011</v>
+      </c>
       <c r="K107">
         <v>123188</v>
       </c>
@@ -16321,6 +16384,15 @@
       <c r="F108">
         <v>0.32831794748831078</v>
       </c>
+      <c r="G108">
+        <v>104191</v>
+      </c>
+      <c r="H108">
+        <v>115451</v>
+      </c>
+      <c r="I108">
+        <v>3772908.4967320263</v>
+      </c>
       <c r="K108">
         <v>93747</v>
       </c>
@@ -16428,6 +16500,15 @@
       <c r="F109">
         <v>0.30938017596377393</v>
       </c>
+      <c r="G109">
+        <v>99170</v>
+      </c>
+      <c r="H109">
+        <v>117340</v>
+      </c>
+      <c r="I109">
+        <v>3834640.5228758175</v>
+      </c>
       <c r="K109">
         <v>88621</v>
       </c>
@@ -16535,6 +16616,15 @@
       <c r="F110">
         <v>0.20937673998999176</v>
       </c>
+      <c r="G110">
+        <v>98872</v>
+      </c>
+      <c r="H110">
+        <v>105091</v>
+      </c>
+      <c r="I110">
+        <v>3434346.4052287587</v>
+      </c>
       <c r="K110">
         <v>101825</v>
       </c>
@@ -16642,6 +16732,15 @@
       <c r="F111">
         <v>0.34367170126485475</v>
       </c>
+      <c r="G111">
+        <v>111942</v>
+      </c>
+      <c r="H111">
+        <v>137462</v>
+      </c>
+      <c r="I111">
+        <v>4492222.222222222</v>
+      </c>
       <c r="K111">
         <v>136706</v>
       </c>
@@ -16749,6 +16848,15 @@
       <c r="F112">
         <v>0.3599745601017596</v>
       </c>
+      <c r="G112">
+        <v>84558</v>
+      </c>
+      <c r="H112">
+        <v>96950</v>
+      </c>
+      <c r="I112">
+        <v>3168300.6535947714</v>
+      </c>
       <c r="K112">
         <v>115200</v>
       </c>
@@ -16856,6 +16964,15 @@
       <c r="F113">
         <v>0.40650583902106935</v>
       </c>
+      <c r="G113">
+        <v>97540</v>
+      </c>
+      <c r="H113">
+        <v>114999</v>
+      </c>
+      <c r="I113">
+        <v>3758137.254901961</v>
+      </c>
       <c r="K113">
         <v>77707</v>
       </c>
@@ -16963,6 +17080,15 @@
       <c r="F114">
         <v>0.81976074808345734</v>
       </c>
+      <c r="G114">
+        <v>112686</v>
+      </c>
+      <c r="H114">
+        <v>116316</v>
+      </c>
+      <c r="I114">
+        <v>3801176.4705882352</v>
+      </c>
       <c r="K114">
         <v>54772</v>
       </c>
@@ -17070,6 +17196,15 @@
       <c r="F115">
         <v>0.44355007368426175</v>
       </c>
+      <c r="G115">
+        <v>98354</v>
+      </c>
+      <c r="H115">
+        <v>112384</v>
+      </c>
+      <c r="I115">
+        <v>3672679.7385620913</v>
+      </c>
       <c r="K115">
         <v>72631</v>
       </c>
@@ -17177,6 +17312,15 @@
       <c r="F116">
         <v>0.32774813051377411</v>
       </c>
+      <c r="G116">
+        <v>98497</v>
+      </c>
+      <c r="H116">
+        <v>109044</v>
+      </c>
+      <c r="I116">
+        <v>3563529.4117647056</v>
+      </c>
       <c r="K116">
         <v>61121</v>
       </c>
@@ -17284,6 +17428,15 @@
       <c r="F117">
         <v>0.59705553271045908</v>
       </c>
+      <c r="G117">
+        <v>85789</v>
+      </c>
+      <c r="H117">
+        <v>93341</v>
+      </c>
+      <c r="I117">
+        <v>3050359.477124183</v>
+      </c>
       <c r="K117">
         <v>78534</v>
       </c>
@@ -17391,6 +17544,15 @@
       <c r="F118">
         <v>0.35747036109430741</v>
       </c>
+      <c r="G118">
+        <v>77043</v>
+      </c>
+      <c r="H118">
+        <v>106904</v>
+      </c>
+      <c r="I118">
+        <v>3493594.7712418302</v>
+      </c>
       <c r="K118">
         <v>57961</v>
       </c>
@@ -17498,6 +17660,15 @@
       <c r="F119">
         <v>1.2696901529150264</v>
       </c>
+      <c r="G119">
+        <v>97557</v>
+      </c>
+      <c r="H119">
+        <v>110622</v>
+      </c>
+      <c r="I119">
+        <v>3615098.0392156858</v>
+      </c>
       <c r="K119">
         <v>24996</v>
       </c>
@@ -17605,6 +17776,15 @@
       <c r="F120">
         <v>0.33707406591793293</v>
       </c>
+      <c r="G120">
+        <v>86946</v>
+      </c>
+      <c r="H120">
+        <v>98967</v>
+      </c>
+      <c r="I120">
+        <v>3234215.6862745099</v>
+      </c>
       <c r="K120">
         <v>113389</v>
       </c>
@@ -17712,6 +17892,15 @@
       <c r="F121">
         <v>0.47418938635733321</v>
       </c>
+      <c r="G121">
+        <v>69572</v>
+      </c>
+      <c r="H121">
+        <v>84287</v>
+      </c>
+      <c r="I121">
+        <v>2754477.1241830066</v>
+      </c>
       <c r="K121">
         <v>52784</v>
       </c>
@@ -17819,6 +18008,15 @@
       <c r="F122">
         <v>0.40393702426467015</v>
       </c>
+      <c r="G122">
+        <v>70323</v>
+      </c>
+      <c r="H122">
+        <v>91645</v>
+      </c>
+      <c r="I122">
+        <v>2994934.6405228758</v>
+      </c>
       <c r="K122">
         <v>43371</v>
       </c>
@@ -17926,6 +18124,15 @@
       <c r="F123">
         <v>0.37959308039651868</v>
       </c>
+      <c r="G123">
+        <v>99575</v>
+      </c>
+      <c r="H123">
+        <v>100570</v>
+      </c>
+      <c r="I123">
+        <v>3286601.3071895423</v>
+      </c>
       <c r="K123">
         <v>150514</v>
       </c>
@@ -18033,6 +18240,15 @@
       <c r="F124">
         <v>0.346197649182371</v>
       </c>
+      <c r="G124">
+        <v>128371</v>
+      </c>
+      <c r="H124">
+        <v>151204</v>
+      </c>
+      <c r="I124">
+        <v>4941307.1895424835</v>
+      </c>
       <c r="K124">
         <v>137431</v>
       </c>
@@ -18140,6 +18356,15 @@
       <c r="F125">
         <v>0.38017320130083676</v>
       </c>
+      <c r="G125">
+        <v>102079</v>
+      </c>
+      <c r="H125">
+        <v>108710</v>
+      </c>
+      <c r="I125">
+        <v>3552614.3790849675</v>
+      </c>
       <c r="K125">
         <v>199681</v>
       </c>
@@ -18247,6 +18472,15 @@
       <c r="F126">
         <v>0.38789852783939788</v>
       </c>
+      <c r="G126">
+        <v>90552</v>
+      </c>
+      <c r="H126">
+        <v>102375</v>
+      </c>
+      <c r="I126">
+        <v>3345588.2352941176</v>
+      </c>
       <c r="K126">
         <v>96979</v>
       </c>
@@ -18354,6 +18588,15 @@
       <c r="F127">
         <v>0.676672176947691</v>
       </c>
+      <c r="G127">
+        <v>84617</v>
+      </c>
+      <c r="H127">
+        <v>114099</v>
+      </c>
+      <c r="I127">
+        <v>3728725.4901960781</v>
+      </c>
       <c r="K127">
         <v>34291</v>
       </c>
@@ -18461,6 +18704,15 @@
       <c r="F128">
         <v>0.50778012032704278</v>
       </c>
+      <c r="G128">
+        <v>91732</v>
+      </c>
+      <c r="H128">
+        <v>116886</v>
+      </c>
+      <c r="I128">
+        <v>3819803.9215686275</v>
+      </c>
       <c r="K128">
         <v>107560</v>
       </c>
@@ -18568,6 +18820,15 @@
       <c r="F129">
         <v>0.28252489037076306</v>
       </c>
+      <c r="G129">
+        <v>85069</v>
+      </c>
+      <c r="H129">
+        <v>119584</v>
+      </c>
+      <c r="I129">
+        <v>3907973.85620915</v>
+      </c>
       <c r="K129">
         <v>72046</v>
       </c>
@@ -18675,6 +18936,15 @@
       <c r="F130">
         <v>0.38285977497404627</v>
       </c>
+      <c r="G130">
+        <v>81928</v>
+      </c>
+      <c r="H130">
+        <v>102927</v>
+      </c>
+      <c r="I130">
+        <v>3363627.4509803923</v>
+      </c>
       <c r="K130">
         <v>150778</v>
       </c>
@@ -18782,6 +19052,15 @@
       <c r="F131">
         <v>0.38873495658449897</v>
       </c>
+      <c r="G131">
+        <v>88840</v>
+      </c>
+      <c r="H131">
+        <v>106096</v>
+      </c>
+      <c r="I131">
+        <v>3467189.5424836599</v>
+      </c>
       <c r="K131">
         <v>157345</v>
       </c>
@@ -18889,6 +19168,15 @@
       <c r="F132">
         <v>0.32337141424632021</v>
       </c>
+      <c r="G132">
+        <v>74185</v>
+      </c>
+      <c r="H132">
+        <v>92823</v>
+      </c>
+      <c r="I132">
+        <v>3033431.3725490198</v>
+      </c>
       <c r="K132">
         <v>73886</v>
       </c>
@@ -18996,6 +19284,15 @@
       <c r="F133">
         <v>0.41113296413229128</v>
       </c>
+      <c r="G133">
+        <v>83418</v>
+      </c>
+      <c r="H133">
+        <v>101986</v>
+      </c>
+      <c r="I133">
+        <v>3332875.8169934643</v>
+      </c>
       <c r="K133">
         <v>80389</v>
       </c>
@@ -19103,6 +19400,15 @@
       <c r="F134">
         <v>0.39276989996751371</v>
       </c>
+      <c r="G134">
+        <v>90330</v>
+      </c>
+      <c r="H134">
+        <v>112266</v>
+      </c>
+      <c r="I134">
+        <v>3668823.5294117648</v>
+      </c>
       <c r="K134">
         <v>181012</v>
       </c>
@@ -19210,6 +19516,15 @@
       <c r="F135">
         <v>0.45494513023717897</v>
       </c>
+      <c r="G135">
+        <v>106821</v>
+      </c>
+      <c r="H135">
+        <v>136912</v>
+      </c>
+      <c r="I135">
+        <v>4474248.3660130715</v>
+      </c>
       <c r="K135">
         <v>143730</v>
       </c>
@@ -19317,6 +19632,15 @@
       <c r="F136">
         <v>0.53035577286416047</v>
       </c>
+      <c r="G136">
+        <v>83305</v>
+      </c>
+      <c r="H136">
+        <v>96300</v>
+      </c>
+      <c r="I136">
+        <v>3147058.823529412</v>
+      </c>
       <c r="K136">
         <v>64126</v>
       </c>
@@ -19424,6 +19748,15 @@
       <c r="F137">
         <v>0.26497455274160847</v>
       </c>
+      <c r="G137">
+        <v>92064</v>
+      </c>
+      <c r="H137">
+        <v>130642</v>
+      </c>
+      <c r="I137">
+        <v>4269346.4052287582</v>
+      </c>
       <c r="K137">
         <v>77069</v>
       </c>
@@ -19531,6 +19864,15 @@
       <c r="F138">
         <v>0.56748520841674455</v>
       </c>
+      <c r="G138">
+        <v>101800</v>
+      </c>
+      <c r="H138">
+        <v>141070</v>
+      </c>
+      <c r="I138">
+        <v>4610130.7189542484</v>
+      </c>
       <c r="K138">
         <v>120003</v>
       </c>
@@ -19638,6 +19980,15 @@
       <c r="F139">
         <v>0.51426204361136818</v>
       </c>
+      <c r="G139">
+        <v>81126</v>
+      </c>
+      <c r="H139">
+        <v>121730</v>
+      </c>
+      <c r="I139">
+        <v>3978104.5751633989</v>
+      </c>
       <c r="K139">
         <v>60668</v>
       </c>
@@ -19745,6 +20096,15 @@
       <c r="F140">
         <v>0.45731343283582088</v>
       </c>
+      <c r="G140">
+        <v>103897</v>
+      </c>
+      <c r="H140">
+        <v>135318</v>
+      </c>
+      <c r="I140">
+        <v>4422156.8627450978</v>
+      </c>
       <c r="K140">
         <v>87723</v>
       </c>
@@ -19852,6 +20212,15 @@
       <c r="F141">
         <v>0.48310588659190201</v>
       </c>
+      <c r="G141">
+        <v>85080</v>
+      </c>
+      <c r="H141">
+        <v>122503</v>
+      </c>
+      <c r="I141">
+        <v>4003366.0130718956</v>
+      </c>
       <c r="K141">
         <v>82086</v>
       </c>
@@ -19959,6 +20328,15 @@
       <c r="F142">
         <v>0.37882615758113902</v>
       </c>
+      <c r="G142">
+        <v>89389</v>
+      </c>
+      <c r="H142">
+        <v>103505</v>
+      </c>
+      <c r="I142">
+        <v>3382516.3398692813</v>
+      </c>
       <c r="K142">
         <v>99263</v>
       </c>
@@ -20066,6 +20444,15 @@
       <c r="F143">
         <v>0.40404065895548547</v>
       </c>
+      <c r="G143">
+        <v>84248</v>
+      </c>
+      <c r="H143">
+        <v>104310</v>
+      </c>
+      <c r="I143">
+        <v>3408823.5294117648</v>
+      </c>
       <c r="K143">
         <v>126864</v>
       </c>
@@ -20173,6 +20560,15 @@
       <c r="F144">
         <v>0.40884802139288312</v>
       </c>
+      <c r="G144">
+        <v>80028</v>
+      </c>
+      <c r="H144">
+        <v>100808</v>
+      </c>
+      <c r="I144">
+        <v>3294379.0849673203</v>
+      </c>
       <c r="K144">
         <v>69500</v>
       </c>
@@ -20280,6 +20676,15 @@
       <c r="F145">
         <v>0.36901736669810797</v>
       </c>
+      <c r="G145">
+        <v>70949</v>
+      </c>
+      <c r="H145">
+        <v>102308</v>
+      </c>
+      <c r="I145">
+        <v>3343398.6928104577</v>
+      </c>
       <c r="K145">
         <v>28990</v>
       </c>
@@ -20387,6 +20792,15 @@
       <c r="F146">
         <v>0.46873706004140786</v>
       </c>
+      <c r="G146">
+        <v>59094</v>
+      </c>
+      <c r="H146">
+        <v>103182</v>
+      </c>
+      <c r="I146">
+        <v>3371960.7843137253</v>
+      </c>
       <c r="K146">
         <v>14158</v>
       </c>
@@ -20494,6 +20908,15 @@
       <c r="F147">
         <v>0.38441976773756037</v>
       </c>
+      <c r="G147">
+        <v>85910</v>
+      </c>
+      <c r="H147">
+        <v>96002</v>
+      </c>
+      <c r="I147">
+        <v>3137320.2614379087</v>
+      </c>
       <c r="K147">
         <v>26893</v>
       </c>
@@ -20601,6 +21024,15 @@
       <c r="F148">
         <v>0.4583365970579481</v>
       </c>
+      <c r="G148">
+        <v>60788</v>
+      </c>
+      <c r="H148">
+        <v>103514</v>
+      </c>
+      <c r="I148">
+        <v>3382810.4575163401</v>
+      </c>
       <c r="K148">
         <v>19514</v>
       </c>
@@ -20708,6 +21140,15 @@
       <c r="F149">
         <v>0.38445816727251492</v>
       </c>
+      <c r="G149">
+        <v>73535</v>
+      </c>
+      <c r="H149">
+        <v>89708</v>
+      </c>
+      <c r="I149">
+        <v>2931633.9869281044</v>
+      </c>
       <c r="K149">
         <v>19527</v>
       </c>
@@ -20815,6 +21256,15 @@
       <c r="F150">
         <v>0.37504829777186277</v>
       </c>
+      <c r="G150">
+        <v>69239</v>
+      </c>
+      <c r="H150">
+        <v>90496</v>
+      </c>
+      <c r="I150">
+        <v>2957385.6209150325</v>
+      </c>
       <c r="K150">
         <v>12407</v>
       </c>
@@ -20922,6 +21372,15 @@
       <c r="F151">
         <v>0.4291915498145274</v>
       </c>
+      <c r="G151">
+        <v>54947</v>
+      </c>
+      <c r="H151">
+        <v>100633</v>
+      </c>
+      <c r="I151">
+        <v>3288660.1307189544</v>
+      </c>
       <c r="K151">
         <v>10545</v>
       </c>
@@ -21029,6 +21488,15 @@
       <c r="F152">
         <v>0.45349461054479834</v>
       </c>
+      <c r="G152">
+        <v>71822</v>
+      </c>
+      <c r="H152">
+        <v>94139</v>
+      </c>
+      <c r="I152">
+        <v>3076437.9084967319</v>
+      </c>
       <c r="K152">
         <v>11146</v>
       </c>
@@ -21136,6 +21604,15 @@
       <c r="F153">
         <v>0.5354608934630809</v>
       </c>
+      <c r="G153">
+        <v>53217</v>
+      </c>
+      <c r="H153">
+        <v>96664</v>
+      </c>
+      <c r="I153">
+        <v>3158954.2483660132</v>
+      </c>
       <c r="K153">
         <v>10894</v>
       </c>
@@ -21243,6 +21720,15 @@
       <c r="F154">
         <v>0.30099565407344386</v>
       </c>
+      <c r="G154">
+        <v>63878</v>
+      </c>
+      <c r="H154">
+        <v>89097</v>
+      </c>
+      <c r="I154">
+        <v>2911666.666666667</v>
+      </c>
       <c r="K154">
         <v>13298</v>
       </c>
@@ -21350,6 +21836,15 @@
       <c r="F155">
         <v>0.34523858621685155</v>
       </c>
+      <c r="G155">
+        <v>62275</v>
+      </c>
+      <c r="H155">
+        <v>84471</v>
+      </c>
+      <c r="I155">
+        <v>2760490.1960784313</v>
+      </c>
       <c r="K155">
         <v>8608</v>
       </c>
@@ -21457,6 +21952,15 @@
       <c r="F156">
         <v>0.3366932725199544</v>
       </c>
+      <c r="G156">
+        <v>60605</v>
+      </c>
+      <c r="H156">
+        <v>89749</v>
+      </c>
+      <c r="I156">
+        <v>2932973.8562091505</v>
+      </c>
       <c r="K156">
         <v>6976</v>
       </c>
@@ -21564,6 +22068,15 @@
       <c r="F157">
         <v>0.37684636958554069</v>
       </c>
+      <c r="G157">
+        <v>68737</v>
+      </c>
+      <c r="H157">
+        <v>87197</v>
+      </c>
+      <c r="I157">
+        <v>2849575.1633986929</v>
+      </c>
       <c r="K157">
         <v>10535</v>
       </c>
@@ -21671,6 +22184,15 @@
       <c r="F158">
         <v>0.44262234396979344</v>
       </c>
+      <c r="G158">
+        <v>56632</v>
+      </c>
+      <c r="H158">
+        <v>87821</v>
+      </c>
+      <c r="I158">
+        <v>2869967.3202614379</v>
+      </c>
       <c r="K158">
         <v>7632</v>
       </c>
@@ -21778,6 +22300,15 @@
       <c r="F159">
         <v>0.47438093199172199</v>
       </c>
+      <c r="G159">
+        <v>68485</v>
+      </c>
+      <c r="H159">
+        <v>93098</v>
+      </c>
+      <c r="I159">
+        <v>3042418.3006535945</v>
+      </c>
       <c r="K159">
         <v>7591</v>
       </c>
@@ -21885,6 +22416,15 @@
       <c r="F160">
         <v>0.39191379680001132</v>
       </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
       <c r="K160">
         <v>335500</v>
       </c>
@@ -21995,6 +22535,15 @@
       <c r="F161">
         <v>0.27333670499349749</v>
       </c>
+      <c r="G161">
+        <v>91496</v>
+      </c>
+      <c r="H161">
+        <v>107893</v>
+      </c>
+      <c r="I161">
+        <v>3525915.032679738</v>
+      </c>
       <c r="K161">
         <v>0</v>
       </c>
@@ -22105,6 +22654,15 @@
       <c r="F162">
         <v>0.35950205490456227</v>
       </c>
+      <c r="G162">
+        <v>90508</v>
+      </c>
+      <c r="H162">
+        <v>112214</v>
+      </c>
+      <c r="I162">
+        <v>3667124.1830065357</v>
+      </c>
       <c r="K162">
         <v>0</v>
       </c>
@@ -22215,6 +22773,15 @@
       <c r="F163">
         <v>0.49296705512469613</v>
       </c>
+      <c r="G163">
+        <v>90478</v>
+      </c>
+      <c r="H163">
+        <v>121214</v>
+      </c>
+      <c r="I163">
+        <v>3961241.8300653598</v>
+      </c>
       <c r="K163">
         <v>0</v>
       </c>
@@ -22325,6 +22892,15 @@
       <c r="F164">
         <v>0.40306778771444157</v>
       </c>
+      <c r="G164">
+        <v>83073</v>
+      </c>
+      <c r="H164">
+        <v>111166</v>
+      </c>
+      <c r="I164">
+        <v>3632875.8169934643</v>
+      </c>
       <c r="K164">
         <v>0</v>
       </c>
@@ -22432,6 +23008,15 @@
       <c r="F165">
         <v>0.42150081861965927</v>
       </c>
+      <c r="G165">
+        <v>79089</v>
+      </c>
+      <c r="H165">
+        <v>100231</v>
+      </c>
+      <c r="I165">
+        <v>3275522.8758169934</v>
+      </c>
       <c r="K165">
         <v>72672</v>
       </c>
@@ -22539,6 +23124,15 @@
       <c r="F166">
         <v>0.40290518718442481</v>
       </c>
+      <c r="G166">
+        <v>76429</v>
+      </c>
+      <c r="H166">
+        <v>100562</v>
+      </c>
+      <c r="I166">
+        <v>3286339.8692810456</v>
+      </c>
       <c r="K166">
         <v>42278</v>
       </c>
@@ -22646,6 +23240,15 @@
       <c r="F167">
         <v>0.40611367416752975</v>
       </c>
+      <c r="G167">
+        <v>57033</v>
+      </c>
+      <c r="H167">
+        <v>91363</v>
+      </c>
+      <c r="I167">
+        <v>2985718.9542483659</v>
+      </c>
       <c r="K167">
         <v>8766</v>
       </c>
@@ -22753,6 +23356,15 @@
       <c r="F168">
         <v>0.3894688608200183</v>
       </c>
+      <c r="G168">
+        <v>58434</v>
+      </c>
+      <c r="H168">
+        <v>91176</v>
+      </c>
+      <c r="I168">
+        <v>2979607.8431372549</v>
+      </c>
       <c r="K168">
         <v>14796</v>
       </c>
@@ -22860,6 +23472,15 @@
       <c r="F169">
         <v>0.32672297444381559</v>
       </c>
+      <c r="G169">
+        <v>49993</v>
+      </c>
+      <c r="H169">
+        <v>93374</v>
+      </c>
+      <c r="I169">
+        <v>3051437.9084967319</v>
+      </c>
       <c r="K169">
         <v>12352</v>
       </c>
@@ -22967,6 +23588,15 @@
       <c r="F170">
         <v>0.3480245250336807</v>
       </c>
+      <c r="G170">
+        <v>67803</v>
+      </c>
+      <c r="H170">
+        <v>95220</v>
+      </c>
+      <c r="I170">
+        <v>3111764.7058823528</v>
+      </c>
       <c r="K170">
         <v>14332</v>
       </c>
@@ -23074,6 +23704,15 @@
       <c r="F171">
         <v>0.58584849090545676</v>
       </c>
+      <c r="G171">
+        <v>79125</v>
+      </c>
+      <c r="H171">
+        <v>99152</v>
+      </c>
+      <c r="I171">
+        <v>3240261.4379084967</v>
+      </c>
       <c r="K171">
         <v>38125</v>
       </c>
@@ -23181,6 +23820,15 @@
       <c r="F172">
         <v>0.369893874005917</v>
       </c>
+      <c r="G172">
+        <v>59021</v>
+      </c>
+      <c r="H172">
+        <v>92756</v>
+      </c>
+      <c r="I172">
+        <v>3031241.8300653594</v>
+      </c>
       <c r="K172">
         <v>10145</v>
       </c>
@@ -23288,6 +23936,15 @@
       <c r="F173">
         <v>0.76008651797747928</v>
       </c>
+      <c r="G173">
+        <v>73841</v>
+      </c>
+      <c r="H173">
+        <v>92664</v>
+      </c>
+      <c r="I173">
+        <v>3028235.2941176472</v>
+      </c>
       <c r="K173">
         <v>41551</v>
       </c>
@@ -23395,6 +24052,15 @@
       <c r="F174">
         <v>0.49966555183946487</v>
       </c>
+      <c r="G174">
+        <v>57870</v>
+      </c>
+      <c r="H174">
+        <v>95381</v>
+      </c>
+      <c r="I174">
+        <v>3117026.1437908495</v>
+      </c>
       <c r="K174">
         <v>8151</v>
       </c>
@@ -23502,6 +24168,15 @@
       <c r="F175">
         <v>0.41937557266523529</v>
       </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
       <c r="K175">
         <v>272761</v>
       </c>
@@ -23612,6 +24287,15 @@
       <c r="F176">
         <v>0.42766845137453818</v>
       </c>
+      <c r="G176">
+        <v>90584</v>
+      </c>
+      <c r="H176">
+        <v>105442</v>
+      </c>
+      <c r="I176">
+        <v>3445816.9934640522</v>
+      </c>
       <c r="K176">
         <v>0</v>
       </c>
@@ -23722,6 +24406,15 @@
       <c r="F177">
         <v>0.41411266185299167</v>
       </c>
+      <c r="G177">
+        <v>92412</v>
+      </c>
+      <c r="H177">
+        <v>122133</v>
+      </c>
+      <c r="I177">
+        <v>3991274.5098039219</v>
+      </c>
       <c r="K177">
         <v>0</v>
       </c>
@@ -23829,6 +24522,15 @@
       <c r="F178">
         <v>0.44474985724102556</v>
       </c>
+      <c r="G178">
+        <v>74685</v>
+      </c>
+      <c r="H178">
+        <v>97198</v>
+      </c>
+      <c r="I178">
+        <v>3176405.2287581703</v>
+      </c>
       <c r="K178">
         <v>32319</v>
       </c>
@@ -23933,6 +24635,15 @@
       <c r="F179">
         <v>0.37354239610290757</v>
       </c>
+      <c r="G179">
+        <v>71287</v>
+      </c>
+      <c r="H179">
+        <v>101994</v>
+      </c>
+      <c r="I179">
+        <v>3333137.254901961</v>
+      </c>
       <c r="K179">
         <v>31056</v>
       </c>
@@ -24040,6 +24751,15 @@
       <c r="F180">
         <v>0.54016041310853669</v>
       </c>
+      <c r="G180">
+        <v>86210</v>
+      </c>
+      <c r="H180">
+        <v>118001</v>
+      </c>
+      <c r="I180">
+        <v>3856241.8300653598</v>
+      </c>
       <c r="K180">
         <v>128723</v>
       </c>
@@ -24147,6 +24867,15 @@
       <c r="F181">
         <v>0.38674934171409159</v>
       </c>
+      <c r="G181">
+        <v>82505</v>
+      </c>
+      <c r="H181">
+        <v>125138</v>
+      </c>
+      <c r="I181">
+        <v>4089477.1241830066</v>
+      </c>
       <c r="K181">
         <v>60931</v>
       </c>
@@ -24254,6 +24983,15 @@
       <c r="F182">
         <v>0.39502827418553793</v>
       </c>
+      <c r="G182">
+        <v>63107</v>
+      </c>
+      <c r="H182">
+        <v>91288</v>
+      </c>
+      <c r="I182">
+        <v>2983267.9738562093</v>
+      </c>
       <c r="K182">
         <v>34018</v>
       </c>
@@ -24358,6 +25096,15 @@
       <c r="F183">
         <v>2.5085280672034901E-2</v>
       </c>
+      <c r="G183">
+        <v>91079</v>
+      </c>
+      <c r="H183">
+        <v>97999</v>
+      </c>
+      <c r="I183">
+        <v>3202581.6993464055</v>
+      </c>
       <c r="K183">
         <v>15329</v>
       </c>
@@ -24465,6 +25212,15 @@
       <c r="F184">
         <v>0.46209278066210235</v>
       </c>
+      <c r="G184">
+        <v>84408</v>
+      </c>
+      <c r="H184">
+        <v>115850</v>
+      </c>
+      <c r="I184">
+        <v>3785947.712418301</v>
+      </c>
       <c r="K184">
         <v>61268</v>
       </c>
@@ -24572,6 +25328,15 @@
       <c r="F185">
         <v>0.50522758266300372</v>
       </c>
+      <c r="G185">
+        <v>57599</v>
+      </c>
+      <c r="H185">
+        <v>91770</v>
+      </c>
+      <c r="I185">
+        <v>2999019.6078431373</v>
+      </c>
       <c r="K185">
         <v>12988</v>
       </c>
@@ -24679,6 +25444,15 @@
       <c r="F186">
         <v>0.31781987703956321</v>
       </c>
+      <c r="G186">
+        <v>54140</v>
+      </c>
+      <c r="H186">
+        <v>94344</v>
+      </c>
+      <c r="I186">
+        <v>3083137.254901961</v>
+      </c>
       <c r="K186">
         <v>16198</v>
       </c>
@@ -24786,6 +25560,15 @@
       <c r="F187">
         <v>0.40142284411602863</v>
       </c>
+      <c r="G187">
+        <v>59693</v>
+      </c>
+      <c r="H187">
+        <v>98769</v>
+      </c>
+      <c r="I187">
+        <v>3227745.0980392159</v>
+      </c>
       <c r="K187">
         <v>12387</v>
       </c>
@@ -24893,6 +25676,15 @@
       <c r="F188">
         <v>0.39109839139445379</v>
       </c>
+      <c r="G188">
+        <v>56349</v>
+      </c>
+      <c r="H188">
+        <v>91479</v>
+      </c>
+      <c r="I188">
+        <v>2989509.8039215687</v>
+      </c>
       <c r="K188">
         <v>7610</v>
       </c>
@@ -25000,6 +25792,15 @@
       <c r="F189">
         <v>0.37231784481978131</v>
       </c>
+      <c r="G189">
+        <v>70234</v>
+      </c>
+      <c r="H189">
+        <v>101023</v>
+      </c>
+      <c r="I189">
+        <v>3301405.2287581698</v>
+      </c>
       <c r="K189">
         <v>31583</v>
       </c>
@@ -25107,6 +25908,15 @@
       <c r="F190">
         <v>0.39979733416478291</v>
       </c>
+      <c r="G190">
+        <v>67440</v>
+      </c>
+      <c r="H190">
+        <v>95027</v>
+      </c>
+      <c r="I190">
+        <v>3105457.5163398692</v>
+      </c>
       <c r="K190">
         <v>23117</v>
       </c>
@@ -25214,6 +26024,15 @@
       <c r="F191">
         <v>0.35354957754685828</v>
       </c>
+      <c r="G191">
+        <v>67941</v>
+      </c>
+      <c r="H191">
+        <v>102228</v>
+      </c>
+      <c r="I191">
+        <v>3340784.3137254901</v>
+      </c>
       <c r="K191">
         <v>15511</v>
       </c>
@@ -25321,6 +26140,15 @@
       <c r="F192">
         <v>0.36294316759240131</v>
       </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
       <c r="K192">
         <v>230833</v>
       </c>
@@ -25431,6 +26259,15 @@
       <c r="F193">
         <v>0.39187866637404872</v>
       </c>
+      <c r="G193">
+        <v>85743</v>
+      </c>
+      <c r="H193">
+        <v>110051</v>
+      </c>
+      <c r="I193">
+        <v>3596437.9084967319</v>
+      </c>
       <c r="K193">
         <v>0</v>
       </c>
@@ -25541,6 +26378,15 @@
       <c r="F194">
         <v>0.33255147494003678</v>
       </c>
+      <c r="G194">
+        <v>87762</v>
+      </c>
+      <c r="H194">
+        <v>110376</v>
+      </c>
+      <c r="I194">
+        <v>3607058.823529412</v>
+      </c>
       <c r="K194">
         <v>0</v>
       </c>
@@ -25648,6 +26494,15 @@
       <c r="F195">
         <v>0.39683017958298178</v>
       </c>
+      <c r="G195">
+        <v>72617</v>
+      </c>
+      <c r="H195">
+        <v>105680</v>
+      </c>
+      <c r="I195">
+        <v>3453594.7712418302</v>
+      </c>
       <c r="K195">
         <v>86597</v>
       </c>
@@ -25755,6 +26610,15 @@
       <c r="F196">
         <v>0.3877789654158208</v>
       </c>
+      <c r="G196">
+        <v>71611</v>
+      </c>
+      <c r="H196">
+        <v>98699</v>
+      </c>
+      <c r="I196">
+        <v>3225457.5163398692</v>
+      </c>
       <c r="K196">
         <v>91489</v>
       </c>
@@ -25862,6 +26726,15 @@
       <c r="F197">
         <v>0.37057876308349091</v>
       </c>
+      <c r="G197">
+        <v>57752</v>
+      </c>
+      <c r="H197">
+        <v>92848</v>
+      </c>
+      <c r="I197">
+        <v>3034248.366013072</v>
+      </c>
       <c r="K197">
         <v>29918</v>
       </c>
@@ -25969,6 +26842,15 @@
       <c r="F198">
         <v>0.34107145099122399</v>
       </c>
+      <c r="G198">
+        <v>62461</v>
+      </c>
+      <c r="H198">
+        <v>91336</v>
+      </c>
+      <c r="I198">
+        <v>2984836.6013071896</v>
+      </c>
       <c r="K198">
         <v>21446</v>
       </c>
@@ -26076,6 +26958,15 @@
       <c r="F199">
         <v>0.41647966858185587</v>
       </c>
+      <c r="G199">
+        <v>55698</v>
+      </c>
+      <c r="H199">
+        <v>91016</v>
+      </c>
+      <c r="I199">
+        <v>2974379.0849673203</v>
+      </c>
       <c r="K199">
         <v>22560</v>
       </c>
@@ -26183,6 +27074,15 @@
       <c r="F200">
         <v>0.54930675243981431</v>
       </c>
+      <c r="G200">
+        <v>61838</v>
+      </c>
+      <c r="H200">
+        <v>99634</v>
+      </c>
+      <c r="I200">
+        <v>3256013.0718954247</v>
+      </c>
       <c r="K200">
         <v>28222</v>
       </c>
@@ -26290,6 +27190,15 @@
       <c r="F201">
         <v>0.33198348101519587</v>
       </c>
+      <c r="G201">
+        <v>45870</v>
+      </c>
+      <c r="H201">
+        <v>90763</v>
+      </c>
+      <c r="I201">
+        <v>2966111.111111111</v>
+      </c>
       <c r="K201">
         <v>6147</v>
       </c>
@@ -26397,6 +27306,15 @@
       <c r="F202">
         <v>0.36412974883251292</v>
       </c>
+      <c r="G202">
+        <v>48196</v>
+      </c>
+      <c r="H202">
+        <v>89663</v>
+      </c>
+      <c r="I202">
+        <v>2930163.3986928104</v>
+      </c>
       <c r="K202">
         <v>6091</v>
       </c>
@@ -26504,6 +27422,15 @@
       <c r="F203">
         <v>0.29138097648520545</v>
       </c>
+      <c r="G203">
+        <v>45428</v>
+      </c>
+      <c r="H203">
+        <v>91313</v>
+      </c>
+      <c r="I203">
+        <v>2984084.9673202615</v>
+      </c>
       <c r="K203">
         <v>5277</v>
       </c>
@@ -26611,6 +27538,15 @@
       <c r="F204">
         <v>0.34229142493543435</v>
       </c>
+      <c r="G204">
+        <v>45138</v>
+      </c>
+      <c r="H204">
+        <v>91947</v>
+      </c>
+      <c r="I204">
+        <v>3004803.9215686275</v>
+      </c>
       <c r="K204">
         <v>6740</v>
       </c>
@@ -26718,6 +27654,15 @@
       <c r="F205">
         <v>0.32031134173461823</v>
       </c>
+      <c r="G205">
+        <v>46788</v>
+      </c>
+      <c r="H205">
+        <v>93050</v>
+      </c>
+      <c r="I205">
+        <v>3040849.6732026143</v>
+      </c>
       <c r="K205">
         <v>6748</v>
       </c>
@@ -26825,6 +27770,15 @@
       <c r="F206">
         <v>0.34099824410654911</v>
       </c>
+      <c r="G206">
+        <v>45183</v>
+      </c>
+      <c r="H206">
+        <v>94619</v>
+      </c>
+      <c r="I206">
+        <v>3092124.1830065357</v>
+      </c>
       <c r="K206">
         <v>12082</v>
       </c>
@@ -26932,6 +27886,15 @@
       <c r="F207">
         <v>0.38092619505872188</v>
       </c>
+      <c r="G207">
+        <v>50501</v>
+      </c>
+      <c r="H207">
+        <v>92218</v>
+      </c>
+      <c r="I207">
+        <v>3013660.1307189544</v>
+      </c>
       <c r="K207">
         <v>12395</v>
       </c>
@@ -27039,6 +28002,15 @@
       <c r="F208">
         <v>0.37655943417750398</v>
       </c>
+      <c r="G208">
+        <v>69517</v>
+      </c>
+      <c r="H208">
+        <v>97641</v>
+      </c>
+      <c r="I208">
+        <v>3190882.3529411764</v>
+      </c>
       <c r="K208">
         <v>69030</v>
       </c>
@@ -27146,6 +28118,15 @@
       <c r="F209">
         <v>0.44203416507826487</v>
       </c>
+      <c r="G209">
+        <v>76970</v>
+      </c>
+      <c r="H209">
+        <v>125448</v>
+      </c>
+      <c r="I209">
+        <v>4099607.8431372554</v>
+      </c>
       <c r="K209">
         <v>89624</v>
       </c>
@@ -27253,6 +28234,15 @@
       <c r="F210">
         <v>0.34948028120530755</v>
       </c>
+      <c r="G210">
+        <v>82727</v>
+      </c>
+      <c r="H210">
+        <v>117410</v>
+      </c>
+      <c r="I210">
+        <v>3836928.1045751632</v>
+      </c>
       <c r="K210">
         <v>93636</v>
       </c>
@@ -27360,6 +28350,15 @@
       <c r="F211">
         <v>0.40125609411280855</v>
       </c>
+      <c r="G211">
+        <v>60542</v>
+      </c>
+      <c r="H211">
+        <v>101967</v>
+      </c>
+      <c r="I211">
+        <v>3332254.9019607846</v>
+      </c>
       <c r="K211">
         <v>38318</v>
       </c>
@@ -27467,6 +28466,15 @@
       <c r="F212">
         <v>0.48350360296761991</v>
       </c>
+      <c r="G212">
+        <v>75074</v>
+      </c>
+      <c r="H212">
+        <v>124320</v>
+      </c>
+      <c r="I212">
+        <v>4062745.0980392154</v>
+      </c>
       <c r="K212">
         <v>53016</v>
       </c>
@@ -27574,6 +28582,15 @@
       <c r="F213">
         <v>0.40066669552794493</v>
       </c>
+      <c r="G213">
+        <v>58029</v>
+      </c>
+      <c r="H213">
+        <v>98937</v>
+      </c>
+      <c r="I213">
+        <v>3233235.2941176472</v>
+      </c>
       <c r="K213">
         <v>13252</v>
       </c>
@@ -27681,6 +28698,15 @@
       <c r="F214">
         <v>0.39625579374275782</v>
       </c>
+      <c r="G214">
+        <v>46733</v>
+      </c>
+      <c r="H214">
+        <v>98217</v>
+      </c>
+      <c r="I214">
+        <v>3209705.8823529412</v>
+      </c>
       <c r="K214">
         <v>6933</v>
       </c>
@@ -27788,6 +28814,15 @@
       <c r="F215">
         <v>0.3301222085108077</v>
       </c>
+      <c r="G215">
+        <v>50694</v>
+      </c>
+      <c r="H215">
+        <v>94150</v>
+      </c>
+      <c r="I215">
+        <v>3076797.3856209153</v>
+      </c>
       <c r="K215">
         <v>6416</v>
       </c>
@@ -27895,6 +28930,15 @@
       <c r="F216">
         <v>0.29717146035277292</v>
       </c>
+      <c r="G216">
+        <v>41887</v>
+      </c>
+      <c r="H216">
+        <v>89822</v>
+      </c>
+      <c r="I216">
+        <v>2935359.477124183</v>
+      </c>
       <c r="K216">
         <v>12329</v>
       </c>
@@ -28002,6 +29046,15 @@
       <c r="F217">
         <v>0.32729248812051359</v>
       </c>
+      <c r="G217">
+        <v>43352</v>
+      </c>
+      <c r="H217">
+        <v>93839</v>
+      </c>
+      <c r="I217">
+        <v>3066633.9869281044</v>
+      </c>
       <c r="K217">
         <v>8562</v>
       </c>
@@ -28109,6 +29162,15 @@
       <c r="F218">
         <v>0.37894181922745135</v>
       </c>
+      <c r="G218">
+        <v>52842</v>
+      </c>
+      <c r="H218">
+        <v>93356</v>
+      </c>
+      <c r="I218">
+        <v>3050849.6732026143</v>
+      </c>
       <c r="K218">
         <v>18772</v>
       </c>
@@ -28216,6 +29278,15 @@
       <c r="F219">
         <v>0.37039862674041579</v>
       </c>
+      <c r="G219">
+        <v>45823</v>
+      </c>
+      <c r="H219">
+        <v>95338</v>
+      </c>
+      <c r="I219">
+        <v>3115620.9150326797</v>
+      </c>
       <c r="K219">
         <v>8525</v>
       </c>
@@ -28323,6 +29394,15 @@
       <c r="F220">
         <v>0.35292380389840522</v>
       </c>
+      <c r="G220">
+        <v>49435</v>
+      </c>
+      <c r="H220">
+        <v>96705</v>
+      </c>
+      <c r="I220">
+        <v>3160294.1176470588</v>
+      </c>
       <c r="K220">
         <v>8103</v>
       </c>
@@ -28430,6 +29510,15 @@
       <c r="F221">
         <v>0.33882091212458287</v>
       </c>
+      <c r="G221">
+        <v>49062</v>
+      </c>
+      <c r="H221">
+        <v>90627</v>
+      </c>
+      <c r="I221">
+        <v>2961666.666666667</v>
+      </c>
       <c r="K221">
         <v>15337</v>
       </c>
@@ -28537,6 +29626,15 @@
       <c r="F222">
         <v>0.62826415094339627</v>
       </c>
+      <c r="G222">
+        <v>51701</v>
+      </c>
+      <c r="H222">
+        <v>85991</v>
+      </c>
+      <c r="I222">
+        <v>2810163.3986928104</v>
+      </c>
       <c r="K222">
         <v>18152</v>
       </c>
@@ -28644,6 +29742,15 @@
       <c r="F223">
         <v>0.29419370524268412</v>
       </c>
+      <c r="G223">
+        <v>58169</v>
+      </c>
+      <c r="H223">
+        <v>107550</v>
+      </c>
+      <c r="I223">
+        <v>3514705.8823529412</v>
+      </c>
       <c r="K223">
         <v>25722</v>
       </c>
@@ -28751,6 +29858,15 @@
       <c r="F224">
         <v>0.34076930431180091</v>
       </c>
+      <c r="G224">
+        <v>44503</v>
+      </c>
+      <c r="H224">
+        <v>93597</v>
+      </c>
+      <c r="I224">
+        <v>3058725.4901960781</v>
+      </c>
       <c r="K224">
         <v>7691</v>
       </c>
@@ -28858,6 +29974,15 @@
       <c r="F225">
         <v>0.36854527661044267</v>
       </c>
+      <c r="G225">
+        <v>48002</v>
+      </c>
+      <c r="H225">
+        <v>104463</v>
+      </c>
+      <c r="I225">
+        <v>3413823.5294117648</v>
+      </c>
       <c r="K225">
         <v>13895</v>
       </c>
@@ -28965,6 +30090,15 @@
       <c r="F226">
         <v>0.40979955456570155</v>
       </c>
+      <c r="G226">
+        <v>53832</v>
+      </c>
+      <c r="H226">
+        <v>94455</v>
+      </c>
+      <c r="I226">
+        <v>3086764.7058823528</v>
+      </c>
       <c r="K226">
         <v>13286</v>
       </c>
@@ -29072,6 +30206,15 @@
       <c r="F227">
         <v>0.31917070874521603</v>
       </c>
+      <c r="G227">
+        <v>41393</v>
+      </c>
+      <c r="H227">
+        <v>93500</v>
+      </c>
+      <c r="I227">
+        <v>3055555.5555555555</v>
+      </c>
       <c r="K227">
         <v>10012</v>
       </c>
@@ -29179,6 +30322,15 @@
       <c r="F228">
         <v>0.32191962803055463</v>
       </c>
+      <c r="G228">
+        <v>43604</v>
+      </c>
+      <c r="H228">
+        <v>94007</v>
+      </c>
+      <c r="I228">
+        <v>3072124.1830065357</v>
+      </c>
       <c r="K228">
         <v>5920</v>
       </c>
@@ -29286,6 +30438,15 @@
       <c r="F229">
         <v>0.27740959140009391</v>
       </c>
+      <c r="G229">
+        <v>36992</v>
+      </c>
+      <c r="H229">
+        <v>96596</v>
+      </c>
+      <c r="I229">
+        <v>3156732.0261437907</v>
+      </c>
       <c r="K229">
         <v>7408</v>
       </c>
@@ -29393,6 +30554,15 @@
       <c r="F230">
         <v>0.40842920710125025</v>
       </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
       <c r="K230">
         <v>164385</v>
       </c>
@@ -29503,6 +30673,15 @@
       <c r="F231">
         <v>0.51651208513630231</v>
       </c>
+      <c r="G231">
+        <v>74031</v>
+      </c>
+      <c r="H231">
+        <v>125255</v>
+      </c>
+      <c r="I231">
+        <v>4093300.6535947714</v>
+      </c>
       <c r="K231">
         <v>0</v>
       </c>
@@ -29613,6 +30792,15 @@
       <c r="F232">
         <v>0.31713299018960889</v>
       </c>
+      <c r="G232">
+        <v>87191</v>
+      </c>
+      <c r="H232">
+        <v>116903</v>
+      </c>
+      <c r="I232">
+        <v>3820359.4771241825</v>
+      </c>
       <c r="K232">
         <v>0</v>
       </c>
@@ -29720,6 +30908,15 @@
       <c r="F233">
         <v>0.49895603459546833</v>
       </c>
+      <c r="G233">
+        <v>79533</v>
+      </c>
+      <c r="H233">
+        <v>109496</v>
+      </c>
+      <c r="I233">
+        <v>3578300.6535947714</v>
+      </c>
       <c r="K233">
         <v>85577</v>
       </c>
@@ -29827,6 +31024,15 @@
       <c r="F234">
         <v>0.41253237625669825</v>
       </c>
+      <c r="G234">
+        <v>70806</v>
+      </c>
+      <c r="H234">
+        <v>106997</v>
+      </c>
+      <c r="I234">
+        <v>3496633.9869281044</v>
+      </c>
       <c r="K234">
         <v>43594</v>
       </c>
@@ -29934,6 +31140,15 @@
       <c r="F235">
         <v>0.37809645492858368</v>
       </c>
+      <c r="G235">
+        <v>70934</v>
+      </c>
+      <c r="H235">
+        <v>101731</v>
+      </c>
+      <c r="I235">
+        <v>3324542.4836601308</v>
+      </c>
       <c r="K235">
         <v>46148</v>
       </c>
@@ -30041,6 +31256,15 @@
       <c r="F236">
         <v>0.4943415762302657</v>
       </c>
+      <c r="G236">
+        <v>79101</v>
+      </c>
+      <c r="H236">
+        <v>117076</v>
+      </c>
+      <c r="I236">
+        <v>3826013.0718954247</v>
+      </c>
       <c r="K236">
         <v>157096</v>
       </c>
@@ -30148,6 +31372,15 @@
       <c r="F237">
         <v>0.38263889570191018</v>
       </c>
+      <c r="G237">
+        <v>70286</v>
+      </c>
+      <c r="H237">
+        <v>103123</v>
+      </c>
+      <c r="I237">
+        <v>3370032.6797385621</v>
+      </c>
       <c r="K237">
         <v>27741</v>
       </c>
@@ -30255,6 +31488,15 @@
       <c r="F238">
         <v>0.43762354815550597</v>
       </c>
+      <c r="G238">
+        <v>67330</v>
+      </c>
+      <c r="H238">
+        <v>94363</v>
+      </c>
+      <c r="I238">
+        <v>3083758.1699346406</v>
+      </c>
       <c r="K238">
         <v>30066</v>
       </c>
@@ -30362,6 +31604,15 @@
       <c r="F239">
         <v>0.33248325093805198</v>
       </c>
+      <c r="G239">
+        <v>63368</v>
+      </c>
+      <c r="H239">
+        <v>96881</v>
+      </c>
+      <c r="I239">
+        <v>3166045.7516339868</v>
+      </c>
       <c r="K239">
         <v>23749</v>
       </c>
@@ -30469,6 +31720,15 @@
       <c r="F240">
         <v>0.34073262850483693</v>
       </c>
+      <c r="G240">
+        <v>64930</v>
+      </c>
+      <c r="H240">
+        <v>95329</v>
+      </c>
+      <c r="I240">
+        <v>3115326.7973856209</v>
+      </c>
       <c r="K240">
         <v>19031</v>
       </c>
@@ -30576,6 +31836,15 @@
       <c r="F241">
         <v>0.40732255216424335</v>
       </c>
+      <c r="G241">
+        <v>82452</v>
+      </c>
+      <c r="H241">
+        <v>95866</v>
+      </c>
+      <c r="I241">
+        <v>3132875.8169934643</v>
+      </c>
       <c r="K241">
         <v>90529</v>
       </c>
@@ -30683,6 +31952,15 @@
       <c r="F242">
         <v>0.3676945924696427</v>
       </c>
+      <c r="G242">
+        <v>53199</v>
+      </c>
+      <c r="H242">
+        <v>96601</v>
+      </c>
+      <c r="I242">
+        <v>3156895.4248366011</v>
+      </c>
       <c r="K242">
         <v>5605</v>
       </c>
@@ -30790,6 +32068,15 @@
       <c r="F243">
         <v>0.28865369833855614</v>
       </c>
+      <c r="G243">
+        <v>45945</v>
+      </c>
+      <c r="H243">
+        <v>91308</v>
+      </c>
+      <c r="I243">
+        <v>2983921.5686274511</v>
+      </c>
       <c r="K243">
         <v>10966</v>
       </c>
@@ -30897,6 +32184,15 @@
       <c r="F244">
         <v>0.41150172729120099</v>
       </c>
+      <c r="G244">
+        <v>45483</v>
+      </c>
+      <c r="H244">
+        <v>92036</v>
+      </c>
+      <c r="I244">
+        <v>3007712.4183006538</v>
+      </c>
       <c r="K244">
         <v>5570</v>
       </c>
@@ -31004,6 +32300,15 @@
       <c r="F245">
         <v>0.27391304347826084</v>
       </c>
+      <c r="G245">
+        <v>41384</v>
+      </c>
+      <c r="H245">
+        <v>93841</v>
+      </c>
+      <c r="I245">
+        <v>3066699.3464052286</v>
+      </c>
       <c r="K245">
         <v>3376</v>
       </c>
@@ -31111,6 +32416,15 @@
       <c r="F246">
         <v>0.35394540383694395</v>
       </c>
+      <c r="G246">
+        <v>53275</v>
+      </c>
+      <c r="H246">
+        <v>91114</v>
+      </c>
+      <c r="I246">
+        <v>2977581.6993464055</v>
+      </c>
       <c r="K246">
         <v>7549</v>
       </c>
@@ -31218,6 +32532,15 @@
       <c r="F247">
         <v>0.39086160628713817</v>
       </c>
+      <c r="G247">
+        <v>61792</v>
+      </c>
+      <c r="H247">
+        <v>94638</v>
+      </c>
+      <c r="I247">
+        <v>3092745.0980392159</v>
+      </c>
       <c r="K247">
         <v>10044</v>
       </c>
@@ -31325,6 +32648,15 @@
       <c r="F248">
         <v>0.64833517951391151</v>
       </c>
+      <c r="G248">
+        <v>60853</v>
+      </c>
+      <c r="H248">
+        <v>92825</v>
+      </c>
+      <c r="I248">
+        <v>3033496.7320261439</v>
+      </c>
       <c r="K248">
         <v>9085</v>
       </c>
@@ -31432,6 +32764,15 @@
       <c r="F249">
         <v>0.48764638507748764</v>
       </c>
+      <c r="G249">
+        <v>59293</v>
+      </c>
+      <c r="H249">
+        <v>94107</v>
+      </c>
+      <c r="I249">
+        <v>3075392.1568627451</v>
+      </c>
       <c r="K249">
         <v>11254</v>
       </c>
@@ -31539,6 +32880,15 @@
       <c r="F250">
         <v>0.53911966480152496</v>
       </c>
+      <c r="G250">
+        <v>69721</v>
+      </c>
+      <c r="H250">
+        <v>101483</v>
+      </c>
+      <c r="I250">
+        <v>3316437.9084967319</v>
+      </c>
       <c r="K250">
         <v>41089</v>
       </c>
@@ -31646,6 +32996,15 @@
       <c r="F251">
         <v>0.22663011342256625</v>
       </c>
+      <c r="G251">
+        <v>58837</v>
+      </c>
+      <c r="H251">
+        <v>104208</v>
+      </c>
+      <c r="I251">
+        <v>3405490.1960784313</v>
+      </c>
       <c r="K251">
         <v>14275</v>
       </c>
@@ -31753,6 +33112,15 @@
       <c r="F252">
         <v>0.35203038270522935</v>
       </c>
+      <c r="G252">
+        <v>45738</v>
+      </c>
+      <c r="H252">
+        <v>94821</v>
+      </c>
+      <c r="I252">
+        <v>3098725.4901960781</v>
+      </c>
       <c r="K252">
         <v>6507</v>
       </c>
@@ -31860,6 +33228,15 @@
       <c r="F253">
         <v>0.39867754114432324</v>
       </c>
+      <c r="G253">
+        <v>56643</v>
+      </c>
+      <c r="H253">
+        <v>111872</v>
+      </c>
+      <c r="I253">
+        <v>3655947.712418301</v>
+      </c>
       <c r="K253">
         <v>13335</v>
       </c>
@@ -31967,6 +33344,15 @@
       <c r="F254">
         <v>0.50494715538565327</v>
       </c>
+      <c r="G254">
+        <v>41496</v>
+      </c>
+      <c r="H254">
+        <v>111325</v>
+      </c>
+      <c r="I254">
+        <v>3638071.8954248368</v>
+      </c>
       <c r="K254">
         <v>2892</v>
       </c>
@@ -32074,6 +33460,15 @@
       <c r="F255">
         <v>0.43603400891336125</v>
       </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
       <c r="K255">
         <v>386520</v>
       </c>
@@ -32184,6 +33579,15 @@
       <c r="F256">
         <v>0.53391772134497828</v>
       </c>
+      <c r="G256">
+        <v>88734</v>
+      </c>
+      <c r="H256">
+        <v>115052</v>
+      </c>
+      <c r="I256">
+        <v>3759869.2810457521</v>
+      </c>
       <c r="K256">
         <v>0</v>
       </c>
@@ -32294,6 +33698,15 @@
       <c r="F257">
         <v>0.61360718870346598</v>
       </c>
+      <c r="G257">
+        <v>104386</v>
+      </c>
+      <c r="H257">
+        <v>134934</v>
+      </c>
+      <c r="I257">
+        <v>4409607.8431372549</v>
+      </c>
       <c r="K257">
         <v>0</v>
       </c>
@@ -32404,6 +33817,15 @@
       <c r="F258">
         <v>0.3539078974970466</v>
       </c>
+      <c r="G258">
+        <v>82485</v>
+      </c>
+      <c r="H258">
+        <v>104771</v>
+      </c>
+      <c r="I258">
+        <v>3423888.888888889</v>
+      </c>
       <c r="K258">
         <v>0</v>
       </c>
@@ -32514,6 +33936,15 @@
       <c r="F259">
         <v>0.37257442690086545</v>
       </c>
+      <c r="G259">
+        <v>85649</v>
+      </c>
+      <c r="H259">
+        <v>106715</v>
+      </c>
+      <c r="I259">
+        <v>3487418.3006535945</v>
+      </c>
       <c r="K259">
         <v>0</v>
       </c>
@@ -32624,6 +34055,15 @@
       <c r="F260">
         <v>0.23336590885711347</v>
       </c>
+      <c r="G260">
+        <v>83049</v>
+      </c>
+      <c r="H260">
+        <v>105886</v>
+      </c>
+      <c r="I260">
+        <v>3460326.7973856209</v>
+      </c>
       <c r="K260">
         <v>0</v>
       </c>
@@ -32731,6 +34171,15 @@
       <c r="F261">
         <v>0.38551194151377138</v>
       </c>
+      <c r="G261">
+        <v>85696</v>
+      </c>
+      <c r="H261">
+        <v>112124</v>
+      </c>
+      <c r="I261">
+        <v>3664183.0065359478</v>
+      </c>
       <c r="K261">
         <v>116342</v>
       </c>
@@ -32838,6 +34287,15 @@
       <c r="F262">
         <v>0.35031492556304872</v>
       </c>
+      <c r="G262">
+        <v>72636</v>
+      </c>
+      <c r="H262">
+        <v>96850</v>
+      </c>
+      <c r="I262">
+        <v>3165032.6797385621</v>
+      </c>
       <c r="K262">
         <v>35192</v>
       </c>
@@ -32945,6 +34403,15 @@
       <c r="F263">
         <v>0.45052130635376175</v>
       </c>
+      <c r="G263">
+        <v>69148</v>
+      </c>
+      <c r="H263">
+        <v>105908</v>
+      </c>
+      <c r="I263">
+        <v>3461045.7516339868</v>
+      </c>
       <c r="K263">
         <v>36453</v>
       </c>
@@ -33052,6 +34519,15 @@
       <c r="F264">
         <v>0.41931046517240228</v>
       </c>
+      <c r="G264">
+        <v>94402</v>
+      </c>
+      <c r="H264">
+        <v>106431</v>
+      </c>
+      <c r="I264">
+        <v>3478137.254901961</v>
+      </c>
       <c r="K264">
         <v>208421</v>
       </c>
@@ -33159,6 +34635,15 @@
       <c r="F265">
         <v>0.3489056305285192</v>
       </c>
+      <c r="G265">
+        <v>72365</v>
+      </c>
+      <c r="H265">
+        <v>96528</v>
+      </c>
+      <c r="I265">
+        <v>3154509.8039215687</v>
+      </c>
       <c r="K265">
         <v>30131</v>
       </c>
@@ -33266,6 +34751,15 @@
       <c r="F266">
         <v>0.48788030378825775</v>
       </c>
+      <c r="G266">
+        <v>83169</v>
+      </c>
+      <c r="H266">
+        <v>112917</v>
+      </c>
+      <c r="I266">
+        <v>3690098.0392156858</v>
+      </c>
       <c r="K266">
         <v>92590</v>
       </c>
@@ -33373,6 +34867,15 @@
       <c r="F267">
         <v>0.3851796157531594</v>
       </c>
+      <c r="G267">
+        <v>87544</v>
+      </c>
+      <c r="H267">
+        <v>102974</v>
+      </c>
+      <c r="I267">
+        <v>3365163.3986928109</v>
+      </c>
       <c r="K267">
         <v>129518</v>
       </c>
@@ -33480,6 +34983,15 @@
       <c r="F268">
         <v>0.35536594615092909</v>
       </c>
+      <c r="G268">
+        <v>50407</v>
+      </c>
+      <c r="H268">
+        <v>93909</v>
+      </c>
+      <c r="I268">
+        <v>3068921.5686274511</v>
+      </c>
       <c r="K268">
         <v>6874</v>
       </c>
@@ -33587,6 +35099,15 @@
       <c r="F269">
         <v>0.65538000891890169</v>
       </c>
+      <c r="G269">
+        <v>69605</v>
+      </c>
+      <c r="H269">
+        <v>99273</v>
+      </c>
+      <c r="I269">
+        <v>3244215.6862745099</v>
+      </c>
       <c r="K269">
         <v>21884</v>
       </c>
@@ -33694,6 +35215,15 @@
       <c r="F270">
         <v>0.43020198995041764</v>
       </c>
+      <c r="G270">
+        <v>58711</v>
+      </c>
+      <c r="H270">
+        <v>93065</v>
+      </c>
+      <c r="I270">
+        <v>3041339.8692810456</v>
+      </c>
       <c r="K270">
         <v>17640</v>
       </c>
@@ -33801,6 +35331,15 @@
       <c r="F271">
         <v>0.4085002172453292</v>
       </c>
+      <c r="G271">
+        <v>55187</v>
+      </c>
+      <c r="H271">
+        <v>91189</v>
+      </c>
+      <c r="I271">
+        <v>2980032.6797385621</v>
+      </c>
       <c r="K271">
         <v>13147</v>
       </c>
@@ -33908,6 +35447,15 @@
       <c r="F272">
         <v>0.36387236854526572</v>
       </c>
+      <c r="G272">
+        <v>55362</v>
+      </c>
+      <c r="H272">
+        <v>94518</v>
+      </c>
+      <c r="I272">
+        <v>3088823.5294117648</v>
+      </c>
       <c r="K272">
         <v>9333</v>
       </c>
@@ -34015,6 +35563,15 @@
       <c r="F273">
         <v>0.32495639401450471</v>
       </c>
+      <c r="G273">
+        <v>51727</v>
+      </c>
+      <c r="H273">
+        <v>96657</v>
+      </c>
+      <c r="I273">
+        <v>3158725.4901960781</v>
+      </c>
       <c r="K273">
         <v>9750</v>
       </c>
@@ -34122,6 +35679,15 @@
       <c r="F274">
         <v>0.34774523477452346</v>
       </c>
+      <c r="G274">
+        <v>55010</v>
+      </c>
+      <c r="H274">
+        <v>91899</v>
+      </c>
+      <c r="I274">
+        <v>3003235.2941176472</v>
+      </c>
       <c r="K274">
         <v>7961</v>
       </c>
@@ -34229,6 +35795,15 @@
       <c r="F275">
         <v>0.34365172189733595</v>
       </c>
+      <c r="G275">
+        <v>52935</v>
+      </c>
+      <c r="H275">
+        <v>92263</v>
+      </c>
+      <c r="I275">
+        <v>3015130.7189542484</v>
+      </c>
       <c r="K275">
         <v>9343</v>
       </c>
@@ -34336,6 +35911,15 @@
       <c r="F276">
         <v>0.32260540152183143</v>
       </c>
+      <c r="G276">
+        <v>56588</v>
+      </c>
+      <c r="H276">
+        <v>100032</v>
+      </c>
+      <c r="I276">
+        <v>3269019.6078431373</v>
+      </c>
       <c r="K276">
         <v>15525</v>
       </c>
@@ -34443,6 +36027,15 @@
       <c r="F277">
         <v>0.28922354691022334</v>
       </c>
+      <c r="G277">
+        <v>49701</v>
+      </c>
+      <c r="H277">
+        <v>92935</v>
+      </c>
+      <c r="I277">
+        <v>3037091.5032679737</v>
+      </c>
       <c r="K277">
         <v>9211</v>
       </c>
@@ -34550,6 +36143,15 @@
       <c r="F278">
         <v>0.40058391200770438</v>
       </c>
+      <c r="G278">
+        <v>89223</v>
+      </c>
+      <c r="H278">
+        <v>100300</v>
+      </c>
+      <c r="I278">
+        <v>3277777.777777778</v>
+      </c>
       <c r="K278">
         <v>171469</v>
       </c>
@@ -34656,6 +36258,15 @@
       </c>
       <c r="F279">
         <v>0.35205951653721967</v>
+      </c>
+      <c r="G279">
+        <v>87844</v>
+      </c>
+      <c r="H279">
+        <v>96091</v>
+      </c>
+      <c r="I279">
+        <v>3140228.7581699346</v>
       </c>
       <c r="K279">
         <v>54529</v>
